--- a/output/10-specific-country.xlsx
+++ b/output/10-specific-country.xlsx
@@ -10,6 +10,7 @@
     <sheet name="descriptives" sheetId="1" r:id="rId1"/>
     <sheet name="coefficients" sheetId="2" r:id="rId2"/>
     <sheet name="pairwise" sheetId="3" r:id="rId3"/>
+    <sheet name="nr_studies" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -408,25 +409,25 @@
         </is>
       </c>
       <c r="B2">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C2">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="D2">
-        <v>0.0100815528953193</v>
+        <v>0.01114209995224157</v>
       </c>
       <c r="E2">
-        <v>0.02242006532609987</v>
+        <v>0.02215077989022577</v>
       </c>
       <c r="F2">
-        <v>94.5581685174144</v>
+        <v>94.67092589554423</v>
       </c>
       <c r="G2">
-        <v>65.22753115965382</v>
+        <v>62.98748715757429</v>
       </c>
       <c r="H2">
-        <v>29.33063735776058</v>
+        <v>31.68343873796995</v>
       </c>
     </row>
     <row r="3">
@@ -436,25 +437,25 @@
         </is>
       </c>
       <c r="B3">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C3">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="D3">
-        <v>1.694273969807015e-09</v>
+        <v>3.7907550283455e-09</v>
       </c>
       <c r="E3">
-        <v>0.02175992841728657</v>
+        <v>0.0201262802318296</v>
       </c>
       <c r="F3">
-        <v>87.65203380763147</v>
+        <v>86.15312127942526</v>
       </c>
       <c r="G3">
-        <v>87.65202698285958</v>
+        <v>86.15310505261571</v>
       </c>
       <c r="H3">
-        <v>6.824771886653093e-06</v>
+        <v>1.62268095457246e-05</v>
       </c>
     </row>
   </sheetData>
@@ -464,7 +465,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H168"/>
+  <dimension ref="A1:H191"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -524,22 +525,22 @@
         </is>
       </c>
       <c r="C2">
-        <v>-0.283123801415884</v>
+        <v>-0.289542539900678</v>
       </c>
       <c r="D2">
-        <v>0.07515146541253151</v>
+        <v>0.07618485350614493</v>
       </c>
       <c r="E2">
-        <v>3.434063491205269</v>
+        <v>3.494652780669082</v>
       </c>
       <c r="F2">
-        <v>-0.4730679839345643</v>
+        <v>-0.4794090814871272</v>
       </c>
       <c r="G2">
-        <v>-0.06802894172979689</v>
+        <v>-0.07378267971964508</v>
       </c>
       <c r="H2">
-        <v>0.0238396414927182</v>
+        <v>0.02240708473555655</v>
       </c>
     </row>
     <row r="3">
@@ -554,22 +555,22 @@
         </is>
       </c>
       <c r="C3">
-        <v>0.2000983867235273</v>
+        <v>0.1910866433272323</v>
       </c>
       <c r="D3">
-        <v>0.1363814609726083</v>
+        <v>0.1321871187796504</v>
       </c>
       <c r="E3">
-        <v>1.883134364108674</v>
+        <v>1.873793027833014</v>
       </c>
       <c r="F3">
-        <v>-0.3971696813717277</v>
+        <v>-0.3915462142011557</v>
       </c>
       <c r="G3">
-        <v>0.6782975702799762</v>
+        <v>0.6643466065641043</v>
       </c>
       <c r="H3">
-        <v>0.2825994988155258</v>
+        <v>0.2887063765384334</v>
       </c>
     </row>
     <row r="4">
@@ -580,26 +581,26 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>specific_factorAutonomous motivation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
+          <t>specific_factorautonomous motivation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
         </is>
       </c>
       <c r="C4">
-        <v>0.338293973950225</v>
+        <v>0.5441104189878846</v>
       </c>
       <c r="D4">
-        <v>0.04876114442684394</v>
+        <v>0.04836774149279165</v>
       </c>
       <c r="E4">
-        <v>15.07763213925796</v>
+        <v>2.586567348979594</v>
       </c>
       <c r="F4">
-        <v>0.2433006297967924</v>
+        <v>0.4145963081555264</v>
       </c>
       <c r="G4">
-        <v>0.4268594730886915</v>
+        <v>0.652019531927936</v>
       </c>
       <c r="H4">
-        <v>2.87596872531703e-06</v>
+        <v>0.002157784620986117</v>
       </c>
     </row>
     <row r="5">
@@ -610,26 +611,26 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>specific_factorControlled causality orientation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
+          <t>specific_factorAutonomous motivation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
         </is>
       </c>
       <c r="C5">
-        <v>-0.1849015162572165</v>
+        <v>0.3272639521580989</v>
       </c>
       <c r="D5">
-        <v>0.1160015869793846</v>
+        <v>0.0527231152529068</v>
       </c>
       <c r="E5">
-        <v>2.043107298783552</v>
+        <v>14.35078646772215</v>
       </c>
       <c r="F5">
-        <v>-0.589050356948111</v>
+        <v>0.2231225585922056</v>
       </c>
       <c r="G5">
-        <v>0.293237417546887</v>
+        <v>0.424019101867852</v>
       </c>
       <c r="H5">
-        <v>0.2455900228908811</v>
+        <v>1.365969374443927e-05</v>
       </c>
     </row>
     <row r="6">
@@ -640,26 +641,26 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>specific_factorControlled motivation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
+          <t>specific_factorControlled causality orientation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
         </is>
       </c>
       <c r="C6">
-        <v>-0.03810864747080871</v>
+        <v>-0.1920224581606282</v>
       </c>
       <c r="D6">
-        <v>0.04470447678302886</v>
+        <v>0.11305651717097</v>
       </c>
       <c r="E6">
-        <v>9.134831243261919</v>
+        <v>2.017391769822757</v>
       </c>
       <c r="F6">
-        <v>-0.1381396978378579</v>
+        <v>-0.5894889462729863</v>
       </c>
       <c r="G6">
-        <v>0.0626920346933046</v>
+        <v>0.2803022457862412</v>
       </c>
       <c r="H6">
-        <v>0.4155330410312905</v>
+        <v>0.2265296337719592</v>
       </c>
     </row>
     <row r="7">
@@ -670,26 +671,26 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>specific_factorEmotional intelligence:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
+          <t>specific_factorControlled motivation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
         </is>
       </c>
       <c r="C7">
-        <v>0.3394160107820399</v>
+        <v>-0.04530295844985761</v>
       </c>
       <c r="D7">
-        <v>0.08274211535322699</v>
+        <v>0.04425607019801566</v>
       </c>
       <c r="E7">
-        <v>1.083365909237384</v>
+        <v>9.308690812200412</v>
       </c>
       <c r="F7">
-        <v>-0.4813511436427904</v>
+        <v>-0.1439377948480234</v>
       </c>
       <c r="G7">
-        <v>0.843044565023805</v>
+        <v>0.05422316214889643</v>
       </c>
       <c r="H7">
-        <v>0.1316790451749347</v>
+        <v>0.3315492474874144</v>
       </c>
     </row>
     <row r="8">
@@ -700,26 +701,26 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>specific_factorEntity beliefs:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
+          <t>specific_factorEmotional intelligence:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
         </is>
       </c>
       <c r="C8">
-        <v>-0.2238130052987303</v>
+        <v>0.3531929471066837</v>
       </c>
       <c r="D8">
-        <v>0.03024088402374523</v>
+        <v>0.06400287060686942</v>
       </c>
       <c r="E8">
-        <v>2.029263031058226</v>
+        <v>1.034155019498136</v>
       </c>
       <c r="F8">
-        <v>-0.3416867418101814</v>
+        <v>-0.3656074813446534</v>
       </c>
       <c r="G8">
-        <v>-0.09900681360224664</v>
+        <v>0.8080961333156178</v>
       </c>
       <c r="H8">
-        <v>0.01650548768464214</v>
+        <v>0.1036039001021974</v>
       </c>
     </row>
     <row r="9">
@@ -730,26 +731,26 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>specific_factorExternal pressure in terms of constraints:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
+          <t>specific_factorentity beliefs:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
         </is>
       </c>
       <c r="C9">
-        <v>-0.0358929351375603</v>
+        <v>-0.2258305056369514</v>
       </c>
       <c r="D9">
-        <v>0.06259188031919409</v>
+        <v>0.03272043184296677</v>
       </c>
       <c r="E9">
-        <v>2.110685975775898</v>
+        <v>2.040517804752363</v>
       </c>
       <c r="F9">
-        <v>-0.2840924711632778</v>
+        <v>-0.3521805641235855</v>
       </c>
       <c r="G9">
-        <v>0.2168149611277891</v>
+        <v>-0.09139635652470329</v>
       </c>
       <c r="H9">
-        <v>0.6214090195549852</v>
+        <v>0.01865279247690462</v>
       </c>
     </row>
     <row r="10">
@@ -760,26 +761,26 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>specific_factorExternal pressures:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
+          <t>specific_factorExternal pressure in terms of constraints:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
         </is>
       </c>
       <c r="C10">
-        <v>-0.1280095742083274</v>
+        <v>-0.0385434959487529</v>
       </c>
       <c r="D10">
-        <v>0.0486184168302746</v>
+        <v>0.06156269905915013</v>
       </c>
       <c r="E10">
-        <v>2.983624804307239</v>
+        <v>2.167276914367674</v>
       </c>
       <c r="F10">
-        <v>-0.2765317776595098</v>
+        <v>-0.2773295945386883</v>
       </c>
       <c r="G10">
-        <v>0.02648508299005368</v>
+        <v>0.2047272225928705</v>
       </c>
       <c r="H10">
-        <v>0.07760671273218171</v>
+        <v>0.5906547281461725</v>
       </c>
     </row>
     <row r="11">
@@ -790,14 +791,26 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>specific_factorExtrinsic goals:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
+          <t>specific_factorexternal pressures:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
         </is>
       </c>
       <c r="C11">
-        <v>-0.21</v>
+        <v>-0.1190070299814722</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.06929770570949344</v>
+      </c>
+      <c r="E11">
+        <v>1.320488824726982</v>
+      </c>
+      <c r="F11">
+        <v>-0.5552438017910275</v>
+      </c>
+      <c r="G11">
+        <v>0.3685838510301666</v>
+      </c>
+      <c r="H11">
+        <v>0.2860925142010905</v>
       </c>
     </row>
     <row r="12">
@@ -808,26 +821,26 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>specific_factorIll-being:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
+          <t>specific_factorExternal pressures:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
         </is>
       </c>
       <c r="C12">
-        <v>-0.2541986146684389</v>
+        <v>-0.1614616490380165</v>
       </c>
       <c r="D12">
-        <v>0.1012429079434134</v>
+        <v>0.05634719444582019</v>
       </c>
       <c r="E12">
-        <v>8.091971522182284</v>
+        <v>2.131155720535005</v>
       </c>
       <c r="F12">
-        <v>-0.4565165736373689</v>
+        <v>-0.3727198314514846</v>
       </c>
       <c r="G12">
-        <v>-0.02688441659210199</v>
+        <v>0.06570899319100157</v>
       </c>
       <c r="H12">
-        <v>0.03297493912154743</v>
+        <v>0.09451729195728856</v>
       </c>
     </row>
     <row r="13">
@@ -838,26 +851,26 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>specific_factorIncremental beliefs:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
+          <t>specific_factorill-being:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
         </is>
       </c>
       <c r="C13">
-        <v>0.1386615105047691</v>
+        <v>-0.07530246878128076</v>
       </c>
       <c r="D13">
-        <v>0.02184913649254466</v>
+        <v>0.07862811775587225</v>
       </c>
       <c r="E13">
-        <v>1.123639777494563</v>
+        <v>1.040376352253436</v>
       </c>
       <c r="F13">
-        <v>-0.07518452713725626</v>
+        <v>-0.7562455687881108</v>
       </c>
       <c r="G13">
-        <v>0.3403142084802572</v>
+        <v>0.6839484282748077</v>
       </c>
       <c r="H13">
-        <v>0.08072290927529049</v>
+        <v>0.5081309078143457</v>
       </c>
     </row>
     <row r="14">
@@ -868,26 +881,26 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>specific_factorInternal pressures:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
+          <t>specific_factorIll-being:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
         </is>
       </c>
       <c r="C14">
-        <v>-0.02303552372867592</v>
+        <v>-0.2627334249003859</v>
       </c>
       <c r="D14">
-        <v>0.07091469070976275</v>
+        <v>0.1107926203784353</v>
       </c>
       <c r="E14">
-        <v>1.286888683445762</v>
+        <v>5.837815244333735</v>
       </c>
       <c r="F14">
-        <v>-0.5110745275177623</v>
+        <v>-0.4944839477582709</v>
       </c>
       <c r="G14">
-        <v>0.476235278477499</v>
+        <v>0.003893698856027357</v>
       </c>
       <c r="H14">
-        <v>0.7901396490897515</v>
+        <v>0.05240906784684198</v>
       </c>
     </row>
     <row r="15">
@@ -898,14 +911,26 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>specific_factorIntrinsic goals:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
+          <t>specific_factorIncremental beliefs:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
         </is>
       </c>
       <c r="C15">
-        <v>0.13</v>
+        <v>0.1386447850017157</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>0.02602838027483115</v>
+      </c>
+      <c r="E15">
+        <v>3.397829554298269</v>
+      </c>
+      <c r="F15">
+        <v>0.06185582479081544</v>
+      </c>
+      <c r="G15">
+        <v>0.2138020731645963</v>
+      </c>
+      <c r="H15">
+        <v>0.00916235987905205</v>
       </c>
     </row>
     <row r="16">
@@ -916,26 +941,26 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>specific_factorInvitation from others' to help:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
+          <t>specific_factorInternal pressures:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
         </is>
       </c>
       <c r="C16">
-        <v>0.2582162698198475</v>
+        <v>0.03825315146947584</v>
       </c>
       <c r="D16">
-        <v>0.05819561497364326</v>
+        <v>0.04095169504236787</v>
       </c>
       <c r="E16">
-        <v>5.478809243086593</v>
+        <v>1.381605682319868</v>
       </c>
       <c r="F16">
-        <v>0.1178969060455427</v>
+        <v>-0.2354743207537742</v>
       </c>
       <c r="G16">
-        <v>0.3884258568123116</v>
+        <v>0.3063577816036939</v>
       </c>
       <c r="H16">
-        <v>0.00493053634580116</v>
+        <v>0.4840351829082704</v>
       </c>
     </row>
     <row r="17">
@@ -946,26 +971,26 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>specific_factorLow personal responsibility for others':country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
+          <t>specific_factorInvitation from others to help:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
         </is>
       </c>
       <c r="C17">
-        <v>0.2186222503640975</v>
+        <v>0.2210561609994917</v>
       </c>
       <c r="D17">
-        <v>0.05819561505145475</v>
+        <v>0.1049648369203658</v>
       </c>
       <c r="E17">
-        <v>5.478809243086273</v>
+        <v>1.195846213255445</v>
       </c>
       <c r="F17">
-        <v>0.0763115399370618</v>
+        <v>-0.5973302267661033</v>
       </c>
       <c r="G17">
-        <v>0.3522036908920793</v>
+        <v>0.8139146501464423</v>
       </c>
       <c r="H17">
-        <v>0.01042735989450453</v>
+        <v>0.244472588419046</v>
       </c>
     </row>
     <row r="18">
@@ -976,26 +1001,26 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>specific_factorMastery goals:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
+          <t>specific_factorlow personal responsibility for others:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
         </is>
       </c>
       <c r="C18">
-        <v>0.2643794183242042</v>
+        <v>0.1807701114042037</v>
       </c>
       <c r="D18">
-        <v>0.05819561502882613</v>
+        <v>0.1049648370081406</v>
       </c>
       <c r="E18">
-        <v>5.478809243086333</v>
+        <v>1.195846213255445</v>
       </c>
       <c r="F18">
-        <v>0.1244145963729034</v>
+        <v>-0.6236606326465393</v>
       </c>
       <c r="G18">
-        <v>0.3940281855672872</v>
+        <v>0.799249492063777</v>
       </c>
       <c r="H18">
-        <v>0.004411850308046701</v>
+        <v>0.2999507767024435</v>
       </c>
     </row>
     <row r="19">
@@ -1006,26 +1031,26 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>specific_factorNeed frustration:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
+          <t>specific_factorMastery goals:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
         </is>
       </c>
       <c r="C19">
-        <v>-0.2326623874990894</v>
+        <v>0.2273384570831397</v>
       </c>
       <c r="D19">
-        <v>0.07983364909924164</v>
+        <v>0.1049648369826127</v>
       </c>
       <c r="E19">
-        <v>6.416563003900756</v>
+        <v>1.195846213255445</v>
       </c>
       <c r="F19">
-        <v>-0.4047486599293331</v>
+        <v>-0.5930587872476242</v>
       </c>
       <c r="G19">
-        <v>-0.04466007740419095</v>
+        <v>0.816135444602885</v>
       </c>
       <c r="H19">
-        <v>0.02308072939103515</v>
+        <v>0.2373095901488432</v>
       </c>
     </row>
     <row r="20">
@@ -1036,26 +1061,26 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>specific_factorNeed satisfaction:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
+          <t>specific_factorNeed frustration:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
         </is>
       </c>
       <c r="C20">
-        <v>0.2365138225035436</v>
+        <v>-0.2376182277978278</v>
       </c>
       <c r="D20">
-        <v>0.03636488451026718</v>
+        <v>0.08101378641363509</v>
       </c>
       <c r="E20">
-        <v>15.61042797341636</v>
+        <v>6.618491661174238</v>
       </c>
       <c r="F20">
-        <v>0.1623811430396222</v>
+        <v>-0.4103872884452975</v>
       </c>
       <c r="G20">
-        <v>0.3079914902652589</v>
+        <v>-0.04838192078605537</v>
       </c>
       <c r="H20">
-        <v>6.559335016699653e-06</v>
+        <v>0.02160678567164144</v>
       </c>
     </row>
     <row r="21">
@@ -1066,26 +1091,26 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>specific_factorNegative beliefs (religious):country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
+          <t>specific_factorNeed satisfaction:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
         </is>
       </c>
       <c r="C21">
-        <v>-0.05759308966138254</v>
+        <v>0.2317540502145309</v>
       </c>
       <c r="D21">
-        <v>7.026032826788038e-17</v>
+        <v>0.03788618049328808</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>16.25999528631997</v>
       </c>
       <c r="F21">
-        <v>-0.05759308966138343</v>
+        <v>0.1545821711919677</v>
       </c>
       <c r="G21">
-        <v>-0.05759308966138164</v>
+        <v>0.3061150801995289</v>
       </c>
       <c r="H21">
-        <v>7.757808389395994e-16</v>
+        <v>1.118218114919376e-05</v>
       </c>
     </row>
     <row r="22">
@@ -1096,26 +1121,26 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>specific_factorNegative beliefs about knowledge and learning:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
+          <t>specific_factorNegative beliefs (religious):country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
         </is>
       </c>
       <c r="C22">
-        <v>0.1058548247579401</v>
+        <v>-0.05759308966138255</v>
       </c>
       <c r="D22">
-        <v>1.077965224475534e-15</v>
+        <v>1.893544683305339e-17</v>
       </c>
       <c r="E22">
         <v>1</v>
       </c>
       <c r="F22">
-        <v>0.1058548247579265</v>
+        <v>-0.05759308966138279</v>
       </c>
       <c r="G22">
-        <v>0.1058548247579536</v>
+        <v>-0.05759308966138231</v>
       </c>
       <c r="H22">
-        <v>6.458685833702838e-15</v>
+        <v>2.090761200806654e-16</v>
       </c>
     </row>
     <row r="23">
@@ -1126,26 +1151,26 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>specific_factorNegative beliefs about motivation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
+          <t>specific_factorNegative beliefs about knowledge and learning:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
         </is>
       </c>
       <c r="C23">
-        <v>-0.1876164831156648</v>
+        <v>0.1058548247579403</v>
       </c>
       <c r="D23">
-        <v>0.01927241966514124</v>
+        <v>8.566286967065603e-16</v>
       </c>
       <c r="E23">
-        <v>2.434806792405177</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>-0.254384991010482</v>
+        <v>0.1058548247579296</v>
       </c>
       <c r="G23">
-        <v>-0.1190679190812878</v>
+        <v>0.1058548247579511</v>
       </c>
       <c r="H23">
-        <v>0.005087599492775222</v>
+        <v>5.132536284603997e-15</v>
       </c>
     </row>
     <row r="24">
@@ -1156,26 +1181,26 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>specific_factorNegative personality:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
+          <t>specific_factorNegative beliefs about motivation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
         </is>
       </c>
       <c r="C24">
-        <v>-0.1062492926223462</v>
+        <v>-0.1901444863971761</v>
       </c>
       <c r="D24">
-        <v>0.08207340159698392</v>
+        <v>0.01931220665874594</v>
       </c>
       <c r="E24">
-        <v>1.094905030830753</v>
+        <v>2.623576558502952</v>
       </c>
       <c r="F24">
-        <v>-0.743548945883222</v>
+        <v>-0.2535936984584717</v>
       </c>
       <c r="G24">
-        <v>0.6321964001935321</v>
+        <v>-0.1250660924992951</v>
       </c>
       <c r="H24">
-        <v>0.4032749842560643</v>
+        <v>0.003715444317199997</v>
       </c>
     </row>
     <row r="25">
@@ -1186,26 +1211,14 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>specific_factorOthers' abilities:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
+          <t>specific_factornegative personality:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
         </is>
       </c>
       <c r="C25">
-        <v>0.2290715556157286</v>
+        <v>-0.214</v>
       </c>
       <c r="D25">
-        <v>0.08739384184258647</v>
-      </c>
-      <c r="E25">
-        <v>2.757640663412301</v>
-      </c>
-      <c r="F25">
-        <v>-0.05920034922111829</v>
-      </c>
-      <c r="G25">
-        <v>0.4820784086833456</v>
-      </c>
-      <c r="H25">
-        <v>0.08290878823540274</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1216,26 +1229,26 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>specific_factorOthers' autonomous motivation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
+          <t>specific_factorNegative personality:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
         </is>
       </c>
       <c r="C26">
-        <v>0.2183076565941241</v>
+        <v>-0.03555674455916176</v>
       </c>
       <c r="D26">
-        <v>0.05834165744954817</v>
+        <v>0.04730169567782828</v>
       </c>
       <c r="E26">
-        <v>2.821422313522278</v>
+        <v>1.009344822560347</v>
       </c>
       <c r="F26">
-        <v>0.02937224706999294</v>
+        <v>-0.5536333958132218</v>
       </c>
       <c r="G26">
-        <v>0.3921820230125841</v>
+        <v>0.5023631677715208</v>
       </c>
       <c r="H26">
-        <v>0.03553060159827138</v>
+        <v>0.5885671297242707</v>
       </c>
     </row>
     <row r="27">
@@ -1246,26 +1259,26 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>specific_factorOthers' controlled motivation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
+          <t>specific_factorothers abilities:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
         </is>
       </c>
       <c r="C27">
-        <v>0.06447637787766509</v>
+        <v>0.1608782352934311</v>
       </c>
       <c r="D27">
-        <v>0.05475734672877609</v>
+        <v>0.03816248672513806</v>
       </c>
       <c r="E27">
-        <v>1.250061540349881</v>
+        <v>1.22388553401594</v>
       </c>
       <c r="F27">
-        <v>-0.3583442482247371</v>
+        <v>-0.1547040067335421</v>
       </c>
       <c r="G27">
-        <v>0.4653486467393455</v>
+        <v>0.4466699726452125</v>
       </c>
       <c r="H27">
-        <v>0.4158003240553944</v>
+        <v>0.1117054685110532</v>
       </c>
     </row>
     <row r="28">
@@ -1276,26 +1289,26 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>specific_factorOthers' negative behaviours:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
+          <t>specific_factorOthers' abilities:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
         </is>
       </c>
       <c r="C28">
-        <v>-0.122675849292741</v>
+        <v>0.2441103446581104</v>
       </c>
       <c r="D28">
-        <v>0.07961872036162425</v>
+        <v>0.1294050303660095</v>
       </c>
       <c r="E28">
-        <v>4.766204287139602</v>
+        <v>1.391078184619227</v>
       </c>
       <c r="F28">
-        <v>-0.319437106464078</v>
+        <v>-0.5517059962598425</v>
       </c>
       <c r="G28">
-        <v>0.08422637445099103</v>
+        <v>0.8072594888088388</v>
       </c>
       <c r="H28">
-        <v>0.1849870204396759</v>
+        <v>0.2465056512325999</v>
       </c>
     </row>
     <row r="29">
@@ -1306,26 +1319,26 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>specific_factorOthers' negative emotions:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
+          <t>specific_factorothers' autonomous motivation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
         </is>
       </c>
       <c r="C29">
-        <v>-0.1818988156113182</v>
+        <v>0.141842869604879</v>
       </c>
       <c r="D29">
-        <v>0.07418078648886459</v>
+        <v>0.03225638200612913</v>
       </c>
       <c r="E29">
-        <v>1.381909988133063</v>
+        <v>1.662283828712503</v>
       </c>
       <c r="F29">
-        <v>-0.5965663005567419</v>
+        <v>-0.02682885732991722</v>
       </c>
       <c r="G29">
-        <v>0.3094233937933892</v>
+        <v>0.3026614644991752</v>
       </c>
       <c r="H29">
-        <v>0.1847732632738995</v>
+        <v>0.06564438440143341</v>
       </c>
     </row>
     <row r="30">
@@ -1336,26 +1349,26 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>specific_factorOthers' positive behaviours:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
+          <t>specific_factorOthers' autonomous motivation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
         </is>
       </c>
       <c r="C30">
-        <v>0.1159906352236821</v>
+        <v>0.2218785168867451</v>
       </c>
       <c r="D30">
-        <v>0.0390051649835665</v>
+        <v>0.06825031127711594</v>
       </c>
       <c r="E30">
-        <v>4.416036999788672</v>
+        <v>2.136002083669018</v>
       </c>
       <c r="F30">
-        <v>0.01212618578412561</v>
+        <v>-0.05077298594283468</v>
       </c>
       <c r="G30">
-        <v>0.2173788605343288</v>
+        <v>0.4637504096322387</v>
       </c>
       <c r="H30">
-        <v>0.03569377583306937</v>
+        <v>0.073692421920796</v>
       </c>
     </row>
     <row r="31">
@@ -1366,26 +1379,26 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>specific_factorOthers' positive emotions:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
+          <t>specific_factorOthers' controlled motivation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
         </is>
       </c>
       <c r="C31">
-        <v>0.1990100505783979</v>
+        <v>0.06182984794069089</v>
       </c>
       <c r="D31">
-        <v>0.07437457761527548</v>
+        <v>0.0590146445717955</v>
       </c>
       <c r="E31">
-        <v>2.647355860271377</v>
+        <v>1.279561353101436</v>
       </c>
       <c r="F31">
-        <v>-0.05381546770406995</v>
+        <v>-0.3738276121181167</v>
       </c>
       <c r="G31">
-        <v>0.4278571054406131</v>
+        <v>0.4751357209602537</v>
       </c>
       <c r="H31">
-        <v>0.08373099080188022</v>
+        <v>0.4526233721831255</v>
       </c>
     </row>
     <row r="32">
@@ -1396,26 +1409,26 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>specific_factorPerformance goals:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
+          <t>specific_factorothers' negative behaviours:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
         </is>
       </c>
       <c r="C32">
-        <v>0.1962572749550326</v>
+        <v>-0.08687013409757313</v>
       </c>
       <c r="D32">
-        <v>0.058195615258548</v>
+        <v>0.07416867980191322</v>
       </c>
       <c r="E32">
-        <v>5.478809243086459</v>
+        <v>3.26934286165483</v>
       </c>
       <c r="F32">
-        <v>0.05303852854705039</v>
+        <v>-0.3027087847703287</v>
       </c>
       <c r="G32">
-        <v>0.3315649308850003</v>
+        <v>0.1374442365486619</v>
       </c>
       <c r="H32">
-        <v>0.01637260682251367</v>
+        <v>0.3186971795077536</v>
       </c>
     </row>
     <row r="33">
@@ -1426,26 +1439,26 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>specific_factorPersonal responsibility for others':country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
+          <t>specific_factorOthers' negative behaviours:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
         </is>
       </c>
       <c r="C33">
-        <v>0.3173945293528292</v>
+        <v>-0.3143634921343935</v>
       </c>
       <c r="D33">
-        <v>0.05221306630707685</v>
+        <v>0.05806637185041048</v>
       </c>
       <c r="E33">
-        <v>1.524460813357446</v>
+        <v>2.797456582329781</v>
       </c>
       <c r="F33">
-        <v>0.02155856336868123</v>
+        <v>-0.4761377401320296</v>
       </c>
       <c r="G33">
-        <v>0.5621235176282471</v>
+        <v>-0.1320075036495168</v>
       </c>
       <c r="H33">
-        <v>0.04522042138973003</v>
+        <v>0.01350306858121316</v>
       </c>
     </row>
     <row r="34">
@@ -1456,26 +1469,26 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>specific_factorPersonal responsibility for others' motivation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
+          <t>specific_factorOthers' negative emotions:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
         </is>
       </c>
       <c r="C34">
-        <v>0.278949319875085</v>
+        <v>-0.178088577480623</v>
       </c>
       <c r="D34">
-        <v>0.09105379538896145</v>
+        <v>0.08725177045365867</v>
       </c>
       <c r="E34">
-        <v>1.076540493100892</v>
+        <v>1.509827953135043</v>
       </c>
       <c r="F34">
-        <v>-0.5999259096264346</v>
+        <v>-0.6045031753812742</v>
       </c>
       <c r="G34">
-        <v>0.8527415241508494</v>
+        <v>0.3276536290071208</v>
       </c>
       <c r="H34">
-        <v>0.1814477219150717</v>
+        <v>0.2149349471565828</v>
       </c>
     </row>
     <row r="35">
@@ -1486,26 +1499,26 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>specific_factorPositive beliefs (religious):country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
+          <t>specific_factorothers' positive behaviours:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
         </is>
       </c>
       <c r="C35">
-        <v>0.1730474015149224</v>
+        <v>0.1037612994909625</v>
       </c>
       <c r="D35">
-        <v>5.103970739116737e-17</v>
+        <v>0.03903984195455056</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3.178688999558605</v>
       </c>
       <c r="F35">
-        <v>0.1730474015149218</v>
+        <v>-0.01624548992826204</v>
       </c>
       <c r="G35">
-        <v>0.173047401514923</v>
+        <v>0.2208210891636684</v>
       </c>
       <c r="H35">
-        <v>1.858792312194453e-16</v>
+        <v>0.07132512386591171</v>
       </c>
     </row>
     <row r="36">
@@ -1516,26 +1529,26 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>specific_factorPositive beliefs about knowledge and learning:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
+          <t>specific_factorOthers' positive behaviours:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
         </is>
       </c>
       <c r="C36">
-        <v>0.307189113469254</v>
+        <v>0.02041632554349061</v>
       </c>
       <c r="D36">
-        <v>9.238018671300169e-16</v>
+        <v>0.1113261794815044</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>1.729077588239434</v>
       </c>
       <c r="F36">
-        <v>0.3071891134692434</v>
+        <v>-0.4916275408188879</v>
       </c>
       <c r="G36">
-        <v>0.3071891134692646</v>
+        <v>0.5219692950994276</v>
       </c>
       <c r="H36">
-        <v>1.85267455996453e-15</v>
+        <v>0.8736796747127838</v>
       </c>
     </row>
     <row r="37">
@@ -1546,26 +1559,26 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>specific_factorPrior positive related experiences:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
+          <t>specific_factorothers' positive emotions:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
         </is>
       </c>
       <c r="C37">
-        <v>0.2267095283488317</v>
+        <v>0.09130971309567562</v>
       </c>
       <c r="D37">
-        <v>0.05819561590335473</v>
+        <v>0.06341332760676562</v>
       </c>
       <c r="E37">
-        <v>5.478809243086392</v>
+        <v>2.731481004545671</v>
       </c>
       <c r="F37">
-        <v>0.08476551324360385</v>
+        <v>-0.1213448782049832</v>
       </c>
       <c r="G37">
-        <v>0.3596349170582285</v>
+        <v>0.2959502995122132</v>
       </c>
       <c r="H37">
-        <v>0.00890287653544672</v>
+        <v>0.2529101550603268</v>
       </c>
     </row>
     <row r="38">
@@ -1576,26 +1589,26 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>specific_factorSelf-efficacy:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
+          <t>specific_factorOthers' positive emotions:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
         </is>
       </c>
       <c r="C38">
-        <v>0.3042397075567868</v>
+        <v>0.2682276504807573</v>
       </c>
       <c r="D38">
-        <v>0.06256747715266354</v>
+        <v>0.06911256917887035</v>
       </c>
       <c r="E38">
-        <v>2.888218020311364</v>
+        <v>1.371329852976166</v>
       </c>
       <c r="F38">
-        <v>0.1101868638389519</v>
+        <v>-0.1975337297946607</v>
       </c>
       <c r="G38">
-        <v>0.4759494351132392</v>
+        <v>0.6351913215207334</v>
       </c>
       <c r="H38">
-        <v>0.01665170552787233</v>
+        <v>0.1030946454251266</v>
       </c>
     </row>
     <row r="39">
@@ -1606,26 +1619,26 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>specific_factorSocial connection/support:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
+          <t>specific_factorPerformance goals:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
         </is>
       </c>
       <c r="C39">
-        <v>0.1813531419061827</v>
+        <v>0.1580702356258419</v>
       </c>
       <c r="D39">
-        <v>0.07710146337158803</v>
+        <v>0.1049648372417526</v>
       </c>
       <c r="E39">
-        <v>5.515248708495259</v>
+        <v>1.195846213255445</v>
       </c>
       <c r="F39">
-        <v>-0.009372067078555599</v>
+        <v>-0.6377342384311609</v>
       </c>
       <c r="G39">
-        <v>0.3593465248401735</v>
+        <v>0.7906484762939764</v>
       </c>
       <c r="H39">
-        <v>0.05855762888292833</v>
+        <v>0.340573119765126</v>
       </c>
     </row>
     <row r="40">
@@ -1636,26 +1649,26 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>specific_factorStyle-related beliefs:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
+          <t>specific_factorpersonal responsibility for others:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
         </is>
       </c>
       <c r="C40">
-        <v>0.1828857082608181</v>
+        <v>0.2939157012753771</v>
       </c>
       <c r="D40">
-        <v>0.1638865797721917</v>
+        <v>0.09522675288258675</v>
       </c>
       <c r="E40">
-        <v>1.064571256282432</v>
+        <v>1.334944113355865</v>
       </c>
       <c r="F40">
-        <v>-0.924829638860164</v>
+        <v>-0.3632594040701281</v>
       </c>
       <c r="G40">
-        <v>0.963411408332343</v>
+        <v>0.7557928101865927</v>
       </c>
       <c r="H40">
-        <v>0.4525798463387716</v>
+        <v>0.141495159514497</v>
       </c>
     </row>
     <row r="41">
@@ -1666,26 +1679,26 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>specific_factorWell-being:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
+          <t>specific_factorPersonal responsibility for others' motivation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
         </is>
       </c>
       <c r="C41">
-        <v>0.3282476661532633</v>
+        <v>0.3225724691980853</v>
       </c>
       <c r="D41">
-        <v>0.0507031065971267</v>
+        <v>0.1170125020990387</v>
       </c>
       <c r="E41">
-        <v>7.22406992906066</v>
+        <v>1.170404926394915</v>
       </c>
       <c r="F41">
-        <v>0.218155867851497</v>
+        <v>-0.6210919997780663</v>
       </c>
       <c r="G41">
-        <v>0.4300899832980554</v>
+        <v>0.8844431032207188</v>
       </c>
       <c r="H41">
-        <v>0.000236361574410724</v>
+        <v>0.1840004869415935</v>
       </c>
     </row>
     <row r="42">
@@ -1696,26 +1709,26 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>specific_factorAutonomous motivation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52</t>
+          <t>specific_factorPositive beliefs (religious):country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
         </is>
       </c>
       <c r="C42">
-        <v>0.214879149413573</v>
+        <v>0.1730474015149224</v>
       </c>
       <c r="D42">
-        <v>0.05820414886700249</v>
+        <v>7.154714910234604e-17</v>
       </c>
       <c r="E42">
-        <v>4.626896462827946</v>
+        <v>1</v>
       </c>
       <c r="F42">
-        <v>0.06486864626057355</v>
+        <v>0.1730474015149215</v>
       </c>
       <c r="G42">
-        <v>0.3553924892457532</v>
+        <v>0.1730474015149233</v>
       </c>
       <c r="H42">
-        <v>0.01531557590699211</v>
+        <v>2.60564367447541e-16</v>
       </c>
     </row>
     <row r="43">
@@ -1726,26 +1739,26 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>specific_factorCoherence of mind:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52</t>
+          <t>specific_factorPositive beliefs about knowledge and learning:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
         </is>
       </c>
       <c r="C43">
-        <v>0.1100445571831773</v>
+        <v>0.3071891134692543</v>
       </c>
       <c r="D43">
-        <v>2.118077874037582e-17</v>
+        <v>7.584151913743199e-16</v>
       </c>
       <c r="E43">
         <v>1</v>
       </c>
       <c r="F43">
-        <v>0.1100445571831771</v>
+        <v>0.3071891134692455</v>
       </c>
       <c r="G43">
-        <v>0.1100445571831776</v>
+        <v>0.307189113469263</v>
       </c>
       <c r="H43">
-        <v>1.22036891617319e-16</v>
+        <v>1.520993387158934e-15</v>
       </c>
     </row>
     <row r="44">
@@ -1756,26 +1769,26 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>specific_factorControlled motivation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52</t>
+          <t>specific_factorprior positive related experiences:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
         </is>
       </c>
       <c r="C44">
-        <v>-0.1227781028043842</v>
+        <v>0.1889884308128019</v>
       </c>
       <c r="D44">
-        <v>0.07071245915445935</v>
+        <v>0.1049648379691309</v>
       </c>
       <c r="E44">
-        <v>3.472846156186636</v>
+        <v>1.195846213255446</v>
       </c>
       <c r="F44">
-        <v>-0.3203709807579339</v>
+        <v>-0.6184334859218411</v>
       </c>
       <c r="G44">
-        <v>0.08505311608174233</v>
+        <v>0.8023021931848547</v>
       </c>
       <c r="H44">
-        <v>0.166683610703292</v>
+        <v>0.2870993669586706</v>
       </c>
     </row>
     <row r="45">
@@ -1786,26 +1799,26 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>specific_factorEmotional intelligence:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52</t>
+          <t>specific_factorself-efficacy:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
         </is>
       </c>
       <c r="C45">
-        <v>0.3699704725637052</v>
+        <v>0.2534683998542733</v>
       </c>
       <c r="D45">
-        <v>0.08337572875000186</v>
+        <v>0.1049648362612163</v>
       </c>
       <c r="E45">
-        <v>1.257065407031085</v>
+        <v>1.195846213255445</v>
       </c>
       <c r="F45">
-        <v>-0.2676220523176344</v>
+        <v>-0.5747829034688344</v>
       </c>
       <c r="G45">
-        <v>0.7822252786480601</v>
+        <v>0.8251894687056971</v>
       </c>
       <c r="H45">
-        <v>0.09631801749476702</v>
+        <v>0.2108534760285997</v>
       </c>
     </row>
     <row r="46">
@@ -1816,26 +1829,26 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>specific_factorExternal pressure in terms of constraints:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52</t>
+          <t>specific_factorSelf-efficacy:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
         </is>
       </c>
       <c r="C46">
-        <v>-0.03132982020280205</v>
+        <v>0.3571611154350708</v>
       </c>
       <c r="D46">
-        <v>0.07418092572710215</v>
+        <v>0.08626574312841881</v>
       </c>
       <c r="E46">
-        <v>1.824034034944367</v>
+        <v>2.028590986390054</v>
       </c>
       <c r="F46">
-        <v>-0.364370168864718</v>
+        <v>0.007424768186183896</v>
       </c>
       <c r="G46">
-        <v>0.3088157239465494</v>
+        <v>0.6290432579401235</v>
       </c>
       <c r="H46">
-        <v>0.7172127536967894</v>
+        <v>0.04815246016748233</v>
       </c>
     </row>
     <row r="47">
@@ -1846,26 +1859,26 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>specific_factorExternal pressures:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52</t>
+          <t>specific_factorSocial connection/support:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
         </is>
       </c>
       <c r="C47">
-        <v>0.002758151341893529</v>
+        <v>0.1749492679134731</v>
       </c>
       <c r="D47">
-        <v>0.05545939766949894</v>
+        <v>0.07655278309556163</v>
       </c>
       <c r="E47">
-        <v>1.792212515468295</v>
+        <v>5.735985415978555</v>
       </c>
       <c r="F47">
-        <v>-0.2584431593197165</v>
+        <v>-0.01265948783004782</v>
       </c>
       <c r="G47">
-        <v>0.2635836446919672</v>
+        <v>0.350659514542127</v>
       </c>
       <c r="H47">
-        <v>0.9653122771616203</v>
+        <v>0.06232117318605156</v>
       </c>
     </row>
     <row r="48">
@@ -1876,14 +1889,26 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>specific_factorIll-being:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52</t>
+          <t>specific_factorStyle-related beliefs:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
         </is>
       </c>
       <c r="C48">
-        <v>-0.07000000000000006</v>
+        <v>0.1873719492377144</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>0.1636867244165414</v>
+      </c>
+      <c r="E48">
+        <v>1.069912900567381</v>
+      </c>
+      <c r="F48">
+        <v>-0.9209156157160686</v>
+      </c>
+      <c r="G48">
+        <v>0.9621620694215245</v>
+      </c>
+      <c r="H48">
+        <v>0.4434728940308974</v>
       </c>
     </row>
     <row r="49">
@@ -1894,26 +1919,26 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>specific_factorInternal pressures:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52</t>
+          <t>specific_factorwell-being:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
         </is>
       </c>
       <c r="C49">
-        <v>-0.2459004855786681</v>
+        <v>0.294211042467267</v>
       </c>
       <c r="D49">
-        <v>0.01423321526121205</v>
+        <v>0.1049648359656564</v>
       </c>
       <c r="E49">
-        <v>1.007019563822271</v>
+        <v>1.195846213255445</v>
       </c>
       <c r="F49">
-        <v>-0.4044374959382925</v>
+        <v>-0.5445367647378445</v>
       </c>
       <c r="G49">
-        <v>-0.0730164118204502</v>
+        <v>0.8387440072338558</v>
       </c>
       <c r="H49">
-        <v>0.03538398618947117</v>
+        <v>0.1780953505050768</v>
       </c>
     </row>
     <row r="50">
@@ -1924,26 +1949,26 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>specific_factorMastery goals:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52</t>
+          <t>specific_factorWell-being:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
         </is>
       </c>
       <c r="C50">
-        <v>0.06000000000000009</v>
+        <v>0.3329510696162174</v>
       </c>
       <c r="D50">
-        <v>5.555399472717102e-17</v>
+        <v>0.07352818423954353</v>
       </c>
       <c r="E50">
-        <v>1</v>
+        <v>5.838927755231841</v>
       </c>
       <c r="F50">
-        <v>0.05999999999999939</v>
+        <v>0.1635349646977194</v>
       </c>
       <c r="G50">
-        <v>0.0600000000000008</v>
+        <v>0.4832919253116064</v>
       </c>
       <c r="H50">
-        <v>5.887381755336544e-16</v>
+        <v>0.003545008604293283</v>
       </c>
     </row>
     <row r="51">
@@ -1954,26 +1979,26 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>specific_factorNeed frustration:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52</t>
+          <t>specific_factorautonomous motivation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52</t>
         </is>
       </c>
       <c r="C51">
-        <v>-0.1801369749639973</v>
+        <v>0.3118761922752249</v>
       </c>
       <c r="D51">
-        <v>0.07551804632010337</v>
+        <v>0.07240216361110495</v>
       </c>
       <c r="E51">
-        <v>2.153550762074431</v>
+        <v>1.003751144866052</v>
       </c>
       <c r="F51">
-        <v>-0.4509004637727478</v>
+        <v>-0.5293556971092044</v>
       </c>
       <c r="G51">
-        <v>0.1209859004888125</v>
+        <v>0.8438780518415735</v>
       </c>
       <c r="H51">
-        <v>0.1284159449015882</v>
+        <v>0.1398381282858419</v>
       </c>
     </row>
     <row r="52">
@@ -1984,26 +2009,26 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>specific_factorNeed satisfaction:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52</t>
+          <t>specific_factorAutonomous motivation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52</t>
         </is>
       </c>
       <c r="C52">
-        <v>0.2748081098012841</v>
+        <v>0.147742607638247</v>
       </c>
       <c r="D52">
-        <v>0.1156683263862107</v>
+        <v>0.05712882816858424</v>
       </c>
       <c r="E52">
-        <v>2.866755230299301</v>
+        <v>2.501870759166082</v>
       </c>
       <c r="F52">
-        <v>-0.09562881654999354</v>
+        <v>-0.05521852808507096</v>
       </c>
       <c r="G52">
-        <v>0.5783877557631789</v>
+        <v>0.3389789858631235</v>
       </c>
       <c r="H52">
-        <v>0.09659820120446007</v>
+        <v>0.09642567794055278</v>
       </c>
     </row>
     <row r="53">
@@ -2014,26 +2039,26 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>specific_factorNegative beliefs about motivation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52</t>
+          <t>specific_factorCoherence of mind:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52</t>
         </is>
       </c>
       <c r="C53">
-        <v>-0.4252496978264357</v>
+        <v>0.1100445571831773</v>
       </c>
       <c r="D53">
-        <v>0.01773520409218917</v>
+        <v>6.415930112919647e-17</v>
       </c>
       <c r="E53">
-        <v>1.03184271301131</v>
+        <v>1</v>
       </c>
       <c r="F53">
-        <v>-0.5807828885159702</v>
+        <v>0.1100445571831765</v>
       </c>
       <c r="G53">
-        <v>-0.2397636567797861</v>
+        <v>0.1100445571831782</v>
       </c>
       <c r="H53">
-        <v>0.02255896333666652</v>
+        <v>3.69665429874924e-16</v>
       </c>
     </row>
     <row r="54">
@@ -2044,26 +2069,26 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>specific_factorNegative life events:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52</t>
+          <t>specific_factorcontrolled motivation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52</t>
         </is>
       </c>
       <c r="C54">
-        <v>0.1466519662212898</v>
+        <v>-0.01993361836823844</v>
       </c>
       <c r="D54">
-        <v>4.446934403531277e-17</v>
+        <v>0.06966033741154525</v>
       </c>
       <c r="E54">
-        <v>1</v>
+        <v>1.003751144866049</v>
       </c>
       <c r="F54">
-        <v>0.1466519662212892</v>
+        <v>-0.7149690294882991</v>
       </c>
       <c r="G54">
-        <v>0.1466519662212903</v>
+        <v>0.6949175793665078</v>
       </c>
       <c r="H54">
-        <v>1.916505737115741e-16</v>
+        <v>0.8224110891097622</v>
       </c>
     </row>
     <row r="55">
@@ -2074,26 +2099,26 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>specific_factorOthers' autonomous motivation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52</t>
+          <t>specific_factorControlled motivation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52</t>
         </is>
       </c>
       <c r="C55">
-        <v>0.08075273593370139</v>
+        <v>-0.1476897327932195</v>
       </c>
       <c r="D55">
-        <v>0.1251687297289854</v>
+        <v>0.08045393649566214</v>
       </c>
       <c r="E55">
-        <v>2.664224496499747</v>
+        <v>1.454510244137505</v>
       </c>
       <c r="F55">
-        <v>-0.3340478125965176</v>
+        <v>-0.5747743297912177</v>
       </c>
       <c r="G55">
-        <v>0.4693493284640545</v>
+        <v>0.3426288146005648</v>
       </c>
       <c r="H55">
-        <v>0.5692523635013488</v>
+        <v>0.2506768316769296</v>
       </c>
     </row>
     <row r="56">
@@ -2104,26 +2129,26 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>specific_factorOthers' controlled motivation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52</t>
+          <t>specific_factorEmotional intelligence:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52</t>
         </is>
       </c>
       <c r="C56">
-        <v>-0.1362779693922146</v>
+        <v>0.3702013025181593</v>
       </c>
       <c r="D56">
-        <v>0.01773520409218917</v>
+        <v>0.1173699720562714</v>
       </c>
       <c r="E56">
-        <v>1.03184271301131</v>
+        <v>1.082063066763518</v>
       </c>
       <c r="F56">
-        <v>-0.3334377840201352</v>
+        <v>-0.6963832546987044</v>
       </c>
       <c r="G56">
-        <v>0.07230244725320652</v>
+        <v>0.9271302020182793</v>
       </c>
       <c r="H56">
-        <v>0.07718637467660841</v>
+        <v>0.1714026943877519</v>
       </c>
     </row>
     <row r="57">
@@ -2134,26 +2159,26 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>specific_factorOthers' negative behaviours:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52</t>
+          <t>specific_factorExternal pressure in terms of constraints:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52</t>
         </is>
       </c>
       <c r="C57">
-        <v>-0.4868493736492747</v>
+        <v>-0.07377913395705098</v>
       </c>
       <c r="D57">
-        <v>0.08337572875000181</v>
+        <v>0.07876431923073361</v>
       </c>
       <c r="E57">
-        <v>1.257065407031082</v>
+        <v>1.69339670346447</v>
       </c>
       <c r="F57">
-        <v>-0.8320038101841496</v>
+        <v>-0.4454165791996413</v>
       </c>
       <c r="G57">
-        <v>0.1300266296939499</v>
+        <v>0.319545573053503</v>
       </c>
       <c r="H57">
-        <v>0.06560530188854073</v>
+        <v>0.4620495993200738</v>
       </c>
     </row>
     <row r="58">
@@ -2164,26 +2189,26 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>specific_factorOthers' negative emotions:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52</t>
+          <t>specific_factorExternal pressures:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52</t>
         </is>
       </c>
       <c r="C58">
-        <v>-0.198762499595553</v>
+        <v>-0.06554938423316768</v>
       </c>
       <c r="D58">
-        <v>0.01423321526121205</v>
+        <v>0.04274226445176197</v>
       </c>
       <c r="E58">
-        <v>1.007019563822271</v>
+        <v>1.674110963632741</v>
       </c>
       <c r="F58">
-        <v>-0.3621358766623973</v>
+        <v>-0.2807530840832989</v>
       </c>
       <c r="G58">
-        <v>-0.02354131683001364</v>
+        <v>0.1559298605357406</v>
       </c>
       <c r="H58">
-        <v>0.04413820010944625</v>
+        <v>0.2870507175581273</v>
       </c>
     </row>
     <row r="59">
@@ -2194,26 +2219,14 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>specific_factorOthers' positive behaviours:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52</t>
+          <t>specific_factorill-being:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52</t>
         </is>
       </c>
       <c r="C59">
-        <v>0.3308033656635303</v>
+        <v>-0.07000000000000008</v>
       </c>
       <c r="D59">
-        <v>0.01423321526121205</v>
-      </c>
-      <c r="E59">
-        <v>1.007019563822271</v>
-      </c>
-      <c r="F59">
-        <v>0.1643283105721316</v>
-      </c>
-      <c r="G59">
-        <v>0.478955700759613</v>
-      </c>
-      <c r="H59">
-        <v>0.02579897152683829</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2224,26 +2237,14 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>specific_factorOthers' positive emotions:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52</t>
+          <t>specific_factorInternal pressures:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52</t>
         </is>
       </c>
       <c r="C60">
-        <v>0.2329319360867715</v>
+        <v>-0.2520000000000001</v>
       </c>
       <c r="D60">
-        <v>0.02552741523394522</v>
-      </c>
-      <c r="E60">
-        <v>1.027540507320758</v>
-      </c>
-      <c r="F60">
-        <v>-0.06712869745109348</v>
-      </c>
-      <c r="G60">
-        <v>0.4943527405202314</v>
-      </c>
-      <c r="H60">
-        <v>0.06450576594526124</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2254,26 +2255,26 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>specific_factorPerformance goals:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52</t>
+          <t>specific_factorMastery goals:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52</t>
         </is>
       </c>
       <c r="C61">
-        <v>-0.2251482265544137</v>
+        <v>0.06000000000000009</v>
       </c>
       <c r="D61">
-        <v>6.507255014896724e-17</v>
+        <v>2.323330133852721e-17</v>
       </c>
       <c r="E61">
         <v>1</v>
       </c>
       <c r="F61">
-        <v>-0.2251482265544145</v>
+        <v>0.05999999999999979</v>
       </c>
       <c r="G61">
-        <v>-0.2251482265544129</v>
+        <v>0.06000000000000039</v>
       </c>
       <c r="H61">
-        <v>1.808442260612241e-16</v>
+        <v>2.462168833914324e-16</v>
       </c>
     </row>
     <row r="62">
@@ -2284,26 +2285,26 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>specific_factorPositive beliefs about knowledge and learning:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52</t>
+          <t>specific_factorneed frustration:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52</t>
         </is>
       </c>
       <c r="C62">
-        <v>0.03935051419155242</v>
+        <v>-0.08836589500841419</v>
       </c>
       <c r="D62">
-        <v>0.04094253349821114</v>
+        <v>0.00137070049309214</v>
       </c>
       <c r="E62">
-        <v>2.028939967119308</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="F62">
-        <v>-0.1336010234099454</v>
+        <v>-0.1056180039898656</v>
       </c>
       <c r="G62">
-        <v>0.2099759875034077</v>
+        <v>-0.07106060702141424</v>
       </c>
       <c r="H62">
-        <v>0.436468851510298</v>
+        <v>0.009848478030036682</v>
       </c>
     </row>
     <row r="63">
@@ -2314,26 +2315,26 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>specific_factorSelf-efficacy:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52</t>
+          <t>specific_factorNeed frustration:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52</t>
         </is>
       </c>
       <c r="C63">
-        <v>0.217942028919889</v>
+        <v>-0.1990694088456935</v>
       </c>
       <c r="D63">
-        <v>0.02354638604130057</v>
+        <v>0.08194197032600908</v>
       </c>
       <c r="E63">
-        <v>1.055715279630498</v>
+        <v>3.230217793679769</v>
       </c>
       <c r="F63">
-        <v>-0.0428145167550259</v>
+        <v>-0.4238156330599664</v>
       </c>
       <c r="G63">
-        <v>0.4509002465904164</v>
+        <v>0.04876849063182023</v>
       </c>
       <c r="H63">
-        <v>0.06018624824248735</v>
+        <v>0.08462588815052063</v>
       </c>
     </row>
     <row r="64">
@@ -2344,26 +2345,26 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>specific_factorSocial competence:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52</t>
+          <t>specific_factorneed satisfaction:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52</t>
         </is>
       </c>
       <c r="C64">
-        <v>0.2390903284181981</v>
+        <v>0.3444182244003557</v>
       </c>
       <c r="D64">
-        <v>0.08337572875000182</v>
+        <v>0.001370700493091917</v>
       </c>
       <c r="E64">
-        <v>1.257065407031083</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="F64">
-        <v>-0.3959868823092788</v>
+        <v>0.3289767601934347</v>
       </c>
       <c r="G64">
-        <v>0.7194474531521033</v>
+        <v>0.359675559679156</v>
       </c>
       <c r="H64">
-        <v>0.1668948926118623</v>
+        <v>0.002430015511495577</v>
       </c>
     </row>
     <row r="65">
@@ -2374,26 +2375,26 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>specific_factorSocial connection/support:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52</t>
+          <t>specific_factorNeed satisfaction:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52</t>
         </is>
       </c>
       <c r="C65">
-        <v>0.1410982987051332</v>
+        <v>0.3002002519921338</v>
       </c>
       <c r="D65">
-        <v>0.08952195605663756</v>
+        <v>0.2465404983706759</v>
       </c>
       <c r="E65">
-        <v>1.608142845216402</v>
+        <v>1.207530481067974</v>
       </c>
       <c r="F65">
-        <v>-0.3351905394771912</v>
+        <v>-0.9465779427026844</v>
       </c>
       <c r="G65">
-        <v>0.5599473067091173</v>
+        <v>0.9842250925460456</v>
       </c>
       <c r="H65">
-        <v>0.2820199311633313</v>
+        <v>0.3995331779556712</v>
       </c>
     </row>
     <row r="66">
@@ -2404,26 +2405,26 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>specific_factorAutonomous causality orientation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53</t>
+          <t>specific_factorNegative beliefs about motivation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52</t>
         </is>
       </c>
       <c r="C66">
-        <v>0.3161676510075378</v>
+        <v>-0.4199999999999999</v>
       </c>
       <c r="D66">
-        <v>0.10681350547171</v>
+        <v>1.55429354950277e-16</v>
       </c>
       <c r="E66">
-        <v>1.085936813018849</v>
+        <v>1</v>
       </c>
       <c r="F66">
-        <v>-0.664346398930355</v>
+        <v>-0.4200000000000015</v>
       </c>
       <c r="G66">
-        <v>0.8967399705601296</v>
+        <v>-0.4199999999999982</v>
       </c>
       <c r="H66">
-        <v>0.1846522005113001</v>
+        <v>2.210211381209137e-16</v>
       </c>
     </row>
     <row r="67">
@@ -2434,26 +2435,26 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>specific_factorAutonomous motivation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53</t>
+          <t>specific_factorNegative life events:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52</t>
         </is>
       </c>
       <c r="C67">
-        <v>0.300220148611191</v>
+        <v>0.1466519662212898</v>
       </c>
       <c r="D67">
-        <v>0.09126330670821402</v>
+        <v>5.579178102119166e-17</v>
       </c>
       <c r="E67">
-        <v>1.012292383624361</v>
+        <v>1</v>
       </c>
       <c r="F67">
-        <v>-0.6734866085915626</v>
+        <v>0.1466519662212891</v>
       </c>
       <c r="G67">
-        <v>0.8930152320474641</v>
+        <v>0.1466519662212905</v>
       </c>
       <c r="H67">
-        <v>0.1799872626067834</v>
+        <v>2.404471456248835e-16</v>
       </c>
     </row>
     <row r="68">
@@ -2464,26 +2465,26 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>specific_factorControlled causality orientation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53</t>
+          <t>specific_factorothers' autonomous motivation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52</t>
         </is>
       </c>
       <c r="C68">
-        <v>-0.2428450380417908</v>
+        <v>0.2637952584279513</v>
       </c>
       <c r="D68">
-        <v>0.11044657967978</v>
+        <v>0.08194197032600926</v>
       </c>
       <c r="E68">
-        <v>1.037360494795476</v>
+        <v>3.230217793679778</v>
       </c>
       <c r="F68">
-        <v>-0.9116443117172041</v>
+        <v>0.01961006132854811</v>
       </c>
       <c r="G68">
-        <v>0.7785127058274676</v>
+        <v>0.4782815453613753</v>
       </c>
       <c r="H68">
-        <v>0.2597207091869797</v>
+        <v>0.04114471476799818</v>
       </c>
     </row>
     <row r="69">
@@ -2494,26 +2495,26 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>specific_factorControlled motivation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53</t>
+          <t>specific_factorOthers' autonomous motivation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52</t>
         </is>
       </c>
       <c r="C69">
-        <v>0.08546477130612132</v>
+        <v>-0.03335570916706346</v>
       </c>
       <c r="D69">
-        <v>0.1396892172747552</v>
+        <v>0.04949029328481097</v>
       </c>
       <c r="E69">
-        <v>1.012292383624362</v>
+        <v>2.850215142228377</v>
       </c>
       <c r="F69">
-        <v>-0.9273487935615873</v>
+        <v>-0.1931968727936751</v>
       </c>
       <c r="G69">
-        <v>0.9478788640366685</v>
+        <v>0.1282101878421681</v>
       </c>
       <c r="H69">
-        <v>0.648753976427181</v>
+        <v>0.5507869235104998</v>
       </c>
     </row>
     <row r="70">
@@ -2524,26 +2525,26 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>specific_factorEmotional intelligence:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53</t>
+          <t>specific_factorOthers' controlled motivation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52</t>
         </is>
       </c>
       <c r="C70">
-        <v>0.1782832514879744</v>
+        <v>-0.1299999999999999</v>
       </c>
       <c r="D70">
-        <v>0.1104465796797801</v>
+        <v>9.155284601942086e-17</v>
       </c>
       <c r="E70">
-        <v>1.037360494795475</v>
+        <v>1</v>
       </c>
       <c r="F70">
-        <v>-0.8037687951539193</v>
+        <v>-0.1300000000000011</v>
       </c>
       <c r="G70">
-        <v>0.8994988338209576</v>
+        <v>-0.1299999999999988</v>
       </c>
       <c r="H70">
-        <v>0.3434524581491946</v>
+        <v>4.458040297553794e-16</v>
       </c>
     </row>
     <row r="71">
@@ -2554,26 +2555,26 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>specific_factorExtrinsic goals:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53</t>
+          <t>specific_factorothers' negative behaviours:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52</t>
         </is>
       </c>
       <c r="C71">
-        <v>0.03892954679716155</v>
+        <v>-0.486645279093332</v>
       </c>
       <c r="D71">
-        <v>0.09789736377429947</v>
+        <v>0.1173699720562714</v>
       </c>
       <c r="E71">
-        <v>1.010312667884937</v>
+        <v>1.082063066763517</v>
       </c>
       <c r="F71">
-        <v>-0.8259790231241831</v>
+        <v>-0.9447548455462247</v>
       </c>
       <c r="G71">
-        <v>0.8491914542568558</v>
+        <v>0.6151998825648566</v>
       </c>
       <c r="H71">
-        <v>0.7584073584252456</v>
+        <v>0.1240598033010272</v>
       </c>
     </row>
     <row r="72">
@@ -2584,11 +2585,11 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>specific_factorIll-being:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53</t>
+          <t>specific_factorOthers' negative emotions:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52</t>
         </is>
       </c>
       <c r="C72">
-        <v>-0.1799999999999999</v>
+        <v>-0.205</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -2602,26 +2603,14 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>specific_factorIntrinsic goals:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53</t>
+          <t>specific_factorOthers' positive behaviours:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52</t>
         </is>
       </c>
       <c r="C73">
-        <v>0.3365718075317488</v>
+        <v>0.325</v>
       </c>
       <c r="D73">
-        <v>0.02507271150156162</v>
-      </c>
-      <c r="E73">
-        <v>1.010312667884938</v>
-      </c>
-      <c r="F73">
-        <v>0.03920488664365038</v>
-      </c>
-      <c r="G73">
-        <v>0.5791731820690049</v>
-      </c>
-      <c r="H73">
-        <v>0.04436628760697948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2632,26 +2621,14 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>specific_factorMastery goals:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53</t>
+          <t>specific_factorothers' positive emotions:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52</t>
         </is>
       </c>
       <c r="C74">
-        <v>0.4350225130630148</v>
+        <v>0.2179999999999999</v>
       </c>
       <c r="D74">
-        <v>0.1104465796797801</v>
-      </c>
-      <c r="E74">
-        <v>1.037360494795476</v>
-      </c>
-      <c r="F74">
-        <v>-0.6768641847702312</v>
-      </c>
-      <c r="G74">
-        <v>0.9419930884004851</v>
-      </c>
-      <c r="H74">
-        <v>0.1412423408945774</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2662,14 +2639,26 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>specific_factorNeed frustration:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53</t>
+          <t>specific_factorOthers' positive emotions:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52</t>
         </is>
       </c>
       <c r="C75">
-        <v>-0.1499999999999999</v>
+        <v>0.2418935105277515</v>
       </c>
       <c r="D75">
-        <v>0</v>
+        <v>0.1173699720562712</v>
+      </c>
+      <c r="E75">
+        <v>1.082063066763517</v>
+      </c>
+      <c r="F75">
+        <v>-0.7624813099512106</v>
+      </c>
+      <c r="G75">
+        <v>0.9043653541213749</v>
+      </c>
+      <c r="H75">
+        <v>0.2674510764423768</v>
       </c>
     </row>
     <row r="76">
@@ -2680,14 +2669,26 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>specific_factorNeed satisfaction:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53</t>
+          <t>specific_factorPerformance goals:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52</t>
         </is>
       </c>
       <c r="C76">
-        <v>0.57</v>
+        <v>-0.2251482265544137</v>
       </c>
       <c r="D76">
-        <v>0</v>
+        <v>1.072307816432993e-17</v>
+      </c>
+      <c r="E76">
+        <v>1</v>
+      </c>
+      <c r="F76">
+        <v>-0.2251482265544139</v>
+      </c>
+      <c r="G76">
+        <v>-0.2251482265544136</v>
+      </c>
+      <c r="H76">
+        <v>2.98006881116989e-17</v>
       </c>
     </row>
     <row r="77">
@@ -2698,14 +2699,26 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>specific_factorNegative beliefs about knowledge and learning:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53</t>
+          <t>specific_factorPositive beliefs about knowledge and learning:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52</t>
         </is>
       </c>
       <c r="C77">
-        <v>-0.4299999999999999</v>
+        <v>0.1085923787263558</v>
       </c>
       <c r="D77">
-        <v>0</v>
+        <v>0.001381269873944822</v>
+      </c>
+      <c r="E77">
+        <v>1.000000000000001</v>
+      </c>
+      <c r="F77">
+        <v>0.09121731339755404</v>
+      </c>
+      <c r="G77">
+        <v>0.1259013475112296</v>
+      </c>
+      <c r="H77">
+        <v>0.008065293616619089</v>
       </c>
     </row>
     <row r="78">
@@ -2716,26 +2729,26 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>specific_factorNegative personality:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53</t>
+          <t>specific_factorself-efficacy:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52</t>
         </is>
       </c>
       <c r="C78">
-        <v>-0.4807586345490223</v>
+        <v>0.278686528926348</v>
       </c>
       <c r="D78">
-        <v>0.1104465796797801</v>
+        <v>0.001381269873944995</v>
       </c>
       <c r="E78">
-        <v>1.037360494795475</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="F78">
-        <v>-0.9481711290706518</v>
+        <v>0.2624210399947017</v>
       </c>
       <c r="G78">
-        <v>0.6442516380292376</v>
+        <v>0.2947936948277537</v>
       </c>
       <c r="H78">
-        <v>0.1255949503592742</v>
+        <v>0.003071839497592834</v>
       </c>
     </row>
     <row r="79">
@@ -2746,14 +2759,26 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>specific_factorOthers' abilities:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53</t>
+          <t>specific_factorSelf-efficacy:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52</t>
         </is>
       </c>
       <c r="C79">
-        <v>0.2</v>
+        <v>0.2263414886443986</v>
       </c>
       <c r="D79">
-        <v>0</v>
+        <v>1.592755005949087e-16</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
+      <c r="F79">
+        <v>0.2263414886443967</v>
+      </c>
+      <c r="G79">
+        <v>0.2263414886444005</v>
+      </c>
+      <c r="H79">
+        <v>4.402289067735942e-16</v>
       </c>
     </row>
     <row r="80">
@@ -2764,26 +2789,26 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>specific_factorOthers' autonomous motivation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53</t>
+          <t>specific_factorSocial competence:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52</t>
         </is>
       </c>
       <c r="C80">
-        <v>0.1159921108542449</v>
+        <v>0.2393424855919268</v>
       </c>
       <c r="D80">
-        <v>0.11044657967978</v>
+        <v>0.1173699720562714</v>
       </c>
       <c r="E80">
-        <v>1.037360494795475</v>
+        <v>1.082063066763518</v>
       </c>
       <c r="F80">
-        <v>-0.8251876391386705</v>
+        <v>-0.7636125171183383</v>
       </c>
       <c r="G80">
-        <v>0.8866193515409294</v>
+        <v>0.9038709911631234</v>
       </c>
       <c r="H80">
-        <v>0.4779437184000082</v>
+        <v>0.2702183182514009</v>
       </c>
     </row>
     <row r="81">
@@ -2794,26 +2819,26 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>specific_factorPositive attitudes:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53</t>
+          <t>specific_factorSocial connection/support:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52</t>
         </is>
       </c>
       <c r="C81">
-        <v>0.2523704377854001</v>
+        <v>0.1475642362574485</v>
       </c>
       <c r="D81">
-        <v>0.1124361083166463</v>
+        <v>0.1032827964519991</v>
       </c>
       <c r="E81">
-        <v>1</v>
+        <v>1.655786948772392</v>
       </c>
       <c r="F81">
-        <v>-0.8244943073973523</v>
+        <v>-0.3775033781671747</v>
       </c>
       <c r="G81">
-        <v>0.9337100981194272</v>
+        <v>0.6008292929640908</v>
       </c>
       <c r="H81">
-        <v>0.2616907126702593</v>
+        <v>0.3101653322002039</v>
       </c>
     </row>
     <row r="82">
@@ -2824,14 +2849,26 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>specific_factorPositive beliefs about knowledge and learning:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53</t>
+          <t>specific_factorAutonomous causality orientation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53</t>
         </is>
       </c>
       <c r="C82">
-        <v>0.21</v>
+        <v>0.3151737832674705</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>0.1071683221775044</v>
+      </c>
+      <c r="E82">
+        <v>1.094153912347055</v>
+      </c>
+      <c r="F82">
+        <v>-0.6569743301077344</v>
+      </c>
+      <c r="G82">
+        <v>0.8937038876517522</v>
+      </c>
+      <c r="H82">
+        <v>0.1844692323673769</v>
       </c>
     </row>
     <row r="83">
@@ -2842,26 +2879,26 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>specific_factorSelf-efficacy:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53</t>
+          <t>specific_factorAutonomous motivation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53</t>
         </is>
       </c>
       <c r="C83">
-        <v>0.1548416701155551</v>
+        <v>0.2999758292578629</v>
       </c>
       <c r="D83">
-        <v>0.1124361083166464</v>
+        <v>0.0913712541000751</v>
       </c>
       <c r="E83">
-        <v>1</v>
+        <v>1.011994387523138</v>
       </c>
       <c r="F83">
-        <v>-0.8544842903703852</v>
+        <v>-0.6747821271090207</v>
       </c>
       <c r="G83">
-        <v>0.9193379182294213</v>
+        <v>0.8933868069227787</v>
       </c>
       <c r="H83">
-        <v>0.3973891403896132</v>
+        <v>0.1803985798148401</v>
       </c>
     </row>
     <row r="84">
@@ -2872,26 +2909,26 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>specific_factorSocial connection/support:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53</t>
+          <t>specific_factorControlled causality orientation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53</t>
         </is>
       </c>
       <c r="C84">
-        <v>0.6438429982131553</v>
+        <v>-0.244935108792896</v>
       </c>
       <c r="D84">
-        <v>0.09372868122657492</v>
+        <v>0.1111807113597651</v>
       </c>
       <c r="E84">
-        <v>1.032562228122806</v>
+        <v>1.041791405550621</v>
       </c>
       <c r="F84">
-        <v>-0.3284060530007574</v>
+        <v>-0.9113742217319438</v>
       </c>
       <c r="G84">
-        <v>0.9536358977215805</v>
+        <v>0.7761217307339743</v>
       </c>
       <c r="H84">
-        <v>0.07296949017076519</v>
+        <v>0.2583442158408346</v>
       </c>
     </row>
     <row r="85">
@@ -2902,26 +2939,26 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>specific_factorStyle-related beliefs:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53</t>
+          <t>specific_factorControlled motivation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53</t>
         </is>
       </c>
       <c r="C85">
-        <v>0.5078415474402764</v>
+        <v>0.08519822634626965</v>
       </c>
       <c r="D85">
-        <v>6.623798120275543e-17</v>
+        <v>0.1397944569492038</v>
       </c>
       <c r="E85">
-        <v>1</v>
+        <v>1.011994387523138</v>
       </c>
       <c r="F85">
-        <v>0.5078415474402758</v>
+        <v>-0.9277330412594766</v>
       </c>
       <c r="G85">
-        <v>0.5078415474402771</v>
+        <v>0.9481031868980464</v>
       </c>
       <c r="H85">
-        <v>7.532536184585426e-17</v>
+        <v>0.6498854852928573</v>
       </c>
     </row>
     <row r="86">
@@ -2932,26 +2969,26 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>specific_factorEmotional intelligence:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_54</t>
+          <t>specific_factorEmotional intelligence:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53</t>
         </is>
       </c>
       <c r="C86">
-        <v>0.2300242873660734</v>
+        <v>0.1761307796274045</v>
       </c>
       <c r="D86">
-        <v>2.20944345656974e-16</v>
+        <v>0.111180711359765</v>
       </c>
       <c r="E86">
-        <v>1</v>
+        <v>1.041791405550622</v>
       </c>
       <c r="F86">
-        <v>0.2300242873660708</v>
+        <v>-0.8032028935715013</v>
       </c>
       <c r="G86">
-        <v>0.2300242873660761</v>
+        <v>0.8983392599052732</v>
       </c>
       <c r="H86">
-        <v>6.005485236765053e-16</v>
+        <v>0.3481755122474268</v>
       </c>
     </row>
     <row r="87">
@@ -2962,26 +2999,26 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>specific_factorIll-being:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_54</t>
+          <t>specific_factorExtrinsic goals:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53</t>
         </is>
       </c>
       <c r="C87">
-        <v>-0.1362527235751302</v>
+        <v>0.0385203076380544</v>
       </c>
       <c r="D87">
-        <v>2.624405763137852e-16</v>
+        <v>0.09797117423601778</v>
       </c>
       <c r="E87">
-        <v>1</v>
+        <v>1.010474728471673</v>
       </c>
       <c r="F87">
-        <v>-0.1362527235751335</v>
+        <v>-0.8262555349803302</v>
       </c>
       <c r="G87">
-        <v>-0.136252723575127</v>
+        <v>0.8492057077542161</v>
       </c>
       <c r="H87">
-        <v>1.218586922205898e-15</v>
+        <v>0.7608734538627531</v>
       </c>
     </row>
     <row r="88">
@@ -2992,26 +3029,14 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>specific_factorMastery goals:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_54</t>
+          <t>specific_factorIll-being:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53</t>
         </is>
       </c>
       <c r="C88">
-        <v>0.2941021540725432</v>
+        <v>-0.1799999999999999</v>
       </c>
       <c r="D88">
-        <v>1.625256087425298e-16</v>
-      </c>
-      <c r="E88">
-        <v>1</v>
-      </c>
-      <c r="F88">
-        <v>0.2941021540725413</v>
-      </c>
-      <c r="G88">
-        <v>0.2941021540725451</v>
-      </c>
-      <c r="H88">
-        <v>3.414178997297476e-16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3022,26 +3047,26 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>specific_factorOthers' negative emotions:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_54</t>
+          <t>specific_factorIntrinsic goals:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53</t>
         </is>
       </c>
       <c r="C89">
-        <v>-0.08518240397453024</v>
+        <v>0.3362083319905698</v>
       </c>
       <c r="D89">
-        <v>2.662261481243157e-16</v>
+        <v>0.02508486777084584</v>
       </c>
       <c r="E89">
-        <v>1</v>
+        <v>1.010474728471674</v>
       </c>
       <c r="F89">
-        <v>-0.0851824039745336</v>
+        <v>0.03876131167960043</v>
       </c>
       <c r="G89">
-        <v>-0.08518240397452688</v>
+        <v>0.5789236142116855</v>
       </c>
       <c r="H89">
-        <v>1.984847762331168e-15</v>
+        <v>0.04442274698911687</v>
       </c>
     </row>
     <row r="90">
@@ -3052,26 +3077,26 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>specific_factorOthers' positive behaviours:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_54</t>
+          <t>specific_factorMastery goals:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53</t>
         </is>
       </c>
       <c r="C90">
-        <v>0.3212891855030913</v>
+        <v>0.4332190657991781</v>
       </c>
       <c r="D90">
-        <v>2.515401719670521e-16</v>
+        <v>0.1111807113597651</v>
       </c>
       <c r="E90">
-        <v>1</v>
+        <v>1.041791405550622</v>
       </c>
       <c r="F90">
-        <v>0.3212891855030884</v>
+        <v>-0.6759980472604603</v>
       </c>
       <c r="G90">
-        <v>0.3212891855030942</v>
+        <v>0.9413086602841442</v>
       </c>
       <c r="H90">
-        <v>4.807659129049573e-16</v>
+        <v>0.1420700892983568</v>
       </c>
     </row>
     <row r="91">
@@ -3082,26 +3107,14 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>specific_factorPerformance goals:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_54</t>
+          <t>specific_factorNeed frustration:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53</t>
         </is>
       </c>
       <c r="C91">
-        <v>-0.3883755206895598</v>
+        <v>-0.1499999999999999</v>
       </c>
       <c r="D91">
-        <v>1.577329584783548e-16</v>
-      </c>
-      <c r="E91">
-        <v>1</v>
-      </c>
-      <c r="F91">
-        <v>-0.3883755206895615</v>
-      </c>
-      <c r="G91">
-        <v>-0.3883755206895581</v>
-      </c>
-      <c r="H91">
-        <v>2.449852488772883e-16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -3112,26 +3125,14 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>specific_factorSocial connection/support:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_54</t>
+          <t>specific_factorNeed satisfaction:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53</t>
         </is>
       </c>
       <c r="C92">
-        <v>0.5021157008117892</v>
+        <v>0.57</v>
       </c>
       <c r="D92">
-        <v>5.561241232502932e-17</v>
-      </c>
-      <c r="E92">
-        <v>1</v>
-      </c>
-      <c r="F92">
-        <v>0.5021157008117888</v>
-      </c>
-      <c r="G92">
-        <v>0.5021157008117898</v>
-      </c>
-      <c r="H92">
-        <v>6.412238534053953e-17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3142,14 +3143,26 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>specific_factorExternal pressure in terms of constraints:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_55</t>
+          <t>specific_factornegative personality:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53</t>
         </is>
       </c>
       <c r="C93">
-        <v>-0.02000000000000005</v>
+        <v>-0.4824654374026998</v>
       </c>
       <c r="D93">
-        <v>0</v>
+        <v>0.111180711359765</v>
+      </c>
+      <c r="E93">
+        <v>1.041791405550622</v>
+      </c>
+      <c r="F93">
+        <v>-0.9480096593490884</v>
+      </c>
+      <c r="G93">
+        <v>0.6407041031021964</v>
+      </c>
+      <c r="H93">
+        <v>0.125137030351461</v>
       </c>
     </row>
     <row r="94">
@@ -3160,11 +3173,11 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>specific_factorMastery goals:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_55</t>
+          <t>specific_factorOthers' abilities:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53</t>
         </is>
       </c>
       <c r="C94">
-        <v>0.28</v>
+        <v>0.1999999999999999</v>
       </c>
       <c r="D94">
         <v>0</v>
@@ -3178,14 +3191,26 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>specific_factorPerformance goals:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_55</t>
+          <t>specific_factorOthers' autonomous motivation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53</t>
         </is>
       </c>
       <c r="C95">
-        <v>-0.2</v>
+        <v>0.1137991909636965</v>
       </c>
       <c r="D95">
-        <v>0</v>
+        <v>0.111180711359765</v>
+      </c>
+      <c r="E95">
+        <v>1.041791405550622</v>
+      </c>
+      <c r="F95">
+        <v>-0.8246775025216522</v>
+      </c>
+      <c r="G95">
+        <v>0.8853201469344014</v>
+      </c>
+      <c r="H95">
+        <v>0.4857110191201596</v>
       </c>
     </row>
     <row r="96">
@@ -3196,14 +3221,26 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>specific_factorPersonal responsibility for others' motivation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_55</t>
+          <t>specific_factorPositive attitudes:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53</t>
         </is>
       </c>
       <c r="C96">
-        <v>0.1299999999999999</v>
+        <v>0.2508102139140255</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>0.112907334619237</v>
+      </c>
+      <c r="E96">
+        <v>1.000000000000001</v>
+      </c>
+      <c r="F96">
+        <v>-0.8269295037714658</v>
+      </c>
+      <c r="G96">
+        <v>0.9342618653036866</v>
+      </c>
+      <c r="H96">
+        <v>0.2641857193788845</v>
       </c>
     </row>
     <row r="97">
@@ -3214,11 +3251,11 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>specific_factorSelf-efficacy:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_55</t>
+          <t>specific_factorPositive beliefs about knowledge and learning:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53</t>
         </is>
       </c>
       <c r="C97">
-        <v>0.25</v>
+        <v>0.21</v>
       </c>
       <c r="D97">
         <v>0</v>
@@ -3227,394 +3264,370 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>specific_factorAmotivation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
+          <t>specific_factorself-efficacy:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53</t>
         </is>
       </c>
       <c r="C98">
-        <v>0.3147279396827918</v>
+        <v>0.1532155313886591</v>
       </c>
       <c r="D98">
-        <v>0.06019091110422598</v>
+        <v>0.1129073346192371</v>
       </c>
       <c r="E98">
-        <v>3.816402556539472</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="F98">
-        <v>0.1542087712240747</v>
+        <v>-0.8565360867932941</v>
       </c>
       <c r="G98">
-        <v>0.4590604416680362</v>
+        <v>0.9200043640735045</v>
       </c>
       <c r="H98">
-        <v>0.006451605644704215</v>
+        <v>0.4019012538113142</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>specific_factorAutonomous causality orientation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
+          <t>specific_factorSocial connection/support:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53</t>
         </is>
       </c>
       <c r="C99">
-        <v>-0.06028160416217357</v>
+        <v>0.6449966858867097</v>
       </c>
       <c r="D99">
-        <v>2.466746551749216e-17</v>
+        <v>0.09455436558753279</v>
       </c>
       <c r="E99">
-        <v>1</v>
+        <v>1.036380288777615</v>
       </c>
       <c r="F99">
-        <v>-0.06028160416217388</v>
+        <v>-0.3270531063619459</v>
       </c>
       <c r="G99">
-        <v>-0.06028160416217326</v>
+        <v>0.9538555262440707</v>
       </c>
       <c r="H99">
-        <v>2.60191416134872e-16</v>
+        <v>0.07290535210749435</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>specific_factorAutonomous motivation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
+          <t>specific_factorStyle-related beliefs:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53</t>
         </is>
       </c>
       <c r="C100">
-        <v>-0.09392980413916868</v>
+        <v>0.5078415474402764</v>
       </c>
       <c r="D100">
-        <v>0.04208413325548796</v>
+        <v>8.718640501494984e-17</v>
       </c>
       <c r="E100">
-        <v>10.42982496173375</v>
+        <v>1</v>
       </c>
       <c r="F100">
-        <v>-0.1852903575907855</v>
+        <v>0.5078415474402757</v>
       </c>
       <c r="G100">
-        <v>-0.0009594001668356017</v>
+        <v>0.5078415474402773</v>
       </c>
       <c r="H100">
-        <v>0.04807759891641727</v>
+        <v>9.914776064336189e-17</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>specific_factorControlled causality orientation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
+          <t>specific_factoremotional intelligence:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_54</t>
         </is>
       </c>
       <c r="C101">
-        <v>0.2705024953939131</v>
+        <v>0.2300242873660734</v>
       </c>
       <c r="D101">
-        <v>3.566985486616771e-17</v>
+        <v>9.748149756770665e-17</v>
       </c>
       <c r="E101">
         <v>1</v>
       </c>
       <c r="F101">
-        <v>0.2705024953939127</v>
+        <v>0.2300242873660722</v>
       </c>
       <c r="G101">
-        <v>0.2705024953939135</v>
+        <v>0.2300242873660746</v>
       </c>
       <c r="H101">
-        <v>8.185887208323795e-17</v>
+        <v>2.649643251832782e-16</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>specific_factorControlled motivation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
+          <t>specific_factorIll-being:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_54</t>
         </is>
       </c>
       <c r="C102">
-        <v>0.1415420013578889</v>
+        <v>-0.1362527235751303</v>
       </c>
       <c r="D102">
-        <v>0.04557039999058967</v>
+        <v>8.362729730695012e-17</v>
       </c>
       <c r="E102">
-        <v>8.907346481669084</v>
+        <v>1</v>
       </c>
       <c r="F102">
-        <v>0.03922751669568378</v>
+        <v>-0.1362527235751313</v>
       </c>
       <c r="G102">
-        <v>0.2409193181513427</v>
+        <v>-0.1362527235751292</v>
       </c>
       <c r="H102">
-        <v>0.01233402553051369</v>
+        <v>3.883055443218862e-16</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>specific_factorEmotional intelligence:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
+          <t>specific_factormastery goals:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_54</t>
         </is>
       </c>
       <c r="C103">
-        <v>-0.07720364617062479</v>
+        <v>0.2941021540725435</v>
       </c>
       <c r="D103">
-        <v>0.1543363184212484</v>
+        <v>1.899665796498646e-16</v>
       </c>
       <c r="E103">
-        <v>1.021862217402726</v>
+        <v>1</v>
       </c>
       <c r="F103">
-        <v>-0.9596897727427061</v>
+        <v>0.2941021540725413</v>
       </c>
       <c r="G103">
-        <v>0.9454698960912731</v>
+        <v>0.2941021540725457</v>
       </c>
       <c r="H103">
-        <v>0.7027742816164567</v>
+        <v>3.990632069906434e-16</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>specific_factorEntity beliefs:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
+          <t>specific_factorOthers positive behaviour:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_54</t>
         </is>
       </c>
       <c r="C104">
-        <v>0.2129577476228005</v>
+        <v>0.3212891855030913</v>
       </c>
       <c r="D104">
-        <v>0.03076968270017691</v>
+        <v>1.313175003295924e-16</v>
       </c>
       <c r="E104">
-        <v>1.023473567508427</v>
+        <v>1</v>
       </c>
       <c r="F104">
-        <v>-0.1529233389117847</v>
+        <v>0.3212891855030898</v>
       </c>
       <c r="G104">
-        <v>0.5274946471922738</v>
+        <v>0.3212891855030928</v>
       </c>
       <c r="H104">
-        <v>0.08632330044255726</v>
+        <v>2.5098566734948e-16</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>specific_factorExternal pressure in terms of constraints:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
+          <t>specific_factorothers' negative emotions:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_54</t>
         </is>
       </c>
       <c r="C105">
-        <v>0.04081071526001911</v>
+        <v>-0.08518240397453027</v>
       </c>
       <c r="D105">
-        <v>0.08278836019424991</v>
+        <v>3.12025468312967e-17</v>
       </c>
       <c r="E105">
-        <v>1.906615398377834</v>
+        <v>1</v>
       </c>
       <c r="F105">
-        <v>-0.3208810806779915</v>
+        <v>-0.08518240397453067</v>
       </c>
       <c r="G105">
-        <v>0.3921141002487359</v>
+        <v>-0.08518240397452986</v>
       </c>
       <c r="H105">
-        <v>0.6727812683651186</v>
+        <v>2.32630437293534e-16</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>specific_factorExternal pressures:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
+          <t>specific_factorperformance goals:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_54</t>
         </is>
       </c>
       <c r="C106">
-        <v>0.2990379135279493</v>
+        <v>-0.3883755206895595</v>
       </c>
       <c r="D106">
-        <v>0.03698027690436766</v>
+        <v>9.330449783649044e-17</v>
       </c>
       <c r="E106">
-        <v>3.026016077560047</v>
+        <v>1</v>
       </c>
       <c r="F106">
-        <v>0.189043753635972</v>
+        <v>-0.3883755206895604</v>
       </c>
       <c r="G106">
-        <v>0.4016209336744058</v>
+        <v>-0.3883755206895585</v>
       </c>
       <c r="H106">
-        <v>0.003496818526503579</v>
+        <v>1.449172439568474e-16</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>specific_factorExtrinsic goals:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
+          <t>specific_factorSocial connection/support:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_54</t>
         </is>
       </c>
       <c r="C107">
-        <v>0.15</v>
+        <v>0.5021157008117896</v>
       </c>
       <c r="D107">
-        <v>0</v>
+        <v>1.579851907104661e-16</v>
+      </c>
+      <c r="E107">
+        <v>1</v>
+      </c>
+      <c r="F107">
+        <v>0.5021157008117881</v>
+      </c>
+      <c r="G107">
+        <v>0.5021157008117911</v>
+      </c>
+      <c r="H107">
+        <v>1.821605439020988e-16</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>specific_factorIll-being:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
+          <t>specific_factorExternal pressure in terms of constraints:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_55</t>
         </is>
       </c>
       <c r="C108">
-        <v>0.2835629638432567</v>
+        <v>-0.02000000000000004</v>
       </c>
       <c r="D108">
-        <v>0.1187922945550256</v>
-      </c>
-      <c r="E108">
-        <v>4.651454020555407</v>
-      </c>
-      <c r="F108">
-        <v>-0.02082234487417867</v>
-      </c>
-      <c r="G108">
-        <v>0.5398401945688595</v>
-      </c>
-      <c r="H108">
-        <v>0.06134324717201304</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>specific_factorIncremental beliefs:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
+          <t>specific_factorMastery goals:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_55</t>
         </is>
       </c>
       <c r="C109">
-        <v>-0.061823765244399</v>
+        <v>0.28</v>
       </c>
       <c r="D109">
-        <v>0.01672157751786428</v>
-      </c>
-      <c r="E109">
-        <v>1.436578120773911</v>
-      </c>
-      <c r="F109">
-        <v>-0.1673830359931718</v>
-      </c>
-      <c r="G109">
-        <v>0.04513692827463364</v>
-      </c>
-      <c r="H109">
-        <v>0.1062386545596478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>specific_factorInternal pressures:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
+          <t>specific_factorPerformance goals:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_55</t>
         </is>
       </c>
       <c r="C110">
-        <v>0.1715772136958118</v>
+        <v>-0.2</v>
       </c>
       <c r="D110">
-        <v>0.03830266595973447</v>
-      </c>
-      <c r="E110">
-        <v>2.010032564745289</v>
-      </c>
-      <c r="F110">
-        <v>0.009273688955301215</v>
-      </c>
-      <c r="G110">
-        <v>0.3250724887481565</v>
-      </c>
-      <c r="H110">
-        <v>0.04512042507197069</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>specific_factorIntrinsic goals:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
+          <t>specific_factorPersonal responsibility for others' motivation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_55</t>
         </is>
       </c>
       <c r="C111">
-        <v>-0.19</v>
+        <v>0.1299999999999999</v>
       </c>
       <c r="D111">
         <v>0</v>
@@ -3623,31 +3636,19 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>specific_factorInvitation from others' to help:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
+          <t>specific_factorSelf-efficacy:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_55</t>
         </is>
       </c>
       <c r="C112">
-        <v>-0.1038316162782062</v>
+        <v>0.25</v>
       </c>
       <c r="D112">
-        <v>0.01766644628934858</v>
-      </c>
-      <c r="E112">
-        <v>1.292552209200624</v>
-      </c>
-      <c r="F112">
-        <v>-0.2336169380663771</v>
-      </c>
-      <c r="G112">
-        <v>0.02958879421825491</v>
-      </c>
-      <c r="H112">
-        <v>0.06863151993979004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
@@ -3658,26 +3659,26 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>specific_factorLow personal responsibility for others':country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
+          <t>specific_factorAmotivation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
         </is>
       </c>
       <c r="C113">
-        <v>-0.02900147261801982</v>
+        <v>0.3171728038991205</v>
       </c>
       <c r="D113">
-        <v>0.01766644620559706</v>
+        <v>0.05962031698790499</v>
       </c>
       <c r="E113">
-        <v>1.292552209200623</v>
+        <v>3.83753146711482</v>
       </c>
       <c r="F113">
-        <v>-0.1613906663147748</v>
+        <v>0.1588114674529474</v>
       </c>
       <c r="G113">
-        <v>0.1044130688314842</v>
+        <v>0.4596235511743358</v>
       </c>
       <c r="H113">
-        <v>0.3042652789286606</v>
+        <v>0.00597048873163239</v>
       </c>
     </row>
     <row r="114">
@@ -3688,26 +3689,26 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>specific_factorMastery goals:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
+          <t>specific_factorAutonomous causality orientation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
         </is>
       </c>
       <c r="C114">
-        <v>-0.04404989479670568</v>
+        <v>-0.06028160416217347</v>
       </c>
       <c r="D114">
-        <v>0.01766644674079875</v>
+        <v>6.026285778725332e-17</v>
       </c>
       <c r="E114">
-        <v>1.292552209200623</v>
+        <v>1</v>
       </c>
       <c r="F114">
-        <v>-0.1760302743923285</v>
+        <v>-0.06028160416217423</v>
       </c>
       <c r="G114">
-        <v>0.08948618673877626</v>
+        <v>-0.06028160416217272</v>
       </c>
       <c r="H114">
-        <v>0.1947103823351131</v>
+        <v>6.356501561492391e-16</v>
       </c>
     </row>
     <row r="115">
@@ -3718,26 +3719,26 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>specific_factorNeed frustration:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
+          <t>specific_factorautonomous motivation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
         </is>
       </c>
       <c r="C115">
-        <v>0.3053616742590927</v>
+        <v>-0.2074820288184157</v>
       </c>
       <c r="D115">
-        <v>0.05006312288185468</v>
+        <v>0.1215627702278133</v>
       </c>
       <c r="E115">
-        <v>5.175407261714949</v>
+        <v>1.04108102758732</v>
       </c>
       <c r="F115">
-        <v>0.1858464809735565</v>
+        <v>-0.9243770075378078</v>
       </c>
       <c r="G115">
-        <v>0.4159730199222678</v>
+        <v>0.8328050747356153</v>
       </c>
       <c r="H115">
-        <v>0.00130542316105133</v>
+        <v>0.3259576652507533</v>
       </c>
     </row>
     <row r="116">
@@ -3748,26 +3749,26 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>specific_factorNeed satisfaction:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
+          <t>specific_factorAutonomous motivation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
         </is>
       </c>
       <c r="C116">
-        <v>-0.1343357542180124</v>
+        <v>-0.08279505671364085</v>
       </c>
       <c r="D116">
-        <v>0.03376370389859929</v>
+        <v>0.04487382171764856</v>
       </c>
       <c r="E116">
-        <v>6.861131946404668</v>
+        <v>8.983378149443519</v>
       </c>
       <c r="F116">
-        <v>-0.2120528881439692</v>
+        <v>-0.1824591017218347</v>
       </c>
       <c r="G116">
-        <v>-0.05493013006219152</v>
+        <v>0.01855312059236118</v>
       </c>
       <c r="H116">
-        <v>0.005387921767623095</v>
+        <v>0.09752105212084849</v>
       </c>
     </row>
     <row r="117">
@@ -3778,26 +3779,26 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>specific_factorNegative personality:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
+          <t>specific_factorControlled causality orientation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
         </is>
       </c>
       <c r="C117">
-        <v>0.2665708623476357</v>
+        <v>0.2705024953939132</v>
       </c>
       <c r="D117">
-        <v>0.02018250452282975</v>
+        <v>5.511197628960602e-17</v>
       </c>
       <c r="E117">
-        <v>1.979904459157648</v>
+        <v>1</v>
       </c>
       <c r="F117">
-        <v>0.1833821366222867</v>
+        <v>0.2705024953939126</v>
       </c>
       <c r="G117">
-        <v>0.3459688065949235</v>
+        <v>0.2705024953939139</v>
       </c>
       <c r="H117">
-        <v>0.005632343606131118</v>
+        <v>1.264766631171324e-16</v>
       </c>
     </row>
     <row r="118">
@@ -3808,26 +3809,26 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>specific_factorOthers' abilities:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
+          <t>specific_factorControlled motivation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
         </is>
       </c>
       <c r="C118">
-        <v>-0.4150329984158743</v>
+        <v>0.1467055861855751</v>
       </c>
       <c r="D118">
-        <v>0.07138394229634473</v>
+        <v>0.04546546607135998</v>
       </c>
       <c r="E118">
-        <v>1.045711026865237</v>
+        <v>8.769058602460788</v>
       </c>
       <c r="F118">
-        <v>-0.8511092303961376</v>
+        <v>0.04447810741215018</v>
       </c>
       <c r="G118">
-        <v>0.3599348002867097</v>
+        <v>0.2458925437646347</v>
       </c>
       <c r="H118">
-        <v>0.09467073472060676</v>
+        <v>0.01034328980325274</v>
       </c>
     </row>
     <row r="119">
@@ -3838,26 +3839,26 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>specific_factorOthers' autonomous motivation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
+          <t>specific_factorEmotional intelligence:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
         </is>
       </c>
       <c r="C119">
-        <v>-0.008980106959804401</v>
+        <v>-0.07697527800177933</v>
       </c>
       <c r="D119">
-        <v>0.08036904831496156</v>
+        <v>0.154430479631892</v>
       </c>
       <c r="E119">
-        <v>3.789539845722566</v>
+        <v>1.024676449562278</v>
       </c>
       <c r="F119">
-        <v>-0.2327490312259732</v>
+        <v>-0.9588249292117922</v>
       </c>
       <c r="G119">
-        <v>0.2156918326667863</v>
+        <v>0.9443583695086488</v>
       </c>
       <c r="H119">
-        <v>0.9166965939879005</v>
+        <v>0.703512298684059</v>
       </c>
     </row>
     <row r="120">
@@ -3868,26 +3869,26 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>specific_factorOthers' controlled motivation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
+          <t>specific_factorentity beliefs:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
         </is>
       </c>
       <c r="C120">
-        <v>0.06155782164955374</v>
+        <v>0.2101785936133748</v>
       </c>
       <c r="D120">
-        <v>0.03769563635102237</v>
+        <v>0.0371259163197571</v>
       </c>
       <c r="E120">
-        <v>1.06956640222814</v>
+        <v>1.027578875601545</v>
       </c>
       <c r="F120">
-        <v>-0.3360551605914693</v>
+        <v>-0.2255349094493603</v>
       </c>
       <c r="G120">
-        <v>0.4405477749420197</v>
+        <v>0.5758265817589233</v>
       </c>
       <c r="H120">
-        <v>0.3374323614248502</v>
+        <v>0.1050364774825324</v>
       </c>
     </row>
     <row r="121">
@@ -3898,26 +3899,26 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>specific_factorOthers' negative behaviours:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
+          <t>specific_factorExternal pressure in terms of constraints:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
         </is>
       </c>
       <c r="C121">
-        <v>0.4333789146158857</v>
+        <v>0.03917945345909796</v>
       </c>
       <c r="D121">
-        <v>0.1423039448073511</v>
+        <v>0.07273244230785801</v>
       </c>
       <c r="E121">
-        <v>1.847026923934376</v>
+        <v>1.91239923130683</v>
       </c>
       <c r="F121">
-        <v>-0.1968872950122174</v>
+        <v>-0.2801910612563206</v>
       </c>
       <c r="G121">
-        <v>0.8101932627687869</v>
+        <v>0.3507409903091088</v>
       </c>
       <c r="H121">
-        <v>0.0916715169943261</v>
+        <v>0.6460431953445996</v>
       </c>
     </row>
     <row r="122">
@@ -3928,26 +3929,26 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>specific_factorOthers' negative emotions:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
+          <t>specific_factorexternal pressures:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
         </is>
       </c>
       <c r="C122">
-        <v>0.2501386732217148</v>
+        <v>0.392050048428798</v>
       </c>
       <c r="D122">
-        <v>0.03309406066356897</v>
+        <v>0.01084069063791308</v>
       </c>
       <c r="E122">
-        <v>2.137239653524689</v>
+        <v>1.09803858175698</v>
       </c>
       <c r="F122">
-        <v>0.1209859637824959</v>
+        <v>0.2935026390345231</v>
       </c>
       <c r="G122">
-        <v>0.3709635574662689</v>
+        <v>0.4823524105101834</v>
       </c>
       <c r="H122">
-        <v>0.01350521370051563</v>
+        <v>0.01191414182468906</v>
       </c>
     </row>
     <row r="123">
@@ -3958,26 +3959,26 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>specific_factorOthers' positive behaviours:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
+          <t>specific_factorExternal pressures:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
         </is>
       </c>
       <c r="C123">
-        <v>-0.03982048924675324</v>
+        <v>0.2607508765052232</v>
       </c>
       <c r="D123">
-        <v>0.001481027103561508</v>
+        <v>0.008476936909947436</v>
       </c>
       <c r="E123">
-        <v>1.117772158795374</v>
+        <v>2.025364134828834</v>
       </c>
       <c r="F123">
-        <v>-0.05451025409829723</v>
+        <v>0.2268583063465177</v>
       </c>
       <c r="G123">
-        <v>-0.02511349124555977</v>
+        <v>0.2940126554261863</v>
       </c>
       <c r="H123">
-        <v>0.01649325891695046</v>
+        <v>0.0009382201497772372</v>
       </c>
     </row>
     <row r="124">
@@ -3988,26 +3989,26 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>specific_factorOthers' positive emotions:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
+          <t>specific_factorIll-being:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
         </is>
       </c>
       <c r="C124">
-        <v>-0.1596345309887983</v>
+        <v>0.2829628151996706</v>
       </c>
       <c r="D124">
-        <v>0.04232769307389782</v>
+        <v>0.1294515940082277</v>
       </c>
       <c r="E124">
-        <v>1.115610316125896</v>
+        <v>3.761653829599564</v>
       </c>
       <c r="F124">
-        <v>-0.5251794737486185</v>
+        <v>-0.07752152130287597</v>
       </c>
       <c r="G124">
-        <v>0.2556437350851606</v>
+        <v>0.5780152901119874</v>
       </c>
       <c r="H124">
-        <v>0.1431800359994367</v>
+        <v>0.09216916037708214</v>
       </c>
     </row>
     <row r="125">
@@ -4018,26 +4019,26 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>specific_factorPerformance goals:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
+          <t>specific_factorIncremental beliefs:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
         </is>
       </c>
       <c r="C125">
-        <v>0.1638743235143444</v>
+        <v>-0.06031152493699985</v>
       </c>
       <c r="D125">
-        <v>0.01766644701709567</v>
+        <v>0.01658020286219503</v>
       </c>
       <c r="E125">
-        <v>1.292552209200624</v>
+        <v>1.472726473410667</v>
       </c>
       <c r="F125">
-        <v>0.03155026109595706</v>
+        <v>-0.161348722113412</v>
       </c>
       <c r="G125">
-        <v>0.2905528510878406</v>
+        <v>0.04197685430380926</v>
       </c>
       <c r="H125">
-        <v>0.03815797707735485</v>
+        <v>0.105008678173964</v>
       </c>
     </row>
     <row r="126">
@@ -4048,26 +4049,26 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>specific_factorPersonal responsibility for others':country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
+          <t>specific_factorInternal pressures:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
         </is>
       </c>
       <c r="C126">
-        <v>-0.1327198907432248</v>
+        <v>0.1697157827549054</v>
       </c>
       <c r="D126">
-        <v>0.03822570387524032</v>
+        <v>0.03566617573194125</v>
       </c>
       <c r="E126">
-        <v>1.19762170675874</v>
+        <v>2.011778766916065</v>
       </c>
       <c r="F126">
-        <v>-0.4344325849103127</v>
+        <v>0.01877043536691628</v>
       </c>
       <c r="G126">
-        <v>0.1957723216255061</v>
+        <v>0.3130970314887215</v>
       </c>
       <c r="H126">
-        <v>0.1440539229221495</v>
+        <v>0.04022080863362033</v>
       </c>
     </row>
     <row r="127">
@@ -4078,26 +4079,26 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>specific_factorPersonal responsibility for others' motivation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
+          <t>specific_factorInvitation from others to help:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
         </is>
       </c>
       <c r="C127">
-        <v>-0.01445854423427765</v>
+        <v>-0.09806203632926014</v>
       </c>
       <c r="D127">
-        <v>0.08725901584960183</v>
+        <v>0.0305293112624708</v>
       </c>
       <c r="E127">
-        <v>1.022966555986011</v>
+        <v>1.040193866951203</v>
       </c>
       <c r="F127">
-        <v>-0.7879736069178241</v>
+        <v>-0.4240350625412525</v>
       </c>
       <c r="G127">
-        <v>0.776757995009379</v>
+        <v>0.2504052125582251</v>
       </c>
       <c r="H127">
-        <v>0.8949902741004359</v>
+        <v>0.1837882282479164</v>
       </c>
     </row>
     <row r="128">
@@ -4108,26 +4109,26 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>specific_factorPrior positive related experiences:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
+          <t>specific_factorlow personal responsibility for others:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
         </is>
       </c>
       <c r="C128">
-        <v>-0.0390483668649508</v>
+        <v>-0.02317646076236674</v>
       </c>
       <c r="D128">
-        <v>0.01766644676899169</v>
+        <v>0.03052931114572073</v>
       </c>
       <c r="E128">
-        <v>1.292552209200624</v>
+        <v>1.040193866951202</v>
       </c>
       <c r="F128">
-        <v>-0.1711710910095486</v>
+        <v>-0.3604507691158341</v>
       </c>
       <c r="G128">
-        <v>0.09445398532583398</v>
+        <v>0.3194573432502945</v>
       </c>
       <c r="H128">
-        <v>0.2228143738174753</v>
+        <v>0.5825478261991616</v>
       </c>
     </row>
     <row r="129">
@@ -4138,26 +4139,26 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>specific_factorSelf-efficacy:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
+          <t>specific_factorMastery goals:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
         </is>
       </c>
       <c r="C129">
-        <v>-0.07044436996768924</v>
+        <v>-0.03823078141734743</v>
       </c>
       <c r="D129">
-        <v>0.02952961304218573</v>
+        <v>0.03052931189179606</v>
       </c>
       <c r="E129">
-        <v>1.040350557948871</v>
+        <v>1.040193866951203</v>
       </c>
       <c r="F129">
-        <v>-0.3910756584746831</v>
+        <v>-0.3734899665992413</v>
       </c>
       <c r="G129">
-        <v>0.2654353981002069</v>
+        <v>0.3058619394338174</v>
       </c>
       <c r="H129">
-        <v>0.2444979644145493</v>
+        <v>0.4227126018334076</v>
       </c>
     </row>
     <row r="130">
@@ -4168,26 +4169,26 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>specific_factorSocial connection/support:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
+          <t>specific_factorNeed frustration:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
         </is>
       </c>
       <c r="C130">
-        <v>-0.1540373803650967</v>
+        <v>0.3056483865674024</v>
       </c>
       <c r="D130">
-        <v>0.02344040690862824</v>
+        <v>0.05059368963123129</v>
       </c>
       <c r="E130">
-        <v>1.13302243657327</v>
+        <v>5.27638613732111</v>
       </c>
       <c r="F130">
-        <v>-0.364405247115422</v>
+        <v>0.1855317727925658</v>
       </c>
       <c r="G130">
-        <v>0.07128855996903341</v>
+        <v>0.4167652689771895</v>
       </c>
       <c r="H130">
-        <v>0.07636464113393904</v>
+        <v>0.001271232201091895</v>
       </c>
     </row>
     <row r="131">
@@ -4198,26 +4199,26 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>specific_factorStyle-related beliefs:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
+          <t>specific_factorNeed satisfaction:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
         </is>
       </c>
       <c r="C131">
-        <v>0.297119663227177</v>
+        <v>-0.1333403301965823</v>
       </c>
       <c r="D131">
-        <v>0.00892435722802965</v>
+        <v>0.03417671431381478</v>
       </c>
       <c r="E131">
-        <v>1.296521798931671</v>
+        <v>6.960300920602022</v>
       </c>
       <c r="F131">
-        <v>0.2346605033152117</v>
+        <v>-0.211792935120111</v>
       </c>
       <c r="G131">
-        <v>0.3571356024437909</v>
+        <v>-0.05318027538986974</v>
       </c>
       <c r="H131">
-        <v>0.007068240947998732</v>
+        <v>0.00577798473680247</v>
       </c>
     </row>
     <row r="132">
@@ -4228,26 +4229,26 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>specific_factorWell-being:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
+          <t>specific_factorNegative personality:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
         </is>
       </c>
       <c r="C132">
-        <v>-0.1935324690967025</v>
+        <v>0.2666470737962653</v>
       </c>
       <c r="D132">
-        <v>0.04906579086864349</v>
+        <v>0.02036737771138915</v>
       </c>
       <c r="E132">
-        <v>4.352498883584</v>
+        <v>1.979955355077006</v>
       </c>
       <c r="F132">
-        <v>-0.3167137667766362</v>
+        <v>0.1826872435539189</v>
       </c>
       <c r="G132">
-        <v>-0.06393145439943038</v>
+        <v>0.3467459372157027</v>
       </c>
       <c r="H132">
-        <v>0.01370780468321564</v>
+        <v>0.00573016188522708</v>
       </c>
     </row>
     <row r="133">
@@ -4258,26 +4259,26 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>specific_factorAutonomous motivation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52</t>
+          <t>specific_factorOthers' abilities:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
         </is>
       </c>
       <c r="C133">
-        <v>0.006326649578343671</v>
+        <v>-0.4283423517913136</v>
       </c>
       <c r="D133">
-        <v>0.08734520941668933</v>
+        <v>0.05058346393434413</v>
       </c>
       <c r="E133">
-        <v>1.008216132035289</v>
+        <v>1.254051252639025</v>
       </c>
       <c r="F133">
-        <v>-0.7940702490920154</v>
+        <v>-0.6970928608167325</v>
       </c>
       <c r="G133">
-        <v>0.7986983546936396</v>
+        <v>-0.05405397464534422</v>
       </c>
       <c r="H133">
-        <v>0.953894750857376</v>
+        <v>0.04278502645421164</v>
       </c>
     </row>
     <row r="134">
@@ -4288,26 +4289,26 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>specific_factorControlled motivation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52</t>
+          <t>specific_factorothers' autonomous motivation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
         </is>
       </c>
       <c r="C134">
-        <v>0.1330998777915734</v>
+        <v>-0.1887971744860973</v>
       </c>
       <c r="D134">
-        <v>0.1791823792592373</v>
+        <v>0.08304419386953117</v>
       </c>
       <c r="E134">
-        <v>1.008216132035289</v>
+        <v>1.01487723632139</v>
       </c>
       <c r="F134">
-        <v>-0.9704201614818271</v>
+        <v>-0.8368013649594138</v>
       </c>
       <c r="G134">
-        <v>0.9825791542804262</v>
+        <v>0.6795229772397519</v>
       </c>
       <c r="H134">
-        <v>0.590628739119277</v>
+        <v>0.2580612586774031</v>
       </c>
     </row>
     <row r="135">
@@ -4318,26 +4319,26 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>specific_factorExternal pressure in terms of constraints:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52</t>
+          <t>specific_factorOthers' autonomous motivation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
         </is>
       </c>
       <c r="C135">
-        <v>0.1007629415343897</v>
+        <v>0.08411832286062891</v>
       </c>
       <c r="D135">
-        <v>0.00785533103154199</v>
+        <v>0.09579208510145854</v>
       </c>
       <c r="E135">
-        <v>1.000381475793394</v>
+        <v>1.915177888441457</v>
       </c>
       <c r="F135">
-        <v>0.001384507573866972</v>
+        <v>-0.3326804869209408</v>
       </c>
       <c r="G135">
-        <v>0.1981705513603342</v>
+        <v>0.473424146328506</v>
       </c>
       <c r="H135">
-        <v>0.04931782148120234</v>
+        <v>0.4751005837524769</v>
       </c>
     </row>
     <row r="136">
@@ -4348,26 +4349,26 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>specific_factorMastery goals:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52</t>
+          <t>specific_factorOthers' controlled motivation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
         </is>
       </c>
       <c r="C136">
-        <v>-0.2199999999999999</v>
+        <v>0.0781983513348893</v>
       </c>
       <c r="D136">
-        <v>2.353708694245588e-17</v>
+        <v>0.03722904852230471</v>
       </c>
       <c r="E136">
-        <v>1</v>
+        <v>1.078880491790924</v>
       </c>
       <c r="F136">
-        <v>-0.2200000000000002</v>
+        <v>-0.3097723377439153</v>
       </c>
       <c r="G136">
-        <v>-0.2199999999999996</v>
+        <v>0.443846009482497</v>
       </c>
       <c r="H136">
-        <v>6.699649295087909e-17</v>
+        <v>0.2677527301119014</v>
       </c>
     </row>
     <row r="137">
@@ -4378,26 +4379,26 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>specific_factorNeed frustration:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52</t>
+          <t>specific_factorothers' negative behaviours:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
         </is>
       </c>
       <c r="C137">
-        <v>0.2144522548701256</v>
+        <v>0.2789233234899697</v>
       </c>
       <c r="D137">
-        <v>0.008735746878182883</v>
+        <v>0.02450663699490321</v>
       </c>
       <c r="E137">
-        <v>1.021027885549996</v>
+        <v>1.004519340229409</v>
       </c>
       <c r="F137">
-        <v>0.1116272010540675</v>
+        <v>-0.0215777007788803</v>
       </c>
       <c r="G137">
-        <v>0.3127339286004686</v>
+        <v>0.5332026511898377</v>
       </c>
       <c r="H137">
-        <v>0.02394793728706193</v>
+        <v>0.05376599214544371</v>
       </c>
     </row>
     <row r="138">
@@ -4408,26 +4409,26 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>specific_factorNeed satisfaction:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52</t>
+          <t>specific_factorOthers' negative behaviours:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
         </is>
       </c>
       <c r="C138">
-        <v>-0.08794285161860541</v>
+        <v>0.5670116916548033</v>
       </c>
       <c r="D138">
-        <v>0.1166706405591916</v>
+        <v>0.05058346311794061</v>
       </c>
       <c r="E138">
-        <v>1.021027885549994</v>
+        <v>1.254051252639025</v>
       </c>
       <c r="F138">
-        <v>-0.9052161233290827</v>
+        <v>0.2348811623534865</v>
       </c>
       <c r="G138">
-        <v>0.8677837387692977</v>
+        <v>0.7805847603181119</v>
       </c>
       <c r="H138">
-        <v>0.5858884105208204</v>
+        <v>0.02803305933365595</v>
       </c>
     </row>
     <row r="139">
@@ -4438,26 +4439,26 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>specific_factorOthers' autonomous motivation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52</t>
+          <t>specific_factorothers' negative emotions:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
         </is>
       </c>
       <c r="C139">
-        <v>-0.4603129657409699</v>
+        <v>0.2791225147636324</v>
       </c>
       <c r="D139">
-        <v>0.007855331031541578</v>
+        <v>0.04811096990906806</v>
       </c>
       <c r="E139">
-        <v>1.000381475793393</v>
+        <v>1.185113905840662</v>
       </c>
       <c r="F139">
-        <v>-0.5352181959063542</v>
+        <v>-0.138404904078118</v>
       </c>
       <c r="G139">
-        <v>-0.3782250537315192</v>
+        <v>0.6124042320874878</v>
       </c>
       <c r="H139">
-        <v>0.01003178687656533</v>
+        <v>0.07936223019605278</v>
       </c>
     </row>
     <row r="140">
@@ -4468,26 +4469,26 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>specific_factorPerformance goals:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52</t>
+          <t>specific_factorOthers' negative emotions:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
         </is>
       </c>
       <c r="C140">
-        <v>0.005079367127033779</v>
+        <v>0.2422811169822078</v>
       </c>
       <c r="D140">
-        <v>2.803065135371543e-17</v>
+        <v>0.03086421757817405</v>
       </c>
       <c r="E140">
-        <v>1</v>
+        <v>1.195664446077761</v>
       </c>
       <c r="F140">
-        <v>0.005079367127033422</v>
+        <v>-0.02156030548250187</v>
       </c>
       <c r="G140">
-        <v>0.005079367127034135</v>
+        <v>0.4745726444536289</v>
       </c>
       <c r="H140">
-        <v>3.513176537763506e-15</v>
+        <v>0.05519441360564834</v>
       </c>
     </row>
     <row r="141">
@@ -4498,26 +4499,26 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>specific_factorSocial connection/support:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52</t>
+          <t>specific_factorOthers' positive emotions:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
         </is>
       </c>
       <c r="C141">
-        <v>-0.07613420879093193</v>
+        <v>-0.1589459709426318</v>
       </c>
       <c r="D141">
-        <v>0.007855331031541792</v>
+        <v>0.03904309004702473</v>
       </c>
       <c r="E141">
-        <v>1.000381475793394</v>
+        <v>1.114416379560751</v>
       </c>
       <c r="F141">
-        <v>-0.17420824801826</v>
+        <v>-0.5011468995513122</v>
       </c>
       <c r="G141">
-        <v>0.02343543061182425</v>
+        <v>0.226242976939733</v>
       </c>
       <c r="H141">
-        <v>0.06527540134641552</v>
+        <v>0.1321862532068753</v>
       </c>
     </row>
     <row r="142">
@@ -4528,26 +4529,26 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>specific_factorAutonomous causality orientation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53</t>
+          <t>specific_factorPerformance goals:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
         </is>
       </c>
       <c r="C142">
-        <v>-0.2399999999999998</v>
+        <v>0.1695413052378627</v>
       </c>
       <c r="D142">
-        <v>2.729842197196891e-17</v>
+        <v>0.03052931227695603</v>
       </c>
       <c r="E142">
-        <v>1</v>
+        <v>1.040193866951202</v>
       </c>
       <c r="F142">
-        <v>-0.2400000000000001</v>
+        <v>-0.1810121527465708</v>
       </c>
       <c r="G142">
-        <v>-0.2399999999999995</v>
+        <v>0.481870528946404</v>
       </c>
       <c r="H142">
-        <v>7.099899165388721e-17</v>
+        <v>0.1056024736032133</v>
       </c>
     </row>
     <row r="143">
@@ -4558,14 +4559,26 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>specific_factorAutonomous motivation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53</t>
+          <t>specific_factorpersonal responsibility for others:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
         </is>
       </c>
       <c r="C143">
-        <v>0.03</v>
+        <v>-0.1265414880201675</v>
       </c>
       <c r="D143">
-        <v>0</v>
+        <v>0.03908740364666944</v>
+      </c>
+      <c r="E143">
+        <v>1.225731991099114</v>
+      </c>
+      <c r="F143">
+        <v>-0.4237759302703713</v>
+      </c>
+      <c r="G143">
+        <v>0.1952972481961539</v>
+      </c>
+      <c r="H143">
+        <v>0.151818534787841</v>
       </c>
     </row>
     <row r="144">
@@ -4576,26 +4589,26 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>specific_factorControlled causality orientation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53</t>
+          <t>specific_factorPersonal responsibility for others' motivation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
         </is>
       </c>
       <c r="C144">
-        <v>0.6000000000000001</v>
+        <v>-0.01111842435128051</v>
       </c>
       <c r="D144">
-        <v>2.851973801708843e-17</v>
+        <v>0.08078350944215053</v>
       </c>
       <c r="E144">
-        <v>1</v>
+        <v>1.004663967673323</v>
       </c>
       <c r="F144">
-        <v>0.5999999999999999</v>
+        <v>-0.7724517726085842</v>
       </c>
       <c r="G144">
-        <v>0.6000000000000003</v>
+        <v>0.763327649331588</v>
       </c>
       <c r="H144">
-        <v>2.619390171904722e-17</v>
+        <v>0.9128446033174572</v>
       </c>
     </row>
     <row r="145">
@@ -4606,14 +4619,26 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>specific_factorControlled motivation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53</t>
+          <t>specific_factorprior positive related experiences:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
         </is>
       </c>
       <c r="C145">
-        <v>0.25</v>
+        <v>-0.03322700001722679</v>
       </c>
       <c r="D145">
-        <v>0</v>
+        <v>0.03052931193109715</v>
+      </c>
+      <c r="E145">
+        <v>1.040193866951202</v>
+      </c>
+      <c r="F145">
+        <v>-0.369170627773187</v>
+      </c>
+      <c r="G145">
+        <v>0.3103964301123872</v>
+      </c>
+      <c r="H145">
+        <v>0.4674211872469379</v>
       </c>
     </row>
     <row r="146">
@@ -4624,26 +4649,26 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>specific_factorEmotional intelligence:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53</t>
+          <t>specific_factorself-efficacy:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
         </is>
       </c>
       <c r="C146">
-        <v>-0.2299999999999997</v>
+        <v>-0.08315793202942474</v>
       </c>
       <c r="D146">
-        <v>2.951899659945895e-17</v>
+        <v>0.03052931122310056</v>
       </c>
       <c r="E146">
-        <v>1</v>
+        <v>1.040193866951202</v>
       </c>
       <c r="F146">
-        <v>-0.2300000000000001</v>
+        <v>-0.4116312624939231</v>
       </c>
       <c r="G146">
-        <v>-0.2299999999999994</v>
+        <v>0.2644368436853617</v>
       </c>
       <c r="H146">
-        <v>8.024433018149543e-17</v>
+        <v>0.2156717978783849</v>
       </c>
     </row>
     <row r="147">
@@ -4654,26 +4679,26 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>specific_factorExtrinsic goals:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53</t>
+          <t>specific_factorSelf-efficacy:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
         </is>
       </c>
       <c r="C147">
-        <v>0.3053387060399382</v>
+        <v>-0.02356039698885985</v>
       </c>
       <c r="D147">
-        <v>0.1801880171191062</v>
+        <v>0.0246393612021586</v>
       </c>
       <c r="E147">
-        <v>1.005362651564788</v>
+        <v>1.057211024813571</v>
       </c>
       <c r="F147">
-        <v>-0.9599639694143359</v>
+        <v>-0.290678977202057</v>
       </c>
       <c r="G147">
-        <v>0.9884965650797536</v>
+        <v>0.246965135883689</v>
       </c>
       <c r="H147">
-        <v>0.3294463989212493</v>
+        <v>0.5071803103093274</v>
       </c>
     </row>
     <row r="148">
@@ -4684,26 +4709,26 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>specific_factorHarmonious passion:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53</t>
+          <t>specific_factorSocial connection/support:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
         </is>
       </c>
       <c r="C148">
-        <v>-0.009977571226499187</v>
+        <v>-0.1554064856123441</v>
       </c>
       <c r="D148">
-        <v>6.121435603923871e-17</v>
+        <v>0.02451805213369734</v>
       </c>
       <c r="E148">
-        <v>1</v>
+        <v>1.138360345293964</v>
       </c>
       <c r="F148">
-        <v>-0.009977571226499964</v>
+        <v>-0.3726958772109532</v>
       </c>
       <c r="G148">
-        <v>-0.00997757122649841</v>
+        <v>0.07803916881894901</v>
       </c>
       <c r="H148">
-        <v>3.90565752926122e-15</v>
+        <v>0.07880797508497321</v>
       </c>
     </row>
     <row r="149">
@@ -4714,14 +4739,26 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>specific_factorIll-being:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53</t>
+          <t>specific_factorstyle-related beliefs:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
         </is>
       </c>
       <c r="C149">
-        <v>0.29</v>
+        <v>0.2970149237362895</v>
       </c>
       <c r="D149">
-        <v>0</v>
+        <v>0.009349905962239273</v>
+      </c>
+      <c r="E149">
+        <v>1.30952060061312</v>
+      </c>
+      <c r="F149">
+        <v>0.2326300216937921</v>
+      </c>
+      <c r="G149">
+        <v>0.3588077981562226</v>
+      </c>
+      <c r="H149">
+        <v>0.007213165549600931</v>
       </c>
     </row>
     <row r="150">
@@ -4732,26 +4769,26 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>specific_factorIntrinsic goals:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53</t>
+          <t>specific_factorwell-being:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
         </is>
       </c>
       <c r="C150">
-        <v>0.02364918109637521</v>
+        <v>-0.1229616533269843</v>
       </c>
       <c r="D150">
-        <v>0.1154695853795092</v>
+        <v>0.03052931130140303</v>
       </c>
       <c r="E150">
-        <v>1.005362651564788</v>
+        <v>1.040193866951203</v>
       </c>
       <c r="F150">
-        <v>-0.8906707594328644</v>
+        <v>-0.4444882567647124</v>
       </c>
       <c r="G150">
-        <v>0.9000473417212361</v>
+        <v>0.2266319906351964</v>
       </c>
       <c r="H150">
-        <v>0.8712326024440331</v>
+        <v>0.1467088765164944</v>
       </c>
     </row>
     <row r="151">
@@ -4762,26 +4799,26 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>specific_factorMastery goals:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53</t>
+          <t>specific_factorWell-being:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
         </is>
       </c>
       <c r="C151">
-        <v>-0.2199999999999998</v>
+        <v>-0.2141651394185645</v>
       </c>
       <c r="D151">
-        <v>2.685430704647091e-17</v>
+        <v>0.05621688266414108</v>
       </c>
       <c r="E151">
-        <v>1</v>
+        <v>3.262142507743108</v>
       </c>
       <c r="F151">
-        <v>-0.2200000000000001</v>
+        <v>-0.3701313698441737</v>
       </c>
       <c r="G151">
-        <v>-0.2199999999999994</v>
+        <v>-0.04645654261690657</v>
       </c>
       <c r="H151">
-        <v>7.64387027646297e-17</v>
+        <v>0.02625696089099132</v>
       </c>
     </row>
     <row r="152">
@@ -4792,14 +4829,26 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>specific_factorNeed frustration:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53</t>
+          <t>specific_factorautonomous motivation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52</t>
         </is>
       </c>
       <c r="C152">
-        <v>0.4399999999999999</v>
+        <v>0.0967299709127476</v>
       </c>
       <c r="D152">
-        <v>0</v>
+        <v>5.034707698525573e-16</v>
+      </c>
+      <c r="E152">
+        <v>1</v>
+      </c>
+      <c r="F152">
+        <v>0.09672997091274126</v>
+      </c>
+      <c r="G152">
+        <v>0.09672997091275393</v>
+      </c>
+      <c r="H152">
+        <v>3.303187942212404e-15</v>
       </c>
     </row>
     <row r="153">
@@ -4810,14 +4859,26 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>specific_factorNeed satisfaction:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53</t>
+          <t>specific_factorAutonomous motivation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52</t>
         </is>
       </c>
       <c r="C153">
-        <v>-0.19</v>
+        <v>-0.07718762946396866</v>
       </c>
       <c r="D153">
-        <v>0</v>
+        <v>2.263504220105905e-16</v>
+      </c>
+      <c r="E153">
+        <v>1</v>
+      </c>
+      <c r="F153">
+        <v>-0.07718762946397152</v>
+      </c>
+      <c r="G153">
+        <v>-0.0771876294639658</v>
+      </c>
+      <c r="H153">
+        <v>1.863155034967649e-15</v>
       </c>
     </row>
     <row r="154">
@@ -4828,26 +4889,26 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>specific_factorNegative personality:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53</t>
+          <t>specific_factorcontrolled motivation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52</t>
         </is>
       </c>
       <c r="C154">
-        <v>0.3600413657543439</v>
+        <v>-0.04163287832324515</v>
       </c>
       <c r="D154">
-        <v>2.639066427283569e-17</v>
+        <v>4.033394688722557e-16</v>
       </c>
       <c r="E154">
         <v>1</v>
       </c>
       <c r="F154">
-        <v>0.3600413657543436</v>
+        <v>-0.04163287832325026</v>
       </c>
       <c r="G154">
-        <v>0.3600413657543441</v>
+        <v>-0.04163287832324003</v>
       </c>
       <c r="H154">
-        <v>4.457237665533872e-17</v>
+        <v>6.164009491233216e-15</v>
       </c>
     </row>
     <row r="155">
@@ -4858,26 +4919,26 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>specific_factorObsessive passion:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53</t>
+          <t>specific_factorControlled motivation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52</t>
         </is>
       </c>
       <c r="C155">
-        <v>0.1829080872724923</v>
+        <v>0.3063243005924294</v>
       </c>
       <c r="D155">
-        <v>2.185552920194666e-17</v>
+        <v>2.091915487920302e-16</v>
       </c>
       <c r="E155">
         <v>1</v>
       </c>
       <c r="F155">
-        <v>0.182908087272492</v>
+        <v>0.3063243005924269</v>
       </c>
       <c r="G155">
-        <v>0.1829080872724926</v>
+        <v>0.3063243005924318</v>
       </c>
       <c r="H155">
-        <v>7.521313537455893e-17</v>
+        <v>4.207968449952589e-16</v>
       </c>
     </row>
     <row r="156">
@@ -4888,14 +4949,26 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>specific_factorOthers' abilities:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53</t>
+          <t>specific_factorExternal pressure in terms of constraints:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52</t>
         </is>
       </c>
       <c r="C156">
-        <v>-0.1299999999999999</v>
+        <v>0.09178122613081217</v>
       </c>
       <c r="D156">
-        <v>0</v>
+        <v>1.579095079206077e-16</v>
+      </c>
+      <c r="E156">
+        <v>1</v>
+      </c>
+      <c r="F156">
+        <v>0.09178122613081018</v>
+      </c>
+      <c r="G156">
+        <v>0.09178122613081417</v>
+      </c>
+      <c r="H156">
+        <v>1.092221206029398e-15</v>
       </c>
     </row>
     <row r="157">
@@ -4906,26 +4979,26 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>specific_factorOthers' autonomous motivation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53</t>
+          <t>specific_factorMastery goals:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52</t>
         </is>
       </c>
       <c r="C157">
-        <v>-0.1099999999999998</v>
+        <v>-0.2199999999999999</v>
       </c>
       <c r="D157">
-        <v>3.145862857279663e-17</v>
+        <v>1.13676243243461e-16</v>
       </c>
       <c r="E157">
         <v>1</v>
       </c>
       <c r="F157">
-        <v>-0.1100000000000002</v>
+        <v>-0.2200000000000013</v>
       </c>
       <c r="G157">
-        <v>-0.1099999999999994</v>
+        <v>-0.2199999999999986</v>
       </c>
       <c r="H157">
-        <v>1.813286031370174e-16</v>
+        <v>3.235706121051657e-16</v>
       </c>
     </row>
     <row r="158">
@@ -4936,26 +5009,26 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>specific_factorSocial connection/support:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53</t>
+          <t>specific_factorneed frustration:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52</t>
         </is>
       </c>
       <c r="C158">
-        <v>-0.1985016675008217</v>
+        <v>0.2198502287352322</v>
       </c>
       <c r="D158">
-        <v>3.97171500245911e-17</v>
+        <v>2.529879017074232e-16</v>
       </c>
       <c r="E158">
         <v>1</v>
       </c>
       <c r="F158">
-        <v>-0.1985016675008222</v>
+        <v>0.2198502287352291</v>
       </c>
       <c r="G158">
-        <v>-0.1985016675008212</v>
+        <v>0.2198502287352353</v>
       </c>
       <c r="H158">
-        <v>1.256869157540643e-16</v>
+        <v>7.206175336191258e-16</v>
       </c>
     </row>
     <row r="159">
@@ -4966,26 +5039,26 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>specific_factorStyle-related beliefs:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53</t>
+          <t>specific_factorNeed frustration:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52</t>
         </is>
       </c>
       <c r="C159">
-        <v>0.4913306803840953</v>
+        <v>0.2355761239978073</v>
       </c>
       <c r="D159">
-        <v>4.303961822170436e-17</v>
+        <v>1.650789978474762e-16</v>
       </c>
       <c r="E159">
         <v>1</v>
       </c>
       <c r="F159">
-        <v>0.4913306803840949</v>
+        <v>0.2355761239978053</v>
       </c>
       <c r="G159">
-        <v>0.4913306803840957</v>
+        <v>0.2355761239978093</v>
       </c>
       <c r="H159">
-        <v>5.094684135605386e-17</v>
+        <v>4.377304384432113e-16</v>
       </c>
     </row>
     <row r="160">
@@ -4996,26 +5069,26 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>specific_factorEmotional intelligence:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_54</t>
+          <t>specific_factorneed satisfaction:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52</t>
         </is>
       </c>
       <c r="C160">
-        <v>-0.43565846903581</v>
+        <v>-0.01338089151222115</v>
       </c>
       <c r="D160">
-        <v>1.044672337516393e-16</v>
+        <v>2.051201345871792e-16</v>
       </c>
       <c r="E160">
         <v>1</v>
       </c>
       <c r="F160">
-        <v>-0.435658469035811</v>
+        <v>-0.01338089151222376</v>
       </c>
       <c r="G160">
-        <v>-0.4356584690358089</v>
+        <v>-0.01338089151221855</v>
       </c>
       <c r="H160">
-        <v>1.424537522895365e-16</v>
+        <v>9.758373671349121e-15</v>
       </c>
     </row>
     <row r="161">
@@ -5026,26 +5099,26 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>specific_factorIll-being:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_54</t>
+          <t>specific_factorNeed satisfaction:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52</t>
         </is>
       </c>
       <c r="C161">
-        <v>0.1004974365488905</v>
+        <v>-0.2666840279508531</v>
       </c>
       <c r="D161">
-        <v>4.71293190639283e-17</v>
+        <v>2.13002805695237e-16</v>
       </c>
       <c r="E161">
         <v>1</v>
       </c>
       <c r="F161">
-        <v>0.1004974365488899</v>
+        <v>-0.2666840279508557</v>
       </c>
       <c r="G161">
-        <v>0.1004974365488911</v>
+        <v>-0.2666840279508506</v>
       </c>
       <c r="H161">
-        <v>2.9754165802697e-16</v>
+        <v>4.961818139107944e-16</v>
       </c>
     </row>
     <row r="162">
@@ -5056,26 +5129,26 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>specific_factorOthers' negative emotions:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_54</t>
+          <t>specific_factorothers' autonomous motivation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52</t>
         </is>
       </c>
       <c r="C162">
-        <v>0.1205190771120882</v>
+        <v>-0.4674279474046618</v>
       </c>
       <c r="D162">
-        <v>7.973464605624746e-17</v>
+        <v>1.167191128897298e-16</v>
       </c>
       <c r="E162">
         <v>1</v>
       </c>
       <c r="F162">
-        <v>0.1205190771120872</v>
+        <v>-0.467427947404663</v>
       </c>
       <c r="G162">
-        <v>0.1205190771120892</v>
+        <v>-0.4674279474046607</v>
       </c>
       <c r="H162">
-        <v>4.191363775910909e-16</v>
+        <v>1.466248791755435e-16</v>
       </c>
     </row>
     <row r="163">
@@ -5086,26 +5159,26 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>specific_factorOthers' positive behaviours:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_54</t>
+          <t>specific_factorPerformance goals:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52</t>
         </is>
       </c>
       <c r="C163">
-        <v>-0.07509250933076402</v>
+        <v>0.0050793671270337</v>
       </c>
       <c r="D163">
-        <v>3.358522954993575e-17</v>
+        <v>1.420519459829287e-16</v>
       </c>
       <c r="E163">
         <v>1</v>
       </c>
       <c r="F163">
-        <v>-0.07509250933076445</v>
+        <v>0.005079367127031895</v>
       </c>
       <c r="G163">
-        <v>-0.07509250933076358</v>
+        <v>0.005079367127035505</v>
       </c>
       <c r="H163">
-        <v>2.841930892674474e-16</v>
+        <v>1.780385184323349e-14</v>
       </c>
     </row>
     <row r="164">
@@ -5116,14 +5189,26 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>specific_factorExternal pressure in terms of constraints:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_55</t>
+          <t>specific_factorSocial connection/support:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52</t>
         </is>
       </c>
       <c r="C164">
-        <v>-0.111</v>
+        <v>-0.08514099955300633</v>
       </c>
       <c r="D164">
-        <v>0</v>
+        <v>2.306627886014159e-16</v>
+      </c>
+      <c r="E164">
+        <v>1</v>
+      </c>
+      <c r="F164">
+        <v>-0.08514099955300924</v>
+      </c>
+      <c r="G164">
+        <v>-0.08514099955300343</v>
+      </c>
+      <c r="H164">
+        <v>1.720545676992233e-15</v>
       </c>
     </row>
     <row r="165">
@@ -5134,14 +5219,26 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>specific_factorMastery goals:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_55</t>
+          <t>specific_factorAutonomous causality orientation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53</t>
         </is>
       </c>
       <c r="C165">
-        <v>-0.18</v>
+        <v>-0.2400000000000002</v>
       </c>
       <c r="D165">
-        <v>0</v>
+        <v>3.046935068981077e-17</v>
+      </c>
+      <c r="E165">
+        <v>1</v>
+      </c>
+      <c r="F165">
+        <v>-0.2400000000000006</v>
+      </c>
+      <c r="G165">
+        <v>-0.2399999999999999</v>
+      </c>
+      <c r="H165">
+        <v>7.924608893314742e-17</v>
       </c>
     </row>
     <row r="166">
@@ -5152,11 +5249,11 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>specific_factorPerformance goals:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_55</t>
+          <t>specific_factorAutonomous motivation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53</t>
         </is>
       </c>
       <c r="C166">
-        <v>0.25</v>
+        <v>0.03000000000000001</v>
       </c>
       <c r="D166">
         <v>0</v>
@@ -5170,14 +5267,26 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>specific_factorPersonal responsibility for others' motivation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_55</t>
+          <t>specific_factorControlled causality orientation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53</t>
         </is>
       </c>
       <c r="C167">
-        <v>-0.37</v>
+        <v>0.5999999999999999</v>
       </c>
       <c r="D167">
-        <v>0</v>
+        <v>2.554007977911303e-17</v>
+      </c>
+      <c r="E167">
+        <v>1</v>
+      </c>
+      <c r="F167">
+        <v>0.5999999999999996</v>
+      </c>
+      <c r="G167">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="H167">
+        <v>2.345724000795045e-17</v>
       </c>
     </row>
     <row r="168">
@@ -5188,13 +5297,595 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
+          <t>specific_factorControlled motivation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53</t>
+        </is>
+      </c>
+      <c r="C168">
+        <v>0.25</v>
+      </c>
+      <c r="D168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>specific_factorEmotional intelligence:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53</t>
+        </is>
+      </c>
+      <c r="C169">
+        <v>-0.2300000000000003</v>
+      </c>
+      <c r="D169">
+        <v>2.749124951459755e-17</v>
+      </c>
+      <c r="E169">
+        <v>1</v>
+      </c>
+      <c r="F169">
+        <v>-0.2300000000000006</v>
+      </c>
+      <c r="G169">
+        <v>-0.23</v>
+      </c>
+      <c r="H169">
+        <v>7.473211007421813e-17</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>specific_factorExtrinsic goals:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53</t>
+        </is>
+      </c>
+      <c r="C170">
+        <v>0.3063449074092969</v>
+      </c>
+      <c r="D170">
+        <v>0.1806434538339446</v>
+      </c>
+      <c r="E170">
+        <v>1.005549630896927</v>
+      </c>
+      <c r="F170">
+        <v>-0.9602466813368661</v>
+      </c>
+      <c r="G170">
+        <v>0.9886292807296312</v>
+      </c>
+      <c r="H170">
+        <v>0.3291404268703241</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>specific_factorHarmonious passion:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53</t>
+        </is>
+      </c>
+      <c r="C171">
+        <v>-0.009977571226499301</v>
+      </c>
+      <c r="D171">
+        <v>2.937370197521897e-16</v>
+      </c>
+      <c r="E171">
+        <v>1</v>
+      </c>
+      <c r="F171">
+        <v>-0.009977571226503034</v>
+      </c>
+      <c r="G171">
+        <v>-0.009977571226495568</v>
+      </c>
+      <c r="H171">
+        <v>1.874129333456508e-14</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>specific_factorIll-being:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53</t>
+        </is>
+      </c>
+      <c r="C172">
+        <v>0.29</v>
+      </c>
+      <c r="D172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>specific_factorIntrinsic goals:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53</t>
+        </is>
+      </c>
+      <c r="C173">
+        <v>0.02475856386302012</v>
+      </c>
+      <c r="D173">
+        <v>0.1159561851843863</v>
+      </c>
+      <c r="E173">
+        <v>1.005549630896927</v>
+      </c>
+      <c r="F173">
+        <v>-0.8915686143396099</v>
+      </c>
+      <c r="G173">
+        <v>0.9012897194738586</v>
+      </c>
+      <c r="H173">
+        <v>0.8659071542887284</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>specific_factorMastery goals:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53</t>
+        </is>
+      </c>
+      <c r="C174">
+        <v>-0.2200000000000003</v>
+      </c>
+      <c r="D174">
+        <v>2.420506890746573e-17</v>
+      </c>
+      <c r="E174">
+        <v>1</v>
+      </c>
+      <c r="F174">
+        <v>-0.2200000000000006</v>
+      </c>
+      <c r="G174">
+        <v>-0.22</v>
+      </c>
+      <c r="H174">
+        <v>6.889785181994839e-17</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>specific_factorNeed frustration:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53</t>
+        </is>
+      </c>
+      <c r="C175">
+        <v>0.4399999999999999</v>
+      </c>
+      <c r="D175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>specific_factorNeed satisfaction:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53</t>
+        </is>
+      </c>
+      <c r="C176">
+        <v>-0.19</v>
+      </c>
+      <c r="D176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>specific_factornegative personality:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53</t>
+        </is>
+      </c>
+      <c r="C177">
+        <v>0.3600413657543434</v>
+      </c>
+      <c r="D177">
+        <v>2.978926004510616e-17</v>
+      </c>
+      <c r="E177">
+        <v>1</v>
+      </c>
+      <c r="F177">
+        <v>0.360041365754343</v>
+      </c>
+      <c r="G177">
+        <v>0.3600413657543437</v>
+      </c>
+      <c r="H177">
+        <v>5.031241750064657e-17</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>specific_factorObsessive passion:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53</t>
+        </is>
+      </c>
+      <c r="C178">
+        <v>0.1829080872724922</v>
+      </c>
+      <c r="D178">
+        <v>2.652776701530568e-16</v>
+      </c>
+      <c r="E178">
+        <v>1</v>
+      </c>
+      <c r="F178">
+        <v>0.1829080872724889</v>
+      </c>
+      <c r="G178">
+        <v>0.1829080872724954</v>
+      </c>
+      <c r="H178">
+        <v>9.129207136879726e-16</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>specific_factorOthers' abilities:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53</t>
+        </is>
+      </c>
+      <c r="C179">
+        <v>-0.13</v>
+      </c>
+      <c r="D179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>specific_factorOthers' autonomous motivation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53</t>
+        </is>
+      </c>
+      <c r="C180">
+        <v>-0.1100000000000004</v>
+      </c>
+      <c r="D180">
+        <v>2.411156069879428e-17</v>
+      </c>
+      <c r="E180">
+        <v>1</v>
+      </c>
+      <c r="F180">
+        <v>-0.1100000000000007</v>
+      </c>
+      <c r="G180">
+        <v>-0.1100000000000001</v>
+      </c>
+      <c r="H180">
+        <v>1.389798544729465e-16</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>specific_factorSocial connection/support:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53</t>
+        </is>
+      </c>
+      <c r="C181">
+        <v>-0.1985016675008217</v>
+      </c>
+      <c r="D181">
+        <v>2.708246610184739e-16</v>
+      </c>
+      <c r="E181">
+        <v>1</v>
+      </c>
+      <c r="F181">
+        <v>-0.198501667500825</v>
+      </c>
+      <c r="G181">
+        <v>-0.1985016675008184</v>
+      </c>
+      <c r="H181">
+        <v>8.570382399662723e-16</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>specific_factorStyle-related beliefs:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53</t>
+        </is>
+      </c>
+      <c r="C182">
+        <v>0.4913306803840954</v>
+      </c>
+      <c r="D182">
+        <v>1.046049032155729e-16</v>
+      </c>
+      <c r="E182">
+        <v>1</v>
+      </c>
+      <c r="F182">
+        <v>0.4913306803840944</v>
+      </c>
+      <c r="G182">
+        <v>0.4913306803840964</v>
+      </c>
+      <c r="H182">
+        <v>1.238228783010362e-16</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>specific_factoremotional intelligence:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_54</t>
+        </is>
+      </c>
+      <c r="C183">
+        <v>-0.43565846903581</v>
+      </c>
+      <c r="D183">
+        <v>1.46576011272426e-16</v>
+      </c>
+      <c r="E183">
+        <v>1</v>
+      </c>
+      <c r="F183">
+        <v>-0.4356584690358115</v>
+      </c>
+      <c r="G183">
+        <v>-0.4356584690358084</v>
+      </c>
+      <c r="H183">
+        <v>1.998741811334965e-16</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>specific_factorIll-being:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_54</t>
+        </is>
+      </c>
+      <c r="C184">
+        <v>0.1004974365488905</v>
+      </c>
+      <c r="D184">
+        <v>1.531256920423524e-16</v>
+      </c>
+      <c r="E184">
+        <v>1</v>
+      </c>
+      <c r="F184">
+        <v>0.1004974365488886</v>
+      </c>
+      <c r="G184">
+        <v>0.1004974365488925</v>
+      </c>
+      <c r="H184">
+        <v>9.667288473870663e-16</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>specific_factorOthers positive behaviour:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_54</t>
+        </is>
+      </c>
+      <c r="C185">
+        <v>-0.07509250933076403</v>
+      </c>
+      <c r="D185">
+        <v>4.285782481279643e-17</v>
+      </c>
+      <c r="E185">
+        <v>1</v>
+      </c>
+      <c r="F185">
+        <v>-0.07509250933076457</v>
+      </c>
+      <c r="G185">
+        <v>-0.07509250933076349</v>
+      </c>
+      <c r="H185">
+        <v>3.62656375914363e-16</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>specific_factorothers' negative emotions:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_54</t>
+        </is>
+      </c>
+      <c r="C186">
+        <v>0.1205190771120882</v>
+      </c>
+      <c r="D186">
+        <v>1.356455516355732e-16</v>
+      </c>
+      <c r="E186">
+        <v>1</v>
+      </c>
+      <c r="F186">
+        <v>0.1205190771120865</v>
+      </c>
+      <c r="G186">
+        <v>0.1205190771120899</v>
+      </c>
+      <c r="H186">
+        <v>7.130399137756592e-16</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>specific_factorExternal pressure in terms of constraints:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_55</t>
+        </is>
+      </c>
+      <c r="C187">
+        <v>-0.111</v>
+      </c>
+      <c r="D187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>specific_factorMastery goals:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_55</t>
+        </is>
+      </c>
+      <c r="C188">
+        <v>-0.18</v>
+      </c>
+      <c r="D188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>specific_factorPerformance goals:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_55</t>
+        </is>
+      </c>
+      <c r="C189">
+        <v>0.25</v>
+      </c>
+      <c r="D189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>specific_factorPersonal responsibility for others' motivation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_55</t>
+        </is>
+      </c>
+      <c r="C190">
+        <v>-0.3700000000000001</v>
+      </c>
+      <c r="D190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
           <t>specific_factorSelf-efficacy:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_55</t>
         </is>
       </c>
-      <c r="C168">
+      <c r="C191">
         <v>-0.16</v>
       </c>
-      <c r="D168">
+      <c r="D191">
         <v>0</v>
       </c>
     </row>
@@ -5205,7 +5896,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G124"/>
+  <dimension ref="A1:G107"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5256,23 +5947,23 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>specific_factorAutonomous motivation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52 - specific_factorAutonomous motivation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
+          <t>specific_factorautonomous motivation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52 - specific_factorautonomous motivation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
         </is>
       </c>
       <c r="C2">
-        <v>1.763249981193449</v>
+        <v>3.300191788724668</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2">
-        <v>7.956359312438743</v>
+        <v>1.395428733416991</v>
       </c>
       <c r="F2">
-        <v>0.1160779040309802</v>
+        <v>0.1282006282500391</v>
       </c>
       <c r="G2">
-        <v>0.3587862488230296</v>
+        <v>0.4958132522829204</v>
       </c>
     </row>
     <row r="3">
@@ -5283,23 +5974,23 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>specific_factorAutonomous motivation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53 - specific_factorAutonomous motivation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
+          <t>specific_factorAutonomous motivation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52 - specific_factorAutonomous motivation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
         </is>
       </c>
       <c r="C3">
-        <v>0.4098003253840422</v>
+        <v>2.456010874161124</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3">
-        <v>1.168303198296686</v>
+        <v>3.870514015273183</v>
       </c>
       <c r="F3">
-        <v>0.7443804019272684</v>
+        <v>0.07210299799444274</v>
       </c>
       <c r="G3">
-        <v>0.8385154041608542</v>
+        <v>0.3998438979691825</v>
       </c>
     </row>
     <row r="4">
@@ -5310,23 +6001,23 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>specific_factorAutonomous motivation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53 - specific_factorAutonomous motivation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52</t>
+          <t>specific_factorAutonomous motivation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53 - specific_factorAutonomous motivation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
         </is>
       </c>
       <c r="C4">
-        <v>0.8451334163670625</v>
+        <v>0.286922884778632</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>1.498663087079053</v>
+        <v>1.177446071100513</v>
       </c>
       <c r="F4">
-        <v>0.5114338819197092</v>
+        <v>0.8163812004636248</v>
       </c>
       <c r="G4">
-        <v>0.7641442125113437</v>
+        <v>0.8809775637938041</v>
       </c>
     </row>
     <row r="5">
@@ -5337,23 +6028,23 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>specific_factorControlled motivation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52 - specific_factorControlled motivation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
+          <t>specific_factorAutonomous motivation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53 - specific_factorAutonomous motivation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52</t>
         </is>
       </c>
       <c r="C5">
-        <v>1.019305691937853</v>
+        <v>1.490904229877117</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5">
-        <v>5.66110376082938</v>
+        <v>1.682027431494563</v>
       </c>
       <c r="F5">
-        <v>0.3496247336857669</v>
+        <v>0.2962337127123071</v>
       </c>
       <c r="G5">
-        <v>0.5964763182508338</v>
+        <v>0.5698059285461624</v>
       </c>
     </row>
     <row r="6">
@@ -5364,23 +6055,23 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>specific_factorControlled motivation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53 - specific_factorControlled motivation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
+          <t>specific_factorControlled motivation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52 - specific_factorControlled motivation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
         </is>
       </c>
       <c r="C6">
-        <v>0.8440879808786794</v>
+        <v>1.126558758948032</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6">
-        <v>1.22185326168022</v>
+        <v>1.981299783868465</v>
       </c>
       <c r="F6">
-        <v>0.5318916861840417</v>
+        <v>0.3778668441808458</v>
       </c>
       <c r="G6">
-        <v>0.7641442125113437</v>
+        <v>0.5807004131227784</v>
       </c>
     </row>
     <row r="7">
@@ -5391,23 +6082,23 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>specific_factorControlled motivation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53 - specific_factorControlled motivation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52</t>
+          <t>specific_factorControlled motivation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53 - specific_factorControlled motivation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
         </is>
       </c>
       <c r="C7">
-        <v>1.33536448671755</v>
+        <v>0.8916117664266643</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7">
-        <v>1.742090434524114</v>
+        <v>1.224090432212279</v>
       </c>
       <c r="F7">
-        <v>0.3296312470696466</v>
+        <v>0.5132916376571995</v>
       </c>
       <c r="G7">
-        <v>0.5964763182508338</v>
+        <v>0.7281579045834692</v>
       </c>
     </row>
     <row r="8">
@@ -5418,23 +6109,23 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>specific_factorEmotional intelligence:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52 - specific_factorEmotional intelligence:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
+          <t>specific_factorControlled motivation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53 - specific_factorControlled motivation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52</t>
         </is>
       </c>
       <c r="C8">
-        <v>0.2975938320787972</v>
+        <v>1.451914051493067</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8">
-        <v>1.83914888801657</v>
+        <v>2.061490338620486</v>
       </c>
       <c r="F8">
-        <v>0.7962258689149334</v>
+        <v>0.28014350220727</v>
       </c>
       <c r="G8">
-        <v>0.8594183981938963</v>
+        <v>0.5698059285461624</v>
       </c>
     </row>
     <row r="9">
@@ -5445,23 +6136,23 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>specific_factorEmotional intelligence:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53 - specific_factorEmotional intelligence:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
+          <t>specific_factorEmotional intelligence:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52 - specific_factorEmotional intelligence:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
         </is>
       </c>
       <c r="C9">
-        <v>1.255218337644657</v>
+        <v>0.1463816968647486</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9">
-        <v>2.072125002941397</v>
+        <v>1.833160336424361</v>
       </c>
       <c r="F9">
-        <v>0.3324175987509211</v>
+        <v>0.8981114865541124</v>
       </c>
       <c r="G9">
-        <v>0.5964763182508338</v>
+        <v>0.9130800113300143</v>
       </c>
     </row>
     <row r="10">
@@ -5472,23 +6163,23 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>specific_factorEmotional intelligence:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_54 - specific_factorEmotional intelligence:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
+          <t>specific_factorEmotional intelligence:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53 - specific_factorEmotional intelligence:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
         </is>
       </c>
       <c r="C10">
-        <v>1.440829053420684</v>
+        <v>1.489632970238594</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10">
-        <v>1.083365909237384</v>
+        <v>2.031535725376893</v>
       </c>
       <c r="F10">
-        <v>0.3728280265086718</v>
+        <v>0.2729278152502483</v>
       </c>
       <c r="G10">
-        <v>0.5964763182508338</v>
+        <v>0.5698059285461624</v>
       </c>
     </row>
     <row r="11">
@@ -5503,19 +6194,19 @@
         </is>
       </c>
       <c r="C11">
-        <v>1.504370494731146</v>
+        <v>1.303092169188876</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11">
-        <v>1.621016368739515</v>
+        <v>1.681258774355103</v>
       </c>
       <c r="F11">
-        <v>0.2982220721153959</v>
+        <v>0.3426498806528908</v>
       </c>
       <c r="G11">
-        <v>0.5964763182508338</v>
+        <v>0.5807004131227784</v>
       </c>
     </row>
     <row r="12">
@@ -5526,23 +6217,23 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>specific_factorEmotional intelligence:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_54 - specific_factorEmotional intelligence:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52</t>
+          <t>specific_factorExternal pressure in terms of constraints:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52 - specific_factorExternal pressure in terms of constraints:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
         </is>
       </c>
       <c r="C12">
-        <v>1.849144597742066</v>
+        <v>0.3536183430396183</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12">
-        <v>1.257065407031084</v>
+        <v>3.386526800793406</v>
       </c>
       <c r="F12">
-        <v>0.2744733055748678</v>
+        <v>0.7445143341771561</v>
       </c>
       <c r="G12">
-        <v>0.5964763182508338</v>
+        <v>0.8809775637938041</v>
       </c>
     </row>
     <row r="13">
@@ -5553,23 +6244,23 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>specific_factorEmotional intelligence:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_54 - specific_factorEmotional intelligence:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53</t>
+          <t>specific_factorExternal pressure in terms of constraints:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_55 - specific_factorExternal pressure in terms of constraints:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
         </is>
       </c>
       <c r="C13">
-        <v>0.4889793011040509</v>
+        <v>0.3014801610370339</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13">
-        <v>1.037360494795475</v>
+        <v>2.16727691436768</v>
       </c>
       <c r="F13">
-        <v>0.7081112967038401</v>
+        <v>0.7895429652640831</v>
       </c>
       <c r="G13">
-        <v>0.8385154041608542</v>
+        <v>0.8809775637938041</v>
       </c>
     </row>
     <row r="14">
@@ -5580,23 +6271,23 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>specific_factorExternal pressure in terms of constraints:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52 - specific_factorExternal pressure in terms of constraints:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
+          <t>specific_factorExternal pressure in terms of constraints:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_55 - specific_factorExternal pressure in terms of constraints:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52</t>
         </is>
       </c>
       <c r="C14">
-        <v>0.0470668216916642</v>
+        <v>0.6844568062304938</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14">
-        <v>3.672605563973867</v>
+        <v>1.693396703464469</v>
       </c>
       <c r="F14">
-        <v>0.964906550205609</v>
+        <v>0.5752210874778984</v>
       </c>
       <c r="G14">
-        <v>0.964906550205609</v>
+        <v>0.751227165966093</v>
       </c>
     </row>
     <row r="15">
@@ -5607,23 +6298,23 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>specific_factorExternal pressure in terms of constraints:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_55 - specific_factorExternal pressure in terms of constraints:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
+          <t>specific_factorExternal pressures:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52 - specific_factorExternal pressures:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
         </is>
       </c>
       <c r="C15">
-        <v>0.2541175202157146</v>
+        <v>1.374969904760619</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="E15">
-        <v>2.110685975775895</v>
+        <v>3.74499022067317</v>
       </c>
       <c r="F15">
-        <v>0.8220345770549828</v>
+        <v>0.2456571162120623</v>
       </c>
       <c r="G15">
-        <v>0.8734117381209192</v>
+        <v>0.5698059285461624</v>
       </c>
     </row>
     <row r="16">
@@ -5634,23 +6325,23 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>specific_factorExternal pressure in terms of constraints:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_55 - specific_factorExternal pressure in terms of constraints:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52</t>
+          <t>specific_factorill-being:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52 - specific_factorill-being:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
         </is>
       </c>
       <c r="C16">
-        <v>0.1528345663089095</v>
+        <v>0.06779530992271879</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16">
-        <v>1.824034034944367</v>
+        <v>1.040376352253437</v>
       </c>
       <c r="F16">
-        <v>0.8937383944119524</v>
+        <v>0.9565784826275008</v>
       </c>
       <c r="G16">
-        <v>0.9070777734330263</v>
+        <v>0.9565784826275008</v>
       </c>
     </row>
     <row r="17">
@@ -5661,23 +6352,23 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>specific_factorExternal pressures:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52 - specific_factorExternal pressures:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
+          <t>specific_factorInternal pressures:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52 - specific_factorInternal pressures:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
         </is>
       </c>
       <c r="C17">
-        <v>1.782625982772371</v>
+        <v>7.223610965635807</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17">
-        <v>3.968603052715753</v>
+        <v>1.381605682319868</v>
       </c>
       <c r="F17">
-        <v>0.1497937686781616</v>
+        <v>0.04601938388159831</v>
       </c>
       <c r="G17">
-        <v>0.4428685334832604</v>
+        <v>0.3925187333450228</v>
       </c>
     </row>
     <row r="18">
@@ -5688,23 +6379,23 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>specific_factorInternal pressures:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52 - specific_factorInternal pressures:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
+          <t>specific_factorMastery goals:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52 - specific_factorMastery goals:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
         </is>
       </c>
       <c r="C18">
-        <v>3.152335650508486</v>
+        <v>1.632060039675588</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
       <c r="E18">
-        <v>1.69628268590701</v>
+        <v>1.195846213255448</v>
       </c>
       <c r="F18">
-        <v>0.1076906724292712</v>
+        <v>0.3188379434082676</v>
       </c>
       <c r="G18">
-        <v>0.3487126535804972</v>
+        <v>0.5720327808207154</v>
       </c>
     </row>
     <row r="19">
@@ -5715,23 +6406,23 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>specific_factorMastery goals:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52 - specific_factorMastery goals:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
+          <t>specific_factorMastery goals:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53 - specific_factorMastery goals:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
         </is>
       </c>
       <c r="C19">
-        <v>3.621217153213434</v>
+        <v>1.520404575221275</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
       <c r="E19">
-        <v>5.478809243086328</v>
+        <v>1.472794775468313</v>
       </c>
       <c r="F19">
-        <v>0.01297083816139241</v>
+        <v>0.308255666262678</v>
       </c>
       <c r="G19">
-        <v>0.1260024278535263</v>
+        <v>0.5698059285461624</v>
       </c>
     </row>
     <row r="20">
@@ -5742,23 +6433,23 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>specific_factorMastery goals:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53 - specific_factorMastery goals:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
+          <t>specific_factorMastery goals:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_55 - specific_factorMastery goals:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
         </is>
       </c>
       <c r="C20">
-        <v>1.564105295910129</v>
+        <v>0.5363796309205039</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
       <c r="E20">
-        <v>1.221209475667298</v>
+        <v>1.195846213255448</v>
       </c>
       <c r="F20">
-        <v>0.3281613677002537</v>
+        <v>0.6743049225984982</v>
       </c>
       <c r="G20">
-        <v>0.5964763182508338</v>
+        <v>0.8569291724689247</v>
       </c>
     </row>
     <row r="21">
@@ -5769,23 +6460,23 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>specific_factorMastery goals:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_54 - specific_factorMastery goals:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
+          <t>specific_factorMastery goals:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53 - specific_factorMastery goals:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52</t>
         </is>
       </c>
       <c r="C21">
-        <v>0.5539906472924641</v>
+        <v>3.631750044337277</v>
       </c>
       <c r="D21">
         <v>1</v>
       </c>
       <c r="E21">
-        <v>5.478809243086328</v>
+        <v>1.041791405550621</v>
       </c>
       <c r="F21">
-        <v>0.6014416233913902</v>
+        <v>0.1631225438954552</v>
       </c>
       <c r="G21">
-        <v>0.8019221645218535</v>
+        <v>0.5237092198748826</v>
       </c>
     </row>
     <row r="22">
@@ -5796,23 +6487,13 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>specific_factorMastery goals:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_55 - specific_factorMastery goals:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
-        </is>
-      </c>
-      <c r="C22">
-        <v>0.2899008308134874</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22">
-        <v>5.478809243086328</v>
-      </c>
-      <c r="F22">
-        <v>0.782547318314578</v>
-      </c>
-      <c r="G22">
-        <v>0.8582777039579242</v>
+          <t>specific_factorMastery goals:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_55 - specific_factorMastery goals:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Inf</t>
+        </is>
       </c>
     </row>
     <row r="23">
@@ -5823,23 +6504,23 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>specific_factorMastery goals:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53 - specific_factorMastery goals:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52</t>
+          <t>specific_factorMastery goals:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_55 - specific_factorMastery goals:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53</t>
         </is>
       </c>
       <c r="C23">
-        <v>3.676010714433982</v>
+        <v>1.584543170527703</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
       <c r="E23">
-        <v>1.037360494795476</v>
+        <v>1.041791405550621</v>
       </c>
       <c r="F23">
-        <v>0.1619898068941413</v>
+        <v>0.3511490135631691</v>
       </c>
       <c r="G23">
-        <v>0.4589711195334003</v>
+        <v>0.5807004131227784</v>
       </c>
     </row>
     <row r="24">
@@ -5850,13 +6531,23 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>specific_factorMastery goals:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_54 - specific_factorMastery goals:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Inf</t>
-        </is>
+          <t>specific_factorNeed frustration:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52 - specific_factorNeed frustration:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
+        </is>
+      </c>
+      <c r="C24">
+        <v>0.3513431485447043</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>6.901713017659713</v>
+      </c>
+      <c r="F24">
+        <v>0.7358119475530637</v>
+      </c>
+      <c r="G24">
+        <v>0.8809775637938041</v>
       </c>
     </row>
     <row r="25">
@@ -5867,13 +6558,23 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>specific_factorMastery goals:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_55 - specific_factorMastery goals:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Inf</t>
-        </is>
+          <t>specific_factorNeed frustration:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53 - specific_factorNeed frustration:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
+        </is>
+      </c>
+      <c r="C25">
+        <v>1.124596936381451</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>6.618491661174236</v>
+      </c>
+      <c r="F25">
+        <v>0.2998849320212329</v>
+      </c>
+      <c r="G25">
+        <v>0.5698059285461624</v>
       </c>
     </row>
     <row r="26">
@@ -5884,23 +6585,23 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>specific_factorMastery goals:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_54 - specific_factorMastery goals:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53</t>
+          <t>specific_factorNeed frustration:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53 - specific_factorNeed frustration:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52</t>
         </is>
       </c>
       <c r="C26">
-        <v>1.476044119469554</v>
+        <v>0.6177901229931337</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
       <c r="E26">
-        <v>1.037360494795476</v>
+        <v>3.23021779367977</v>
       </c>
       <c r="F26">
-        <v>0.3727965465808284</v>
+        <v>0.5775540105177854</v>
       </c>
       <c r="G26">
-        <v>0.5964763182508338</v>
+        <v>0.751227165966093</v>
       </c>
     </row>
     <row r="27">
@@ -5911,23 +6612,23 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>specific_factorMastery goals:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_55 - specific_factorMastery goals:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53</t>
+          <t>specific_factorNeed satisfaction:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52 - specific_factorNeed satisfaction:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
         </is>
       </c>
       <c r="C27">
-        <v>1.615196181374985</v>
+        <v>0.2954578837982821</v>
       </c>
       <c r="D27">
         <v>1</v>
       </c>
       <c r="E27">
-        <v>1.037360494795476</v>
+        <v>1.63676260814447</v>
       </c>
       <c r="F27">
-        <v>0.3463604163393946</v>
+        <v>0.8008048003901934</v>
       </c>
       <c r="G27">
-        <v>0.5964763182508338</v>
+        <v>0.8809775637938041</v>
       </c>
     </row>
     <row r="28">
@@ -5938,13 +6639,23 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>specific_factorMastery goals:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_55 - specific_factorMastery goals:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_54</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>Inf</t>
-        </is>
+          <t>specific_factorNeed satisfaction:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53 - specific_factorNeed satisfaction:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
+        </is>
+      </c>
+      <c r="C28">
+        <v>10.86096722258453</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>16.25999528631995</v>
+      </c>
+      <c r="F28">
+        <v>7.273835090282624e-09</v>
+      </c>
+      <c r="G28">
+        <v>4.437039405072401e-07</v>
       </c>
     </row>
     <row r="29">
@@ -5955,23 +6666,23 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>specific_factorNeed frustration:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52 - specific_factorNeed frustration:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
+          <t>specific_factorNeed satisfaction:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53 - specific_factorNeed satisfaction:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52</t>
         </is>
       </c>
       <c r="C29">
-        <v>0.4993796303666787</v>
+        <v>1.370092018107846</v>
       </c>
       <c r="D29">
         <v>1</v>
       </c>
       <c r="E29">
-        <v>4.102884578584563</v>
+        <v>1.207530481067974</v>
       </c>
       <c r="F29">
-        <v>0.6431064529173445</v>
+        <v>0.3713711250719498</v>
       </c>
       <c r="G29">
-        <v>0.8251177131769702</v>
+        <v>0.5807004131227784</v>
       </c>
     </row>
     <row r="30">
@@ -5982,23 +6693,23 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>specific_factorNeed frustration:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53 - specific_factorNeed frustration:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
+          <t>specific_factorNegative beliefs about motivation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52 - specific_factorNegative beliefs about motivation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
         </is>
       </c>
       <c r="C30">
-        <v>1.075510793969297</v>
+        <v>13.21469663424419</v>
       </c>
       <c r="D30">
         <v>1</v>
       </c>
       <c r="E30">
-        <v>6.416563003900792</v>
+        <v>2.623576558502966</v>
       </c>
       <c r="F30">
-        <v>0.3209145654887712</v>
+        <v>0.001793255960908106</v>
       </c>
       <c r="G30">
-        <v>0.5964763182508338</v>
+        <v>0.05469430680769725</v>
       </c>
     </row>
     <row r="31">
@@ -6009,23 +6720,23 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>specific_factorNeed frustration:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53 - specific_factorNeed frustration:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52</t>
+          <t>specific_factorothers' autonomous motivation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52 - specific_factorothers' autonomous motivation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
         </is>
       </c>
       <c r="C31">
-        <v>0.4102836254473203</v>
+        <v>1.446446903464988</v>
       </c>
       <c r="D31">
         <v>1</v>
       </c>
       <c r="E31">
-        <v>2.15355076207443</v>
+        <v>4.777832765198868</v>
       </c>
       <c r="F31">
-        <v>0.7188466876807406</v>
+        <v>0.2103082132528809</v>
       </c>
       <c r="G31">
-        <v>0.8385154041608542</v>
+        <v>0.5698059285461624</v>
       </c>
     </row>
     <row r="32">
@@ -6036,23 +6747,23 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>specific_factorNeed satisfaction:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52 - specific_factorNeed satisfaction:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
+          <t>specific_factorOthers' autonomous motivation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52 - specific_factorOthers' autonomous motivation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
         </is>
       </c>
       <c r="C32">
-        <v>0.3379727489070787</v>
+        <v>3.072154742642147</v>
       </c>
       <c r="D32">
         <v>1</v>
       </c>
       <c r="E32">
-        <v>4.56133932017923</v>
+        <v>4.950305914950349</v>
       </c>
       <c r="F32">
-        <v>0.7503766345507213</v>
+        <v>0.0280811023592664</v>
       </c>
       <c r="G32">
-        <v>0.8385154041608542</v>
+        <v>0.2854912073192084</v>
       </c>
     </row>
     <row r="33">
@@ -6063,23 +6774,23 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>specific_factorNeed satisfaction:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53 - specific_factorNeed satisfaction:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
+          <t>specific_factorOthers' autonomous motivation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53 - specific_factorOthers' autonomous motivation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
         </is>
       </c>
       <c r="C33">
-        <v>11.17684622589027</v>
+        <v>0.8534306524220894</v>
       </c>
       <c r="D33">
         <v>1</v>
       </c>
       <c r="E33">
-        <v>15.61042797341634</v>
+        <v>1.454665357753412</v>
       </c>
       <c r="F33">
-        <v>7.444251304606465e-09</v>
+        <v>0.510782033887103</v>
       </c>
       <c r="G33">
-        <v>5.062090887132396e-07</v>
+        <v>0.7281579045834692</v>
       </c>
     </row>
     <row r="34">
@@ -6090,23 +6801,23 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>specific_factorNeed satisfaction:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53 - specific_factorNeed satisfaction:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52</t>
+          <t>specific_factorOthers' autonomous motivation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53 - specific_factorOthers' autonomous motivation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52</t>
         </is>
       </c>
       <c r="C34">
-        <v>3.159598933917236</v>
+        <v>1.21334937762931</v>
       </c>
       <c r="D34">
         <v>1</v>
       </c>
       <c r="E34">
-        <v>2.8667552302993</v>
+        <v>1.515399821107555</v>
       </c>
       <c r="F34">
-        <v>0.05414291523272906</v>
+        <v>0.3807871561460843</v>
       </c>
       <c r="G34">
-        <v>0.2629798739875411</v>
+        <v>0.5807004131227784</v>
       </c>
     </row>
     <row r="35">
@@ -6117,23 +6828,23 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>specific_factorNegative beliefs about motivation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52 - specific_factorNegative beliefs about motivation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
+          <t>specific_factorOthers' controlled motivation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52 - specific_factorOthers' controlled motivation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
         </is>
       </c>
       <c r="C35">
-        <v>10.0881486633119</v>
+        <v>3.264421415802866</v>
       </c>
       <c r="D35">
         <v>1</v>
       </c>
       <c r="E35">
-        <v>1.208901767501507</v>
+        <v>1.279561353101441</v>
       </c>
       <c r="F35">
-        <v>0.04090344677373791</v>
+        <v>0.1440002812185405</v>
       </c>
       <c r="G35">
-        <v>0.2604664456173901</v>
+        <v>0.4958132522829204</v>
       </c>
     </row>
     <row r="36">
@@ -6144,23 +6855,23 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>specific_factorOthers' autonomous motivation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52 - specific_factorOthers' autonomous motivation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
+          <t>specific_factorothers' negative behaviours:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52 - specific_factorothers' negative behaviours:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
         </is>
       </c>
       <c r="C36">
-        <v>1.020650475043214</v>
+        <v>3.20198560888843</v>
       </c>
       <c r="D36">
         <v>1</v>
       </c>
       <c r="E36">
-        <v>5.392685844974214</v>
+        <v>2.645879182673974</v>
       </c>
       <c r="F36">
-        <v>0.3510047302143925</v>
+        <v>0.05860668225564289</v>
       </c>
       <c r="G36">
-        <v>0.5964763182508338</v>
+        <v>0.3925187333450228</v>
       </c>
     </row>
     <row r="37">
@@ -6171,23 +6882,23 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>specific_factorOthers' autonomous motivation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53 - specific_factorOthers' autonomous motivation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
+          <t>specific_factorOthers' negative emotions:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52 - specific_factorOthers' negative emotions:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
         </is>
       </c>
       <c r="C37">
-        <v>0.8435104823176005</v>
+        <v>0.3202044339347445</v>
       </c>
       <c r="D37">
         <v>1</v>
       </c>
       <c r="E37">
-        <v>1.414785631097565</v>
+        <v>1.509827953135042</v>
       </c>
       <c r="F37">
-        <v>0.5175256095342087</v>
+        <v>0.7875193907763727</v>
       </c>
       <c r="G37">
-        <v>0.7641442125113437</v>
+        <v>0.8809775637938041</v>
       </c>
     </row>
     <row r="38">
@@ -6198,23 +6909,23 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>specific_factorOthers' autonomous motivation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53 - specific_factorOthers' autonomous motivation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52</t>
+          <t>specific_factorOthers' positive behaviours:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52 - specific_factorOthers' positive behaviours:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
         </is>
       </c>
       <c r="C38">
-        <v>0.2131885627797183</v>
+        <v>2.845766937379794</v>
       </c>
       <c r="D38">
         <v>1</v>
       </c>
       <c r="E38">
-        <v>1.502513630324343</v>
+        <v>1.729077588239425</v>
       </c>
       <c r="F38">
-        <v>0.8564802050522908</v>
+        <v>0.1228943939736414</v>
       </c>
       <c r="G38">
-        <v>0.882434150659936</v>
+        <v>0.4958132522829204</v>
       </c>
     </row>
     <row r="39">
@@ -6225,23 +6936,23 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>specific_factorOthers' controlled motivation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52 - specific_factorOthers' controlled motivation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
+          <t>specific_factorothers' positive emotions:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52 - specific_factorothers' positive emotions:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
         </is>
       </c>
       <c r="C39">
-        <v>3.504250616629181</v>
+        <v>2.049894001922093</v>
       </c>
       <c r="D39">
         <v>1</v>
       </c>
       <c r="E39">
-        <v>1.750799119689598</v>
+        <v>2.731481004545669</v>
       </c>
       <c r="F39">
-        <v>0.08769497361305381</v>
+        <v>0.1416869382550395</v>
       </c>
       <c r="G39">
-        <v>0.3070917383062469</v>
+        <v>0.4958132522829204</v>
       </c>
     </row>
     <row r="40">
@@ -6252,23 +6963,23 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>specific_factorOthers' negative behaviours:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52 - specific_factorOthers' negative behaviours:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
+          <t>specific_factorOthers' positive emotions:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52 - specific_factorOthers' positive emotions:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
         </is>
       </c>
       <c r="C40">
-        <v>3.544480347873634</v>
+        <v>0.2068089987003146</v>
       </c>
       <c r="D40">
         <v>1</v>
       </c>
       <c r="E40">
-        <v>2.965631870446769</v>
+        <v>2.453382922249606</v>
       </c>
       <c r="F40">
-        <v>0.03895132268322977</v>
+        <v>0.8520930535054827</v>
       </c>
       <c r="G40">
-        <v>0.2604664456173901</v>
+        <v>0.8809775637938041</v>
       </c>
     </row>
     <row r="41">
@@ -6279,23 +6990,23 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>specific_factorOthers' negative emotions:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52 - specific_factorOthers' negative emotions:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
+          <t>specific_factorPerformance goals:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52 - specific_factorPerformance goals:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
         </is>
       </c>
       <c r="C41">
-        <v>0.2316580442184586</v>
+        <v>3.701044557604543</v>
       </c>
       <c r="D41">
         <v>1</v>
       </c>
       <c r="E41">
-        <v>2.014109476449245</v>
+        <v>1.195846213255448</v>
       </c>
       <c r="F41">
-        <v>0.8382137172272515</v>
+        <v>0.1351968531348006</v>
       </c>
       <c r="G41">
-        <v>0.8769005041762016</v>
+        <v>0.4958132522829204</v>
       </c>
     </row>
     <row r="42">
@@ -6306,23 +7017,23 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>specific_factorOthers' negative emotions:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_54 - specific_factorOthers' negative emotions:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
+          <t>specific_factorPerformance goals:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_55 - specific_factorPerformance goals:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
         </is>
       </c>
       <c r="C42">
-        <v>1.32859803516506</v>
+        <v>3.450102150541209</v>
       </c>
       <c r="D42">
         <v>1</v>
       </c>
       <c r="E42">
-        <v>1.381909988133066</v>
+        <v>1.195846213255448</v>
       </c>
       <c r="F42">
-        <v>0.3617543826888479</v>
+        <v>0.1463055498539765</v>
       </c>
       <c r="G42">
-        <v>0.5964763182508338</v>
+        <v>0.4958132522829204</v>
       </c>
     </row>
     <row r="43">
@@ -6333,23 +7044,13 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>specific_factorOthers' negative emotions:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_54 - specific_factorOthers' negative emotions:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52</t>
-        </is>
-      </c>
-      <c r="C43">
-        <v>8.153778741156518</v>
-      </c>
-      <c r="D43">
-        <v>1</v>
-      </c>
-      <c r="E43">
-        <v>1.007019563822272</v>
-      </c>
-      <c r="F43">
-        <v>0.0766520204764352</v>
-      </c>
-      <c r="G43">
-        <v>0.2895742995776441</v>
+          <t>specific_factorPerformance goals:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_55 - specific_factorPerformance goals:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Inf</t>
+        </is>
       </c>
     </row>
     <row r="44">
@@ -6360,23 +7061,23 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>specific_factorOthers' positive behaviours:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52 - specific_factorOthers' positive behaviours:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
+          <t>specific_factorPositive beliefs about knowledge and learning:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52 - specific_factorPositive beliefs about knowledge and learning:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
         </is>
       </c>
       <c r="C44">
-        <v>5.47230131665361</v>
+        <v>150.8875205496525</v>
       </c>
       <c r="D44">
         <v>1</v>
       </c>
       <c r="E44">
-        <v>1.752630802632224</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="F44">
-        <v>0.04213427796751899</v>
+        <v>0.004219106056716152</v>
       </c>
       <c r="G44">
-        <v>0.2604664456173901</v>
+        <v>0.06434136736492131</v>
       </c>
     </row>
     <row r="45">
@@ -6387,23 +7088,13 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>specific_factorOthers' positive behaviours:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_54 - specific_factorOthers' positive behaviours:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
-        </is>
-      </c>
-      <c r="C45">
-        <v>5.552315466460391</v>
-      </c>
-      <c r="D45">
-        <v>1</v>
-      </c>
-      <c r="E45">
-        <v>4.416036999788675</v>
-      </c>
-      <c r="F45">
-        <v>0.00382841370935906</v>
-      </c>
-      <c r="G45">
-        <v>0.04338937169884416</v>
+          <t>specific_factorPositive beliefs about knowledge and learning:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53 - specific_factorPositive beliefs about knowledge and learning:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Inf</t>
+        </is>
       </c>
     </row>
     <row r="46">
@@ -6414,23 +7105,23 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>specific_factorOthers' positive behaviours:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_54 - specific_factorOthers' positive behaviours:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52</t>
+          <t>specific_factorPositive beliefs about knowledge and learning:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53 - specific_factorPositive beliefs about knowledge and learning:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52</t>
         </is>
       </c>
       <c r="C46">
-        <v>0.7479714230804082</v>
+        <v>75.40095713209573</v>
       </c>
       <c r="D46">
         <v>1</v>
       </c>
       <c r="E46">
-        <v>1.007019563822271</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="F46">
-        <v>0.590453942811603</v>
+        <v>0.008442630903644202</v>
       </c>
       <c r="G46">
-        <v>0.8019221645218535</v>
+        <v>0.1030000970244593</v>
       </c>
     </row>
     <row r="47">
@@ -6441,23 +7132,23 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>specific_factorOthers' positive emotions:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52 - specific_factorOthers' positive emotions:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
+          <t>specific_factorself-efficacy:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52 - specific_factorself-efficacy:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
         </is>
       </c>
       <c r="C47">
-        <v>0.4525528390224229</v>
+        <v>0.2585551848990044</v>
       </c>
       <c r="D47">
         <v>1</v>
       </c>
       <c r="E47">
-        <v>1.711480333650045</v>
+        <v>1.683416379823885</v>
       </c>
       <c r="F47">
-        <v>0.7016640858854591</v>
+        <v>0.8240800055763636</v>
       </c>
       <c r="G47">
-        <v>0.8385154041608542</v>
+        <v>0.8809775637938041</v>
       </c>
     </row>
     <row r="48">
@@ -6468,23 +7159,23 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>specific_factorPerformance goals:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52 - specific_factorPerformance goals:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
+          <t>specific_factorself-efficacy:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53 - specific_factorself-efficacy:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
         </is>
       </c>
       <c r="C48">
-        <v>7.352952298088047</v>
+        <v>0.6790570251445587</v>
       </c>
       <c r="D48">
         <v>1</v>
       </c>
       <c r="E48">
-        <v>5.478809243086455</v>
+        <v>1.67150933799594</v>
       </c>
       <c r="F48">
-        <v>0.0004893852552609527</v>
+        <v>0.5788143737771536</v>
       </c>
       <c r="G48">
-        <v>0.0110927324525816</v>
+        <v>0.751227165966093</v>
       </c>
     </row>
     <row r="49">
@@ -6495,23 +7186,23 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>specific_factorPerformance goals:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_54 - specific_factorPerformance goals:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
+          <t>specific_factorself-efficacy:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53 - specific_factorself-efficacy:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52</t>
         </is>
       </c>
       <c r="C49">
-        <v>10.45993713441485</v>
+        <v>1.167470223028156</v>
       </c>
       <c r="D49">
         <v>1</v>
       </c>
       <c r="E49">
-        <v>5.478809243086455</v>
+        <v>1.999774707332356</v>
       </c>
       <c r="F49">
-        <v>7.947802778566324e-05</v>
+        <v>0.3633871842955858</v>
       </c>
       <c r="G49">
-        <v>0.00270225294471255</v>
+        <v>0.5807004131227784</v>
       </c>
     </row>
     <row r="50">
@@ -6522,23 +7213,23 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>specific_factorPerformance goals:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_55 - specific_factorPerformance goals:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
+          <t>specific_factorSelf-efficacy:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52 - specific_factorSelf-efficacy:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
         </is>
       </c>
       <c r="C50">
-        <v>6.90033866392619</v>
+        <v>1.661124143121364</v>
       </c>
       <c r="D50">
         <v>1</v>
       </c>
       <c r="E50">
-        <v>5.478809243086455</v>
+        <v>2.028590986390054</v>
       </c>
       <c r="F50">
-        <v>0.000672995592925689</v>
+        <v>0.2368268821003745</v>
       </c>
       <c r="G50">
-        <v>0.01144092507973671</v>
+        <v>0.5698059285461624</v>
       </c>
     </row>
     <row r="51">
@@ -6549,13 +7240,23 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>specific_factorPerformance goals:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_54 - specific_factorPerformance goals:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>Inf</t>
-        </is>
+          <t>specific_factorSelf-efficacy:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_55 - specific_factorSelf-efficacy:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
+        </is>
+      </c>
+      <c r="C51">
+        <v>1.370362238064026</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51">
+        <v>2.028590986390054</v>
+      </c>
+      <c r="F51">
+        <v>0.3025098351619436</v>
+      </c>
+      <c r="G51">
+        <v>0.5698059285461624</v>
       </c>
     </row>
     <row r="52">
@@ -6566,7 +7267,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>specific_factorPerformance goals:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_55 - specific_factorPerformance goals:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52</t>
+          <t>specific_factorSelf-efficacy:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_55 - specific_factorSelf-efficacy:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -6583,13 +7284,23 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>specific_factorPerformance goals:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_55 - specific_factorPerformance goals:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_54</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>Inf</t>
-        </is>
+          <t>specific_factorSocial connection/support:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52 - specific_factorSocial connection/support:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
+        </is>
+      </c>
+      <c r="C53">
+        <v>0.2187162529241146</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>3.62212103100426</v>
+      </c>
+      <c r="F53">
+        <v>0.8386330998119017</v>
+      </c>
+      <c r="G53">
+        <v>0.8809775637938041</v>
       </c>
     </row>
     <row r="54">
@@ -6600,23 +7311,23 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>specific_factorPositive beliefs about knowledge and learning:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52 - specific_factorPositive beliefs about knowledge and learning:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
+          <t>specific_factorSocial connection/support:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53 - specific_factorSocial connection/support:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
         </is>
       </c>
       <c r="C54">
-        <v>6.791661255951028</v>
+        <v>4.848935834084982</v>
       </c>
       <c r="D54">
         <v>1</v>
       </c>
       <c r="E54">
-        <v>2.028939967119309</v>
+        <v>1.552104243793586</v>
       </c>
       <c r="F54">
-        <v>0.0202282452989853</v>
+        <v>0.06434733333524964</v>
       </c>
       <c r="G54">
-        <v>0.171940085041375</v>
+        <v>0.3925187333450228</v>
       </c>
     </row>
     <row r="55">
@@ -6627,13 +7338,23 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>specific_factorPositive beliefs about knowledge and learning:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53 - specific_factorPositive beliefs about knowledge and learning:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>Inf</t>
-        </is>
+          <t>specific_factorSocial connection/support:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_54 - specific_factorSocial connection/support:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
+        </is>
+      </c>
+      <c r="C55">
+        <v>4.903327740431029</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55">
+        <v>5.735985415978536</v>
+      </c>
+      <c r="F55">
+        <v>0.003062775010066109</v>
+      </c>
+      <c r="G55">
+        <v>0.06227642520467754</v>
       </c>
     </row>
     <row r="56">
@@ -6644,23 +7365,23 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>specific_factorPositive beliefs about knowledge and learning:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53 - specific_factorPositive beliefs about knowledge and learning:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52</t>
+          <t>specific_factorSocial connection/support:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53 - specific_factorSocial connection/support:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52</t>
         </is>
       </c>
       <c r="C56">
-        <v>4.244986513879883</v>
+        <v>4.413641289693088</v>
       </c>
       <c r="D56">
         <v>1</v>
       </c>
       <c r="E56">
-        <v>2.028939967119309</v>
+        <v>1.890969500862027</v>
       </c>
       <c r="F56">
-        <v>0.04998646376225462</v>
+        <v>0.0527519700756941</v>
       </c>
       <c r="G56">
-        <v>0.2614676566025627</v>
+        <v>0.3925187333450228</v>
       </c>
     </row>
     <row r="57">
@@ -6671,23 +7392,23 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>specific_factorSelf-efficacy:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52 - specific_factorSelf-efficacy:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
+          <t>specific_factorSocial connection/support:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_54 - specific_factorSocial connection/support:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52</t>
         </is>
       </c>
       <c r="C57">
-        <v>1.386516435125761</v>
+        <v>3.906570626247663</v>
       </c>
       <c r="D57">
         <v>1</v>
       </c>
       <c r="E57">
-        <v>1.428535577590846</v>
+        <v>1.655786948772392</v>
       </c>
       <c r="F57">
-        <v>0.3428284224023325</v>
+        <v>0.08021713581528092</v>
       </c>
       <c r="G57">
-        <v>0.5964763182508338</v>
+        <v>0.4077704403943447</v>
       </c>
     </row>
     <row r="58">
@@ -6698,23 +7419,23 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>specific_factorSelf-efficacy:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53 - specific_factorSelf-efficacy:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
+          <t>specific_factorSocial connection/support:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_54 - specific_factorSocial connection/support:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53</t>
         </is>
       </c>
       <c r="C58">
-        <v>1.228608419646169</v>
+        <v>2.269088156168024</v>
       </c>
       <c r="D58">
         <v>1</v>
       </c>
       <c r="E58">
-        <v>1.564275746571174</v>
+        <v>1.036380288777615</v>
       </c>
       <c r="F58">
-        <v>0.3724176966799974</v>
+        <v>0.2572268107670033</v>
       </c>
       <c r="G58">
-        <v>0.5964763182508338</v>
+        <v>0.5698059285461624</v>
       </c>
     </row>
     <row r="59">
@@ -6725,23 +7446,23 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>specific_factorSelf-efficacy:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_55 - specific_factorSelf-efficacy:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
+          <t>specific_factorAutonomous causality orientation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53 - specific_factorAutonomous causality orientation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
         </is>
       </c>
       <c r="C59">
-        <v>0.9393437164661921</v>
+        <v>0.7804738689758152</v>
       </c>
       <c r="D59">
         <v>1</v>
       </c>
       <c r="E59">
-        <v>2.88821802031136</v>
+        <v>1.666016979595257</v>
       </c>
       <c r="F59">
-        <v>0.4192741075765002</v>
+        <v>0.5305910979024395</v>
       </c>
       <c r="G59">
-        <v>0.6479690753455003</v>
+        <v>0.7355922039102003</v>
       </c>
     </row>
     <row r="60">
@@ -6752,23 +7473,23 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>specific_factorSelf-efficacy:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53 - specific_factorSelf-efficacy:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52</t>
+          <t>specific_factorControlled causality orientation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53 - specific_factorControlled causality orientation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
         </is>
       </c>
       <c r="C60">
-        <v>0.5692892693741224</v>
+        <v>0.3505263395188504</v>
       </c>
       <c r="D60">
         <v>1</v>
       </c>
       <c r="E60">
-        <v>1.980475470566243</v>
+        <v>1.63725577327465</v>
       </c>
       <c r="F60">
-        <v>0.6270681303756074</v>
+        <v>0.7657857364479983</v>
       </c>
       <c r="G60">
-        <v>0.8200121704911789</v>
+        <v>0.8809775637938041</v>
       </c>
     </row>
     <row r="61">
@@ -6779,23 +7500,23 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>specific_factorSelf-efficacy:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_55 - specific_factorSelf-efficacy:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52</t>
+          <t>specific_factorIll-being:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53 - specific_factorIll-being:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
         </is>
       </c>
       <c r="C61">
-        <v>1.44048945403777</v>
+        <v>0.7857884735382242</v>
       </c>
       <c r="D61">
         <v>1</v>
       </c>
       <c r="E61">
-        <v>1.055715279630498</v>
+        <v>5.837815244333744</v>
       </c>
       <c r="F61">
-        <v>0.3771835541880273</v>
+        <v>0.4626822515606197</v>
       </c>
       <c r="G61">
-        <v>0.5964763182508338</v>
+        <v>0.688380910858483</v>
       </c>
     </row>
     <row r="62">
@@ -6806,23 +7527,23 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>specific_factorSelf-efficacy:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_55 - specific_factorSelf-efficacy:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53</t>
+          <t>specific_factorIll-being:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_54 - specific_factorIll-being:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
         </is>
       </c>
       <c r="C62">
-        <v>0.8833064296737416</v>
+        <v>1.190845039123103</v>
       </c>
       <c r="D62">
         <v>1</v>
       </c>
       <c r="E62">
-        <v>1</v>
+        <v>5.837815244333744</v>
       </c>
       <c r="F62">
-        <v>0.5393959147138896</v>
+        <v>0.2798726575426266</v>
       </c>
       <c r="G62">
-        <v>0.7641442125113437</v>
+        <v>0.5698059285461624</v>
       </c>
     </row>
     <row r="63">
@@ -6833,23 +7554,13 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>specific_factorSocial connection/support:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52 - specific_factorSocial connection/support:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
-        </is>
-      </c>
-      <c r="C63">
-        <v>0.3498635884216404</v>
-      </c>
-      <c r="D63">
-        <v>1</v>
-      </c>
-      <c r="E63">
-        <v>3.679574795165085</v>
-      </c>
-      <c r="F63">
-        <v>0.7455373358970314</v>
-      </c>
-      <c r="G63">
-        <v>0.8385154041608542</v>
+          <t>specific_factorIll-being:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_54 - specific_factorIll-being:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Inf</t>
+        </is>
       </c>
     </row>
     <row r="64">
@@ -6860,23 +7571,23 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>specific_factorSocial connection/support:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53 - specific_factorSocial connection/support:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
+          <t>specific_factornegative personality:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53 - specific_factornegative personality:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
         </is>
       </c>
       <c r="C64">
-        <v>4.78988191422687</v>
+        <v>2.777758478038691</v>
       </c>
       <c r="D64">
         <v>1</v>
       </c>
       <c r="E64">
-        <v>1.549357558602399</v>
+        <v>1.041791405550622</v>
       </c>
       <c r="F64">
-        <v>0.0657300030305627</v>
+        <v>0.2118418611261723</v>
       </c>
       <c r="G64">
-        <v>0.2800292727379039</v>
+        <v>0.5698059285461624</v>
       </c>
     </row>
     <row r="65">
@@ -6887,23 +7598,23 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>specific_factorSocial connection/support:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_54 - specific_factorSocial connection/support:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
+          <t>specific_factorOthers' abilities:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53 - specific_factorOthers' abilities:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
         </is>
       </c>
       <c r="C65">
-        <v>4.782653418367538</v>
+        <v>0.3586238321040524</v>
       </c>
       <c r="D65">
         <v>1</v>
       </c>
       <c r="E65">
-        <v>5.515248708495277</v>
+        <v>1.391078184619228</v>
       </c>
       <c r="F65">
-        <v>0.003828473973427426</v>
+        <v>0.7667195719658046</v>
       </c>
       <c r="G65">
-        <v>0.04338937169884416</v>
+        <v>0.8809775637938041</v>
       </c>
     </row>
     <row r="66">
@@ -6914,23 +7625,23 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>specific_factorSocial connection/support:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53 - specific_factorSocial connection/support:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52</t>
+          <t>specific_factorStyle-related beliefs:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53 - specific_factorStyle-related beliefs:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
         </is>
       </c>
       <c r="C66">
-        <v>4.804066382415251</v>
+        <v>2.261666464413698</v>
       </c>
       <c r="D66">
         <v>1</v>
       </c>
       <c r="E66">
-        <v>1.824262109178569</v>
+        <v>1.069912900567388</v>
       </c>
       <c r="F66">
-        <v>0.04859591328716215</v>
+        <v>0.2518400950379672</v>
       </c>
       <c r="G66">
-        <v>0.2614676566025627</v>
+        <v>0.5698059285461624</v>
       </c>
     </row>
     <row r="67">
@@ -6941,283 +7652,263 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>specific_factorSocial connection/support:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_54 - specific_factorSocial connection/support:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52</t>
+          <t>specific_factorPersonal responsibility for others' motivation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_55 - specific_factorPersonal responsibility for others' motivation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
         </is>
       </c>
       <c r="C67">
-        <v>4.580832242762206</v>
+        <v>1.741487749433174</v>
       </c>
       <c r="D67">
         <v>1</v>
       </c>
       <c r="E67">
-        <v>1.608142845216402</v>
+        <v>1.170404926394915</v>
       </c>
       <c r="F67">
-        <v>0.06588924064421268</v>
+        <v>0.303622245805272</v>
       </c>
       <c r="G67">
-        <v>0.2800292727379039</v>
+        <v>0.5698059285461624</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>specific_factorSocial connection/support:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_54 - specific_factorSocial connection/support:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53</t>
+          <t>specific_factorautonomous motivation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52 - specific_factorautonomous motivation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
         </is>
       </c>
       <c r="C68">
-        <v>2.268026575718747</v>
+        <v>2.530149866797032</v>
       </c>
       <c r="D68">
         <v>1</v>
       </c>
       <c r="E68">
-        <v>1.032562228122806</v>
+        <v>1.041081027587319</v>
       </c>
       <c r="F68">
-        <v>0.2580578944098757</v>
+        <v>0.2316199548381597</v>
       </c>
       <c r="G68">
-        <v>0.5964763182508338</v>
+        <v>0.2842608536650141</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>specific_factorAutonomous causality orientation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53 - specific_factorAutonomous causality orientation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
+          <t>specific_factorAutonomous motivation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52 - specific_factorAutonomous motivation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
         </is>
       </c>
       <c r="C69">
-        <v>0.7189718598171994</v>
+        <v>0.1257649365964415</v>
       </c>
       <c r="D69">
         <v>1</v>
       </c>
       <c r="E69">
-        <v>1.639149876882208</v>
+        <v>8.983378149443515</v>
       </c>
       <c r="F69">
-        <v>0.5606554475484431</v>
+        <v>0.9026876319766591</v>
       </c>
       <c r="G69">
-        <v>0.7780524578223292</v>
+        <v>0.9374063870526845</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>specific_factorControlled causality orientation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53 - specific_factorControlled causality orientation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
+          <t>specific_factorAutonomous motivation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53 - specific_factorAutonomous motivation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
         </is>
       </c>
       <c r="C70">
-        <v>0.3792332118875537</v>
+        <v>2.518038948045424</v>
       </c>
       <c r="D70">
         <v>1</v>
       </c>
       <c r="E70">
-        <v>1.619519960154677</v>
+        <v>8.983378149443515</v>
       </c>
       <c r="F70">
-        <v>0.748329111786818</v>
+        <v>0.03291882076176555</v>
       </c>
       <c r="G70">
-        <v>0.8385154041608542</v>
+        <v>0.2222020401419175</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>specific_factorExtrinsic goals:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53 - specific_factorExtrinsic goals:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
-        </is>
-      </c>
-      <c r="C71">
-        <v>2.575356144208785</v>
-      </c>
-      <c r="D71">
-        <v>1</v>
-      </c>
-      <c r="E71">
-        <v>1.010312667884938</v>
-      </c>
-      <c r="F71">
-        <v>0.2337325591663028</v>
-      </c>
-      <c r="G71">
-        <v>0.5964763182508338</v>
+          <t>specific_factorAutonomous motivation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53 - specific_factorAutonomous motivation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Inf</t>
+        </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>specific_factorIntrinsic goals:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53 - specific_factorIntrinsic goals:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
+          <t>specific_factorControlled motivation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52 - specific_factorControlled motivation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
         </is>
       </c>
       <c r="C72">
-        <v>8.753798717540574</v>
+        <v>3.710775464394352</v>
       </c>
       <c r="D72">
         <v>1</v>
       </c>
       <c r="E72">
-        <v>1.010312667884937</v>
+        <v>8.769058602460788</v>
       </c>
       <c r="F72">
-        <v>0.07094584670403407</v>
+        <v>0.005063362896160534</v>
       </c>
       <c r="G72">
-        <v>0.2837833868161363</v>
+        <v>0.06835539909816721</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>specific_factorNegative beliefs about knowledge and learning:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53 - specific_factorNegative beliefs about knowledge and learning:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>Inf</t>
-        </is>
+          <t>specific_factorControlled motivation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53 - specific_factorControlled motivation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
+        </is>
+      </c>
+      <c r="C73">
+        <v>2.367531653783288</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="E73">
+        <v>8.769058602460788</v>
+      </c>
+      <c r="F73">
+        <v>0.04277878887580358</v>
+      </c>
+      <c r="G73">
+        <v>0.2310054599293394</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>specific_factorNegative personality:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53 - specific_factorNegative personality:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
-        </is>
-      </c>
-      <c r="C74">
-        <v>3.032780621599507</v>
-      </c>
-      <c r="D74">
-        <v>1</v>
-      </c>
-      <c r="E74">
-        <v>2.060767204585152</v>
-      </c>
-      <c r="F74">
-        <v>0.09032109950183734</v>
-      </c>
-      <c r="G74">
-        <v>0.3070917383062469</v>
+          <t>specific_factorControlled motivation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53 - specific_factorControlled motivation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Inf</t>
+        </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>specific_factorOthers' abilities:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53 - specific_factorOthers' abilities:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
+          <t>specific_factorExternal pressure in terms of constraints:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52 - specific_factorExternal pressure in terms of constraints:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
         </is>
       </c>
       <c r="C75">
-        <v>0.3487297313773826</v>
+        <v>0.7265084345120915</v>
       </c>
       <c r="D75">
         <v>1</v>
       </c>
       <c r="E75">
-        <v>2.7576406634123</v>
+        <v>1.91239923130683</v>
       </c>
       <c r="F75">
-        <v>0.7521976419678252</v>
+        <v>0.5460374603181304</v>
       </c>
       <c r="G75">
-        <v>0.8385154041608542</v>
+        <v>0.5897204571435809</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>specific_factorStyle-related beliefs:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53 - specific_factorStyle-related beliefs:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
+          <t>specific_factorExternal pressure in terms of constraints:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_55 - specific_factorExternal pressure in terms of constraints:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
         </is>
       </c>
       <c r="C76">
-        <v>2.287254015167049</v>
+        <v>2.071411208425229</v>
       </c>
       <c r="D76">
         <v>1</v>
       </c>
       <c r="E76">
-        <v>1.064571256282431</v>
+        <v>1.91239923130683</v>
       </c>
       <c r="F76">
-        <v>0.2501447171532193</v>
+        <v>0.1799299973486671</v>
       </c>
       <c r="G76">
-        <v>0.5964763182508338</v>
+        <v>0.2729464264001755</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>specific_factorPersonal responsibility for others' motivation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_55 - specific_factorPersonal responsibility for others' motivation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
-        </is>
-      </c>
-      <c r="C77">
-        <v>1.711104124492653</v>
-      </c>
-      <c r="D77">
-        <v>1</v>
-      </c>
-      <c r="E77">
-        <v>1.076540493100891</v>
-      </c>
-      <c r="F77">
-        <v>0.3233097662173099</v>
-      </c>
-      <c r="G77">
-        <v>0.5964763182508338</v>
+          <t>specific_factorExternal pressure in terms of constraints:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_55 - specific_factorExternal pressure in terms of constraints:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Inf</t>
+        </is>
       </c>
     </row>
     <row r="78">
@@ -7228,23 +7919,23 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>specific_factorAutonomous motivation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52 - specific_factorAutonomous motivation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
+          <t>specific_factorMastery goals:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52 - specific_factorMastery goals:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
         </is>
       </c>
       <c r="C78">
-        <v>1.036917293965315</v>
+        <v>6.073071216521531</v>
       </c>
       <c r="D78">
         <v>1</v>
       </c>
       <c r="E78">
-        <v>1.467885208645124</v>
+        <v>1.040193866951201</v>
       </c>
       <c r="F78">
-        <v>0.4405206770167611</v>
+        <v>0.09735675830242151</v>
       </c>
       <c r="G78">
-        <v>0.5726768801217895</v>
+        <v>0.2729464264001755</v>
       </c>
     </row>
     <row r="79">
@@ -7255,23 +7946,23 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>specific_factorAutonomous motivation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53 - specific_factorAutonomous motivation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
+          <t>specific_factorMastery goals:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53 - specific_factorMastery goals:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
         </is>
       </c>
       <c r="C79">
-        <v>2.951623629955751</v>
+        <v>6.073071216521543</v>
       </c>
       <c r="D79">
         <v>1</v>
       </c>
       <c r="E79">
-        <v>10.42982496173375</v>
+        <v>1.040193866951201</v>
       </c>
       <c r="F79">
-        <v>0.01388825197712502</v>
+        <v>0.09735675830242134</v>
       </c>
       <c r="G79">
-        <v>0.1112893163976043</v>
+        <v>0.2729464264001755</v>
       </c>
     </row>
     <row r="80">
@@ -7282,23 +7973,23 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>specific_factorAutonomous motivation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53 - specific_factorAutonomous motivation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52</t>
+          <t>specific_factorMastery goals:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_55 - specific_factorMastery goals:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
         </is>
       </c>
       <c r="C80">
-        <v>0.2711341701474947</v>
+        <v>4.708041419294914</v>
       </c>
       <c r="D80">
         <v>1</v>
       </c>
       <c r="E80">
-        <v>1.008216132035289</v>
+        <v>1.040193866951201</v>
       </c>
       <c r="F80">
-        <v>0.831161658835111</v>
+        <v>0.1260751780973844</v>
       </c>
       <c r="G80">
-        <v>0.8760893160694412</v>
+        <v>0.2729464264001755</v>
       </c>
     </row>
     <row r="81">
@@ -7309,23 +8000,13 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>specific_factorControlled motivation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52 - specific_factorControlled motivation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
-        </is>
-      </c>
-      <c r="C81">
-        <v>0.04653902095305013</v>
-      </c>
-      <c r="D81">
-        <v>1</v>
-      </c>
-      <c r="E81">
-        <v>1.69007224936837</v>
-      </c>
-      <c r="F81">
-        <v>0.9677800780891859</v>
-      </c>
-      <c r="G81">
-        <v>0.9677800780891859</v>
+          <t>specific_factorMastery goals:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53 - specific_factorMastery goals:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Inf</t>
+        </is>
       </c>
     </row>
     <row r="82">
@@ -7336,23 +8017,13 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>specific_factorControlled motivation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53 - specific_factorControlled motivation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
-        </is>
-      </c>
-      <c r="C82">
-        <v>2.477793904127551</v>
-      </c>
-      <c r="D82">
-        <v>1</v>
-      </c>
-      <c r="E82">
-        <v>8.90734648166911</v>
-      </c>
-      <c r="F82">
-        <v>0.03537590958724889</v>
-      </c>
-      <c r="G82">
-        <v>0.1112893163976043</v>
+          <t>specific_factorMastery goals:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_55 - specific_factorMastery goals:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Inf</t>
+        </is>
       </c>
     </row>
     <row r="83">
@@ -7363,23 +8034,13 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>specific_factorControlled motivation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53 - specific_factorControlled motivation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52</t>
-        </is>
-      </c>
-      <c r="C83">
-        <v>0.6781832708208949</v>
-      </c>
-      <c r="D83">
-        <v>1</v>
-      </c>
-      <c r="E83">
-        <v>1.00821613203529</v>
-      </c>
-      <c r="F83">
-        <v>0.619867367844029</v>
-      </c>
-      <c r="G83">
-        <v>0.6907093527404894</v>
+          <t>specific_factorMastery goals:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_55 - specific_factorMastery goals:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Inf</t>
+        </is>
       </c>
     </row>
     <row r="84">
@@ -7390,23 +8051,23 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>specific_factorExternal pressure in terms of constraints:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52 - specific_factorExternal pressure in terms of constraints:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
+          <t>specific_factorNeed frustration:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52 - specific_factorNeed frustration:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
         </is>
       </c>
       <c r="C84">
-        <v>0.7247777260912719</v>
+        <v>1.495308752936152</v>
       </c>
       <c r="D84">
         <v>1</v>
       </c>
       <c r="E84">
-        <v>2.713221567581713</v>
+        <v>5.276386137321108</v>
       </c>
       <c r="F84">
-        <v>0.5260290493973202</v>
+        <v>0.1920734111704939</v>
       </c>
       <c r="G84">
-        <v>0.6119816832179651</v>
+        <v>0.2729464264001755</v>
       </c>
     </row>
     <row r="85">
@@ -7417,23 +8078,23 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>specific_factorExternal pressure in terms of constraints:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_55 - specific_factorExternal pressure in terms of constraints:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
+          <t>specific_factorNeed frustration:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53 - specific_factorNeed frustration:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
         </is>
       </c>
       <c r="C85">
-        <v>1.839542075474611</v>
+        <v>3.093123338213729</v>
       </c>
       <c r="D85">
         <v>1</v>
       </c>
       <c r="E85">
-        <v>1.906615398377833</v>
+        <v>5.276386137321108</v>
       </c>
       <c r="F85">
-        <v>0.2133561822981985</v>
+        <v>0.02520404569101407</v>
       </c>
       <c r="G85">
-        <v>0.3328356443851897</v>
+        <v>0.2222020401419175</v>
       </c>
     </row>
     <row r="86">
@@ -7444,23 +8105,13 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>specific_factorExternal pressure in terms of constraints:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_55 - specific_factorExternal pressure in terms of constraints:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52</t>
-        </is>
-      </c>
-      <c r="C86">
-        <v>27.06000950207672</v>
-      </c>
-      <c r="D86">
-        <v>1</v>
-      </c>
-      <c r="E86">
-        <v>1.000381475793394</v>
-      </c>
-      <c r="F86">
-        <v>0.02348767634472933</v>
-      </c>
-      <c r="G86">
-        <v>0.1112893163976043</v>
+          <t>specific_factorNeed frustration:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53 - specific_factorNeed frustration:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Inf</t>
+        </is>
       </c>
     </row>
     <row r="87">
@@ -7471,23 +8122,23 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>specific_factorMastery goals:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52 - specific_factorMastery goals:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
+          <t>specific_factorNeed satisfaction:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52 - specific_factorNeed satisfaction:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
         </is>
       </c>
       <c r="C87">
-        <v>10.16490142418484</v>
+        <v>4.071527343728423</v>
       </c>
       <c r="D87">
         <v>1</v>
       </c>
       <c r="E87">
-        <v>1.292552209200625</v>
+        <v>6.960300920602034</v>
       </c>
       <c r="F87">
-        <v>0.03433482940703866</v>
+        <v>0.00479741393666407</v>
       </c>
       <c r="G87">
-        <v>0.1112893163976043</v>
+        <v>0.06835539909816721</v>
       </c>
     </row>
     <row r="88">
@@ -7498,23 +8149,23 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>specific_factorMastery goals:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53 - specific_factorMastery goals:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
+          <t>specific_factorNeed satisfaction:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53 - specific_factorNeed satisfaction:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
         </is>
       </c>
       <c r="C88">
-        <v>10.16490142418483</v>
+        <v>1.702856859724727</v>
       </c>
       <c r="D88">
         <v>1</v>
       </c>
       <c r="E88">
-        <v>1.292552209200625</v>
+        <v>6.960300920602034</v>
       </c>
       <c r="F88">
-        <v>0.03433482940703869</v>
+        <v>0.1326223607183856</v>
       </c>
       <c r="G88">
-        <v>0.1112893163976043</v>
+        <v>0.2729464264001755</v>
       </c>
     </row>
     <row r="89">
@@ -7525,23 +8176,13 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>specific_factorMastery goals:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_55 - specific_factorMastery goals:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
-        </is>
-      </c>
-      <c r="C89">
-        <v>7.805999205048361</v>
-      </c>
-      <c r="D89">
-        <v>1</v>
-      </c>
-      <c r="E89">
-        <v>1.292552209200625</v>
-      </c>
-      <c r="F89">
-        <v>0.04811517544952948</v>
-      </c>
-      <c r="G89">
-        <v>0.1210393274293844</v>
+          <t>specific_factorNeed satisfaction:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53 - specific_factorNeed satisfaction:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Inf</t>
+        </is>
       </c>
     </row>
     <row r="90">
@@ -7552,13 +8193,23 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>specific_factorMastery goals:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53 - specific_factorMastery goals:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>Inf</t>
-        </is>
+          <t>specific_factorothers' autonomous motivation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52 - specific_factorothers' autonomous motivation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
+        </is>
+      </c>
+      <c r="C90">
+        <v>3.801404062787797</v>
+      </c>
+      <c r="D90">
+        <v>1</v>
+      </c>
+      <c r="E90">
+        <v>1.01487723632139</v>
+      </c>
+      <c r="F90">
+        <v>0.160896681598737</v>
+      </c>
+      <c r="G90">
+        <v>0.2729464264001755</v>
       </c>
     </row>
     <row r="91">
@@ -7569,13 +8220,23 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>specific_factorMastery goals:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_55 - specific_factorMastery goals:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>Inf</t>
-        </is>
+          <t>specific_factorPerformance goals:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52 - specific_factorPerformance goals:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
+        </is>
+      </c>
+      <c r="C91">
+        <v>5.441162366367747</v>
+      </c>
+      <c r="D91">
+        <v>1</v>
+      </c>
+      <c r="E91">
+        <v>1.040193866951201</v>
+      </c>
+      <c r="F91">
+        <v>0.1088875447675781</v>
+      </c>
+      <c r="G91">
+        <v>0.2729464264001755</v>
       </c>
     </row>
     <row r="92">
@@ -7586,13 +8247,23 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>specific_factorMastery goals:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_55 - specific_factorMastery goals:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>Inf</t>
-        </is>
+          <t>specific_factorPerformance goals:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_55 - specific_factorPerformance goals:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
+        </is>
+      </c>
+      <c r="C92">
+        <v>2.758609669169836</v>
+      </c>
+      <c r="D92">
+        <v>1</v>
+      </c>
+      <c r="E92">
+        <v>1.040193866951201</v>
+      </c>
+      <c r="F92">
+        <v>0.2135505000758267</v>
+      </c>
+      <c r="G92">
+        <v>0.2832531740733404</v>
       </c>
     </row>
     <row r="93">
@@ -7603,23 +8274,13 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>specific_factorNeed frustration:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52 - specific_factorNeed frustration:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
-        </is>
-      </c>
-      <c r="C93">
-        <v>1.920292542735052</v>
-      </c>
-      <c r="D93">
-        <v>1</v>
-      </c>
-      <c r="E93">
-        <v>1.862756122058277</v>
-      </c>
-      <c r="F93">
-        <v>0.2040697828227869</v>
-      </c>
-      <c r="G93">
-        <v>0.3316133970870287</v>
+          <t>specific_factorPerformance goals:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_55 - specific_factorPerformance goals:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Inf</t>
+        </is>
       </c>
     </row>
     <row r="94">
@@ -7630,23 +8291,23 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>specific_factorNeed frustration:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53 - specific_factorNeed frustration:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
+          <t>specific_factorSocial connection/support:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52 - specific_factorSocial connection/support:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
         </is>
       </c>
       <c r="C94">
-        <v>3.132220683583352</v>
+        <v>2.909219231537414</v>
       </c>
       <c r="D94">
         <v>1</v>
       </c>
       <c r="E94">
-        <v>5.175407261714951</v>
+        <v>1.138360345293963</v>
       </c>
       <c r="F94">
-        <v>0.02471124823980445</v>
+        <v>0.1857000727490472</v>
       </c>
       <c r="G94">
-        <v>0.1112893163976043</v>
+        <v>0.2729464264001755</v>
       </c>
     </row>
     <row r="95">
@@ -7657,23 +8318,23 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>specific_factorNeed frustration:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53 - specific_factorNeed frustration:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52</t>
+          <t>specific_factorSocial connection/support:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53 - specific_factorSocial connection/support:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
         </is>
       </c>
       <c r="C95">
-        <v>29.12140311539241</v>
+        <v>1.814836677427646</v>
       </c>
       <c r="D95">
         <v>1</v>
       </c>
       <c r="E95">
-        <v>1.021027885549996</v>
+        <v>1.138360345293963</v>
       </c>
       <c r="F95">
-        <v>0.02044224187381427</v>
+        <v>0.2969012648781466</v>
       </c>
       <c r="G95">
-        <v>0.1112893163976043</v>
+        <v>0.3485362674656503</v>
       </c>
     </row>
     <row r="96">
@@ -7684,23 +8345,13 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>specific_factorNeed satisfaction:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52 - specific_factorNeed satisfaction:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
-        </is>
-      </c>
-      <c r="C96">
-        <v>0.3868176948785839</v>
-      </c>
-      <c r="D96">
-        <v>1</v>
-      </c>
-      <c r="E96">
-        <v>1.675159475838585</v>
-      </c>
-      <c r="F96">
-        <v>0.7423911330624027</v>
-      </c>
-      <c r="G96">
-        <v>0.8042570608176028</v>
+          <t>specific_factorSocial connection/support:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53 - specific_factorSocial connection/support:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Inf</t>
+        </is>
       </c>
     </row>
     <row r="97">
@@ -7711,23 +8362,13 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>specific_factorNeed satisfaction:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53 - specific_factorNeed satisfaction:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
-        </is>
-      </c>
-      <c r="C97">
-        <v>1.693667039550836</v>
-      </c>
-      <c r="D97">
-        <v>1</v>
-      </c>
-      <c r="E97">
-        <v>6.861131946404671</v>
-      </c>
-      <c r="F97">
-        <v>0.1350251950943429</v>
-      </c>
-      <c r="G97">
-        <v>0.2630927993814967</v>
+          <t>specific_factorAutonomous causality orientation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53 - specific_factorAutonomous causality orientation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Inf</t>
+        </is>
       </c>
     </row>
     <row r="98">
@@ -7738,23 +8379,13 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>specific_factorNeed satisfaction:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53 - specific_factorNeed satisfaction:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52</t>
-        </is>
-      </c>
-      <c r="C98">
-        <v>0.8928256856226606</v>
-      </c>
-      <c r="D98">
-        <v>1</v>
-      </c>
-      <c r="E98">
-        <v>1.021027885549995</v>
-      </c>
-      <c r="F98">
-        <v>0.5335224930618158</v>
-      </c>
-      <c r="G98">
-        <v>0.6119816832179651</v>
+          <t>specific_factorControlled causality orientation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53 - specific_factorControlled causality orientation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Inf</t>
+        </is>
       </c>
     </row>
     <row r="99">
@@ -7765,23 +8396,23 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>specific_factorOthers' autonomous motivation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52 - specific_factorOthers' autonomous motivation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
+          <t>specific_factorEmotional intelligence:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53 - specific_factorEmotional intelligence:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
         </is>
       </c>
       <c r="C99">
-        <v>6.0522067647434</v>
+        <v>1.017037667748912</v>
       </c>
       <c r="D99">
         <v>1</v>
       </c>
       <c r="E99">
-        <v>4.601701832475849</v>
+        <v>1.024676449562278</v>
       </c>
       <c r="F99">
-        <v>0.002364038295805059</v>
+        <v>0.4913661542619629</v>
       </c>
       <c r="G99">
-        <v>0.09219749353639731</v>
+        <v>0.5527869235447083</v>
       </c>
     </row>
     <row r="100">
@@ -7792,23 +8423,23 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>specific_factorOthers' autonomous motivation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53 - specific_factorOthers' autonomous motivation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
+          <t>specific_factorIll-being:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53 - specific_factorIll-being:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
         </is>
       </c>
       <c r="C100">
-        <v>1.262508012148505</v>
+        <v>0.05922231719244286</v>
       </c>
       <c r="D100">
         <v>1</v>
       </c>
       <c r="E100">
-        <v>3.789539845722561</v>
+        <v>3.761653829599572</v>
       </c>
       <c r="F100">
-        <v>0.2788680309771546</v>
+        <v>0.9557863115624494</v>
       </c>
       <c r="G100">
-        <v>0.3884233288610367</v>
+        <v>0.9557863115624494</v>
       </c>
     </row>
     <row r="101">
@@ -7819,23 +8450,23 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>specific_factorOthers' autonomous motivation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53 - specific_factorOthers' autonomous motivation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52</t>
+          <t>specific_factorIll-being:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_54 - specific_factorIll-being:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
         </is>
       </c>
       <c r="C101">
-        <v>49.29918368678644</v>
+        <v>1.468209082885631</v>
       </c>
       <c r="D101">
         <v>1</v>
       </c>
       <c r="E101">
-        <v>1.000381475793394</v>
+        <v>3.761653829599572</v>
       </c>
       <c r="F101">
-        <v>0.01289338750913525</v>
+        <v>0.2203080242792647</v>
       </c>
       <c r="G101">
-        <v>0.1112893163976043</v>
+        <v>0.2832531740733404</v>
       </c>
     </row>
     <row r="102">
@@ -7846,23 +8477,13 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>specific_factorPerformance goals:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52 - specific_factorPerformance goals:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
-        </is>
-      </c>
-      <c r="C102">
-        <v>9.072902393208306</v>
-      </c>
-      <c r="D102">
-        <v>1</v>
-      </c>
-      <c r="E102">
-        <v>1.292552209200625</v>
-      </c>
-      <c r="F102">
-        <v>0.03971139046116638</v>
-      </c>
-      <c r="G102">
-        <v>0.1112893163976043</v>
+          <t>specific_factorIll-being:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_54 - specific_factorIll-being:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Inf</t>
+        </is>
       </c>
     </row>
     <row r="103">
@@ -7873,23 +8494,23 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>specific_factorPerformance goals:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_55 - specific_factorPerformance goals:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
+          <t>specific_factorOthers' abilities:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53 - specific_factorOthers' abilities:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
         </is>
       </c>
       <c r="C103">
-        <v>5.097088937280089</v>
+        <v>6.467033001426572</v>
       </c>
       <c r="D103">
         <v>1</v>
       </c>
       <c r="E103">
-        <v>1.292552209200625</v>
+        <v>1.254051252639023</v>
       </c>
       <c r="F103">
-        <v>0.08243916992193112</v>
+        <v>0.06481837466931505</v>
       </c>
       <c r="G103">
-        <v>0.1891251545267831</v>
+        <v>0.2729464264001755</v>
       </c>
     </row>
     <row r="104">
@@ -7900,13 +8521,23 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>specific_factorPerformance goals:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_55 - specific_factorPerformance goals:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>Inf</t>
-        </is>
+          <t>specific_factorOthers' autonomous motivation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53 - specific_factorOthers' autonomous motivation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
+        </is>
+      </c>
+      <c r="C104">
+        <v>2.033200228593719</v>
+      </c>
+      <c r="D104">
+        <v>1</v>
+      </c>
+      <c r="E104">
+        <v>1.915177888441453</v>
+      </c>
+      <c r="F104">
+        <v>0.1846746139360515</v>
+      </c>
+      <c r="G104">
+        <v>0.2729464264001755</v>
       </c>
     </row>
     <row r="105">
@@ -7917,23 +8548,23 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>specific_factorSocial connection/support:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52 - specific_factorSocial connection/support:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
+          <t>specific_factorothers' negative emotions:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_54 - specific_factorothers' negative emotions:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
         </is>
       </c>
       <c r="C105">
-        <v>3.195238892399473</v>
+        <v>3.442509495290809</v>
       </c>
       <c r="D105">
         <v>1</v>
       </c>
       <c r="E105">
-        <v>1.573294123052449</v>
+        <v>1.185113905840663</v>
       </c>
       <c r="F105">
-        <v>0.1157549097128907</v>
+        <v>0.148242441887401</v>
       </c>
       <c r="G105">
-        <v>0.2508023043779298</v>
+        <v>0.2729464264001755</v>
       </c>
     </row>
     <row r="106">
@@ -7944,23 +8575,23 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>specific_factorSocial connection/support:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53 - specific_factorSocial connection/support:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
+          <t>specific_factorPersonal responsibility for others' motivation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_55 - specific_factorPersonal responsibility for others' motivation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
         </is>
       </c>
       <c r="C106">
-        <v>1.95811210194802</v>
+        <v>4.670559867820375</v>
       </c>
       <c r="D106">
         <v>1</v>
       </c>
       <c r="E106">
-        <v>1.133022436573269</v>
+        <v>1.004663967673323</v>
       </c>
       <c r="F106">
-        <v>0.2772105087918061</v>
+        <v>0.1334167415174813</v>
       </c>
       <c r="G106">
-        <v>0.3884233288610367</v>
+        <v>0.2729464264001755</v>
       </c>
     </row>
     <row r="107">
@@ -7971,442 +8602,264 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>specific_factorSocial connection/support:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53 - specific_factorSocial connection/support:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_52</t>
+          <t>specific_factorSelf-efficacy:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_55 - specific_factorSelf-efficacy:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
         </is>
       </c>
       <c r="C107">
-        <v>15.89881469037426</v>
+        <v>5.593567834856339</v>
       </c>
       <c r="D107">
         <v>1</v>
       </c>
       <c r="E107">
-        <v>1.000381475793394</v>
+        <v>1.057211024813571</v>
       </c>
       <c r="F107">
-        <v>0.03995001101452462</v>
+        <v>0.1031672767171838</v>
       </c>
       <c r="G107">
-        <v>0.1112893163976043</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>specific_factorAutonomous causality orientation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53 - specific_factorAutonomous causality orientation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>Inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>specific_factorControlled causality orientation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53 - specific_factorControlled causality orientation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>Inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>specific_factorEmotional intelligence:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53 - specific_factorEmotional intelligence:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
-        </is>
-      </c>
-      <c r="C110">
-        <v>1.016169641806796</v>
-      </c>
-      <c r="D110">
-        <v>1</v>
-      </c>
-      <c r="E110">
-        <v>1.021862217402726</v>
-      </c>
-      <c r="F110">
-        <v>0.4920056773430866</v>
-      </c>
-      <c r="G110">
-        <v>0.6119816832179651</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>specific_factorEmotional intelligence:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_54 - specific_factorEmotional intelligence:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
-        </is>
-      </c>
-      <c r="C111">
-        <v>2.523722556273977</v>
-      </c>
-      <c r="D111">
-        <v>1</v>
-      </c>
-      <c r="E111">
-        <v>1.021862217402726</v>
-      </c>
-      <c r="F111">
-        <v>0.2358551178984933</v>
-      </c>
-      <c r="G111">
-        <v>0.35378267684774</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>specific_factorEmotional intelligence:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_54 - specific_factorEmotional intelligence:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>Inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>specific_factorExtrinsic goals:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53 - specific_factorExtrinsic goals:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
-        </is>
-      </c>
-      <c r="C113">
-        <v>0.9115827577376624</v>
-      </c>
-      <c r="D113">
-        <v>1</v>
-      </c>
-      <c r="E113">
-        <v>1.005362651564788</v>
-      </c>
-      <c r="F113">
-        <v>0.5287718957051025</v>
-      </c>
-      <c r="G113">
-        <v>0.6119816832179651</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>specific_factorIll-being:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53 - specific_factorIll-being:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
-        </is>
-      </c>
-      <c r="C114">
-        <v>0.05904355305925102</v>
-      </c>
-      <c r="D114">
-        <v>1</v>
-      </c>
-      <c r="E114">
-        <v>4.651454020555409</v>
-      </c>
-      <c r="F114">
-        <v>0.9553691439518778</v>
-      </c>
-      <c r="G114">
-        <v>0.9677800780891859</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>specific_factorIll-being:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_54 - specific_factorIll-being:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
-        </is>
-      </c>
-      <c r="C115">
-        <v>1.605445126269492</v>
-      </c>
-      <c r="D115">
-        <v>1</v>
-      </c>
-      <c r="E115">
-        <v>4.651454020555409</v>
-      </c>
-      <c r="F115">
-        <v>0.1736487332559838</v>
-      </c>
-      <c r="G115">
-        <v>0.3078318453174259</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>specific_factorIll-being:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_54 - specific_factorIll-being:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>Inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>specific_factorIntrinsic goals:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53 - specific_factorIntrinsic goals:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
-        </is>
-      </c>
-      <c r="C117">
-        <v>1.870542445907306</v>
-      </c>
-      <c r="D117">
-        <v>1</v>
-      </c>
-      <c r="E117">
-        <v>1.005362651564788</v>
-      </c>
-      <c r="F117">
-        <v>0.3115304739150321</v>
-      </c>
-      <c r="G117">
-        <v>0.4189547752650432</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>specific_factorNegative personality:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53 - specific_factorNegative personality:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
-        </is>
-      </c>
-      <c r="C118">
-        <v>5.141319774171726</v>
-      </c>
-      <c r="D118">
-        <v>1</v>
-      </c>
-      <c r="E118">
-        <v>1.979904459157648</v>
-      </c>
-      <c r="F118">
-        <v>0.03657161770736497</v>
-      </c>
-      <c r="G118">
-        <v>0.1112893163976043</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>specific_factorOthers' abilities:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53 - specific_factorOthers' abilities:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
-        </is>
-      </c>
-      <c r="C119">
-        <v>4.355832502979921</v>
-      </c>
-      <c r="D119">
-        <v>1</v>
-      </c>
-      <c r="E119">
-        <v>1.045711026865237</v>
-      </c>
-      <c r="F119">
-        <v>0.1353699666003889</v>
-      </c>
-      <c r="G119">
-        <v>0.2630927993814967</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>specific_factorStyle-related beliefs:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_53 - specific_factorStyle-related beliefs:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
-        </is>
-      </c>
-      <c r="C120">
-        <v>25.93526579752995</v>
-      </c>
-      <c r="D120">
-        <v>1</v>
-      </c>
-      <c r="E120">
-        <v>1.296521798931671</v>
-      </c>
-      <c r="F120">
-        <v>0.0101628314014698</v>
-      </c>
-      <c r="G120">
-        <v>0.1112893163976043</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>specific_factorOthers' negative emotions:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_54 - specific_factorOthers' negative emotions:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
-        </is>
-      </c>
-      <c r="C121">
-        <v>4.062753557183917</v>
-      </c>
-      <c r="D121">
-        <v>1</v>
-      </c>
-      <c r="E121">
-        <v>2.137239653524687</v>
-      </c>
-      <c r="F121">
-        <v>0.04965715997102951</v>
-      </c>
-      <c r="G121">
-        <v>0.1210393274293844</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>specific_factorOthers' positive behaviours:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_54 - specific_factorOthers' positive behaviours:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
-        </is>
-      </c>
-      <c r="C122">
-        <v>23.897319658187</v>
-      </c>
-      <c r="D122">
-        <v>1</v>
-      </c>
-      <c r="E122">
-        <v>1.117772158795371</v>
-      </c>
-      <c r="F122">
-        <v>0.01882430548493517</v>
-      </c>
-      <c r="G122">
-        <v>0.1112893163976043</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>specific_factorPersonal responsibility for others' motivation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_55 - specific_factorPersonal responsibility for others' motivation:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
-        </is>
-      </c>
-      <c r="C123">
-        <v>4.285672307891141</v>
-      </c>
-      <c r="D123">
-        <v>1</v>
-      </c>
-      <c r="E123">
-        <v>1.022966555986009</v>
-      </c>
-      <c r="F123">
-        <v>0.1416653535131136</v>
-      </c>
-      <c r="G123">
-        <v>0.2630927993814967</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>specific_factorSelf-efficacy:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_55 - specific_factorSelf-efficacy:country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_51</t>
-        </is>
-      </c>
-      <c r="C124">
-        <v>3.075741400875956</v>
-      </c>
-      <c r="D124">
-        <v>1</v>
-      </c>
-      <c r="E124">
-        <v>1.040350557948872</v>
-      </c>
-      <c r="F124">
-        <v>0.1922813189966749</v>
-      </c>
-      <c r="G124">
-        <v>0.3260422365595791</v>
+        <v>0.2729464264001755</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>outcome</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_5</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>n_effect_sizes</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>k_studies</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C2">
+        <v>517</v>
+      </c>
+      <c r="D2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C3">
+        <v>59</v>
+      </c>
+      <c r="D3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="C4">
+        <v>58</v>
+      </c>
+      <c r="D4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C5">
+        <v>177</v>
+      </c>
+      <c r="D5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C6">
+        <v>27</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C7">
+        <v>7</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C8">
+        <v>282</v>
+      </c>
+      <c r="D8">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C9">
+        <v>63</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C10">
+        <v>51</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="C11">
+        <v>17</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C12">
+        <v>18</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C13">
+        <v>7</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
